--- a/tests/parsers/roche_cedex_hires/testdata/roche_cedex_hires_example_4.xlsx
+++ b/tests/parsers/roche_cedex_hires/testdata/roche_cedex_hires_example_4.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pchakravarthi\Desktop\Connecter\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D73635E-AA7D-4BDA-90D5-79F11B006A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -328,18 +337,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss am/pm"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -350,39 +360,51 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -572,20 +594,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AH98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="N67" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="12.5703125" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,9 +719,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -703,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
@@ -728,72 +758,72 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="3">
         <v>44245.592141203706</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="3">
         <v>44245.59269675926</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T2" s="1">
-        <v>12.1762866973877</v>
+        <v>12.176286697387701</v>
       </c>
       <c r="U2" s="1">
-        <v>84.9222869873047</v>
+        <v>84.922286987304702</v>
       </c>
       <c r="V2" s="1">
-        <v>47.3328552246094</v>
+        <v>47.332855224609403</v>
       </c>
       <c r="W2" s="1">
-        <v>403.375885009766</v>
+        <v>403.37588500976602</v>
       </c>
       <c r="X2" s="1">
         <v>1.39031970500946</v>
       </c>
       <c r="Y2" s="1">
-        <v>2788.0</v>
+        <v>2788</v>
       </c>
       <c r="Z2" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AA2" s="1">
-        <v>2800.0</v>
+        <v>2800</v>
       </c>
       <c r="AB2" s="1">
-        <v>99.5714285714286</v>
+        <v>99.571428571428598</v>
       </c>
       <c r="AC2" s="1">
-        <v>2460991.34521953</v>
+        <v>2460991.3452195302</v>
       </c>
       <c r="AD2" s="1">
         <v>10592.5022032405</v>
       </c>
       <c r="AE2" s="1">
-        <v>2471583.84742277</v>
+        <v>2471583.8474227702</v>
       </c>
       <c r="AF2" s="1">
-        <v>98167.3472311046</v>
+        <v>98167.347231104606</v>
       </c>
       <c r="AG2" s="1">
-        <v>2800.0</v>
+        <v>2800</v>
       </c>
       <c r="AH2" s="1">
-        <v>6.07142857142857</v>
+        <v>6.0714285714285703</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -805,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>34</v>
@@ -829,49 +859,49 @@
         <v>39</v>
       </c>
       <c r="N3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="3">
         <v>43306.540868055556</v>
       </c>
-      <c r="R3" s="2">
-        <v>43306.54681712963</v>
+      <c r="R3" s="3">
+        <v>43306.546817129631</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T3" s="1">
-        <v>13.7125835418701</v>
+        <v>13.712583541870099</v>
       </c>
       <c r="U3" s="1">
         <v>123.338729858398</v>
       </c>
       <c r="V3" s="1">
-        <v>53.3826103210449</v>
+        <v>53.382610321044901</v>
       </c>
       <c r="W3" s="1">
-        <v>488.043487548828</v>
+        <v>488.04348754882801</v>
       </c>
       <c r="X3" s="1">
         <v>1.18898618221283</v>
       </c>
       <c r="Y3" s="1">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="Z3" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA3" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="AB3" s="1">
-        <v>86.4661636352539</v>
+        <v>86.466163635253906</v>
       </c>
       <c r="AC3" s="1">
         <v>6031177.5</v>
@@ -880,21 +910,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE3" s="1">
-        <v>6975188.0</v>
+        <v>6975188</v>
       </c>
       <c r="AF3" s="1">
         <v>815853.0625</v>
       </c>
       <c r="AG3" s="1">
-        <v>133.0</v>
+        <v>133</v>
       </c>
       <c r="AH3" s="1">
         <v>13.5338344573975</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -906,7 +936,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -933,15 +963,15 @@
         <v>0.25</v>
       </c>
       <c r="O4" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="3">
         <v>43158.364386574074</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="3">
         <v>43158.365439814814</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -957,45 +987,45 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W4" s="1">
-        <v>490.616149902344</v>
+        <v>490.61614990234398</v>
       </c>
       <c r="X4" s="1">
-        <v>1.19486701488495</v>
+        <v>1.1948670148849501</v>
       </c>
       <c r="Y4" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="Z4" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA4" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="AB4" s="1">
-        <v>84.6153869628906</v>
+        <v>84.615386962890597</v>
       </c>
       <c r="AC4" s="1">
-        <v>2.076823E7</v>
+        <v>20768230</v>
       </c>
       <c r="AD4" s="1">
         <v>3776041.75</v>
       </c>
       <c r="AE4" s="1">
-        <v>2.454427E7</v>
+        <v>24544270</v>
       </c>
       <c r="AF4" s="1">
         <v>890021.5625</v>
       </c>
       <c r="AG4" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AH4" s="1">
-        <v>15.384614944458</v>
+        <v>15.384614944458001</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -1007,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>34</v>
@@ -1031,31 +1061,31 @@
         <v>39</v>
       </c>
       <c r="N5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="2">
-        <v>43158.560625</v>
-      </c>
-      <c r="R5" s="2">
-        <v>43250.54456018518</v>
+      <c r="Q5" s="3">
+        <v>43158.560624999998</v>
+      </c>
+      <c r="R5" s="3">
+        <v>43250.544560185182</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T5" s="1">
-        <v>13.7313766479492</v>
+        <v>13.731376647949199</v>
       </c>
       <c r="U5" s="1">
-        <v>123.477882385254</v>
+        <v>123.47788238525401</v>
       </c>
       <c r="V5" s="1">
-        <v>53.4672889709473</v>
+        <v>53.467288970947301</v>
       </c>
       <c r="W5" s="1">
         <v>489.233642578125</v>
@@ -1064,16 +1094,16 @@
         <v>1.19170677661896</v>
       </c>
       <c r="Y5" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="Z5" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA5" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AB5" s="1">
-        <v>85.5999984741211</v>
+        <v>85.599998474121094</v>
       </c>
       <c r="AC5" s="1">
         <v>5611617.5</v>
@@ -1082,21 +1112,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE5" s="1">
-        <v>6555628.0</v>
+        <v>6555628</v>
       </c>
       <c r="AF5" s="1">
         <v>730474.625</v>
       </c>
       <c r="AG5" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="AH5" s="1">
         <v>14.3999996185303</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
@@ -1108,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
@@ -1132,52 +1162,52 @@
         <v>39</v>
       </c>
       <c r="N6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="3">
         <v>43250.363854166666</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="3">
         <v>43250.36650462963</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T6" s="1">
-        <v>14.0118236541748</v>
+        <v>14.011823654174799</v>
       </c>
       <c r="U6" s="1">
         <v>126.82878112793</v>
       </c>
       <c r="V6" s="1">
-        <v>54.5483856201172</v>
+        <v>54.548385620117202</v>
       </c>
       <c r="W6" s="1">
-        <v>506.677429199219</v>
+        <v>506.67742919921898</v>
       </c>
       <c r="X6" s="1">
-        <v>1.21175599098206</v>
+        <v>1.2117559909820601</v>
       </c>
       <c r="Y6" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AB6" s="1">
-        <v>83.7837829589844</v>
+        <v>83.783782958984403</v>
       </c>
       <c r="AC6" s="1">
-        <v>4877387.0</v>
+        <v>4877387</v>
       </c>
       <c r="AD6" s="1">
         <v>944010.4375</v>
@@ -1186,18 +1216,18 @@
         <v>5821397.5</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.069444440305233</v>
+        <v>6.9444440305233002E-2</v>
       </c>
       <c r="AG6" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AH6" s="1">
-        <v>5.40540552139282</v>
+        <v>5.4054055213928196</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -1209,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>34</v>
@@ -1233,19 +1263,19 @@
         <v>39</v>
       </c>
       <c r="N7" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="2">
-        <v>43243.54258101852</v>
-      </c>
-      <c r="R7" s="2">
-        <v>43243.54454861111</v>
+      <c r="Q7" s="3">
+        <v>43243.542581018519</v>
+      </c>
+      <c r="R7" s="3">
+        <v>43243.544548611113</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>41</v>
@@ -1257,25 +1287,25 @@
         <v>122.185585021973</v>
       </c>
       <c r="V7" s="1">
-        <v>53.1176452636719</v>
+        <v>53.117645263671903</v>
       </c>
       <c r="W7" s="1">
-        <v>483.294128417969</v>
+        <v>483.29412841796898</v>
       </c>
       <c r="X7" s="1">
         <v>1.18716764450073</v>
       </c>
       <c r="Y7" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="Z7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA7" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AB7" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="AC7" s="1">
         <v>5349392.5</v>
@@ -1284,21 +1314,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE7" s="1">
-        <v>6293403.0</v>
+        <v>6293403</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.222222223877907</v>
+        <v>0.22222222387790699</v>
       </c>
       <c r="AG7" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AH7" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
@@ -1310,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>34</v>
@@ -1334,19 +1364,19 @@
         <v>39</v>
       </c>
       <c r="N8" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="2">
-        <v>43158.560625</v>
-      </c>
-      <c r="R8" s="2">
-        <v>43250.54556712963</v>
+      <c r="Q8" s="3">
+        <v>43158.560624999998</v>
+      </c>
+      <c r="R8" s="3">
+        <v>43250.545567129629</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>41</v>
@@ -1358,25 +1388,25 @@
         <v>122.185585021973</v>
       </c>
       <c r="V8" s="1">
-        <v>53.1176452636719</v>
+        <v>53.117645263671903</v>
       </c>
       <c r="W8" s="1">
-        <v>483.294128417969</v>
+        <v>483.29412841796898</v>
       </c>
       <c r="X8" s="1">
         <v>1.18716764450073</v>
       </c>
       <c r="Y8" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="Z8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA8" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="AB8" s="1">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="AC8" s="1">
         <v>5349392.5</v>
@@ -1385,21 +1415,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE8" s="1">
-        <v>6293403.0</v>
+        <v>6293403</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.222222223877907</v>
+        <v>0.22222222387790699</v>
       </c>
       <c r="AG8" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="AH8" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -1411,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
@@ -1435,19 +1465,19 @@
         <v>39</v>
       </c>
       <c r="N9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="2">
-        <v>43158.370625</v>
-      </c>
-      <c r="R9" s="2">
-        <v>43158.37237268518</v>
+      <c r="Q9" s="3">
+        <v>43158.370625000003</v>
+      </c>
+      <c r="R9" s="3">
+        <v>43158.372372685182</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>41</v>
@@ -1459,25 +1489,25 @@
         <v>122.08959197998</v>
       </c>
       <c r="V9" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="W9" s="1">
-        <v>481.779663085938</v>
+        <v>481.77966308593801</v>
       </c>
       <c r="X9" s="1">
-        <v>1.1824803352356</v>
+        <v>1.1824803352355999</v>
       </c>
       <c r="Y9" s="1">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="Z9" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA9" s="1">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="AB9" s="1">
-        <v>86.7647094726563</v>
+        <v>86.764709472656307</v>
       </c>
       <c r="AC9" s="1">
         <v>6188512.5</v>
@@ -1486,21 +1516,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE9" s="1">
-        <v>7132523.0</v>
+        <v>7132523</v>
       </c>
       <c r="AF9" s="1">
         <v>593347.6875</v>
       </c>
       <c r="AG9" s="1">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="AH9" s="1">
-        <v>17.6470584869385</v>
+        <v>17.647058486938501</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -1512,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
@@ -1536,18 +1566,18 @@
         <v>39</v>
       </c>
       <c r="N10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="3">
         <v>43158.364386574074</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="3">
         <v>43158.365439814814</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -1563,22 +1593,22 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W10" s="1">
-        <v>490.616149902344</v>
+        <v>490.61614990234398</v>
       </c>
       <c r="X10" s="1">
-        <v>1.19486701488495</v>
+        <v>1.1948670148849501</v>
       </c>
       <c r="Y10" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="Z10" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA10" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="AB10" s="1">
-        <v>84.6153869628906</v>
+        <v>84.615386962890597</v>
       </c>
       <c r="AC10" s="1">
         <v>5192057.5</v>
@@ -1593,15 +1623,15 @@
         <v>222505.390625</v>
       </c>
       <c r="AG10" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AH10" s="1">
-        <v>15.384614944458</v>
+        <v>15.384614944458001</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -1613,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
@@ -1637,31 +1667,31 @@
         <v>39</v>
       </c>
       <c r="N11" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="2">
-        <v>43158.35454861111</v>
-      </c>
-      <c r="R11" s="2">
-        <v>43158.35631944444</v>
+      <c r="Q11" s="3">
+        <v>43158.354548611111</v>
+      </c>
+      <c r="R11" s="3">
+        <v>43158.356319444443</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T11" s="1">
-        <v>13.7313766479492</v>
+        <v>13.731376647949199</v>
       </c>
       <c r="U11" s="1">
-        <v>123.477882385254</v>
+        <v>123.47788238525401</v>
       </c>
       <c r="V11" s="1">
-        <v>53.4672889709473</v>
+        <v>53.467288970947301</v>
       </c>
       <c r="W11" s="1">
         <v>489.233642578125</v>
@@ -1670,16 +1700,16 @@
         <v>1.19170677661896</v>
       </c>
       <c r="Y11" s="1">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="Z11" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA11" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AB11" s="1">
-        <v>85.5999984741211</v>
+        <v>85.599998474121094</v>
       </c>
       <c r="AC11" s="1">
         <v>5611617.5</v>
@@ -1688,21 +1718,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE11" s="1">
-        <v>6555628.0</v>
+        <v>6555628</v>
       </c>
       <c r="AF11" s="1">
         <v>730474.625</v>
       </c>
       <c r="AG11" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="AH11" s="1">
         <v>14.3999996185303</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -1714,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
@@ -1738,19 +1768,19 @@
         <v>39</v>
       </c>
       <c r="N12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="2">
-        <v>43158.33563657408</v>
-      </c>
-      <c r="R12" s="2">
-        <v>43158.34153935185</v>
+      <c r="Q12" s="3">
+        <v>43158.335636574076</v>
+      </c>
+      <c r="R12" s="3">
+        <v>43158.341539351852</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>41</v>
@@ -1765,22 +1795,22 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W12" s="1">
-        <v>490.616149902344</v>
+        <v>490.61614990234398</v>
       </c>
       <c r="X12" s="1">
-        <v>1.19486701488495</v>
+        <v>1.1948670148849501</v>
       </c>
       <c r="Y12" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="Z12" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA12" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="AB12" s="1">
-        <v>84.6153869628906</v>
+        <v>84.615386962890597</v>
       </c>
       <c r="AC12" s="1">
         <v>5192057.5</v>
@@ -1795,15 +1825,15 @@
         <v>222505.390625</v>
       </c>
       <c r="AG12" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AH12" s="1">
-        <v>15.384614944458</v>
+        <v>15.384614944458001</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -1815,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
@@ -1839,31 +1869,31 @@
         <v>55</v>
       </c>
       <c r="N13" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="2">
-        <v>43147.51180555556</v>
-      </c>
-      <c r="R13" s="2">
-        <v>43147.51300925926</v>
+      <c r="Q13" s="3">
+        <v>43147.511805555558</v>
+      </c>
+      <c r="R13" s="3">
+        <v>43147.513009259259</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T13" s="1">
-        <v>13.7313766479492</v>
+        <v>13.731376647949199</v>
       </c>
       <c r="U13" s="1">
-        <v>123.477882385254</v>
+        <v>123.47788238525401</v>
       </c>
       <c r="V13" s="1">
-        <v>53.4672889709473</v>
+        <v>53.467288970947301</v>
       </c>
       <c r="W13" s="1">
         <v>489.233642578125</v>
@@ -1872,16 +1902,16 @@
         <v>1.19170677661896</v>
       </c>
       <c r="Y13" s="1">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="Z13" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AA13" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="AB13" s="1">
-        <v>85.5999984741211</v>
+        <v>85.599998474121094</v>
       </c>
       <c r="AC13" s="1">
         <v>5611617.5</v>
@@ -1890,21 +1920,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE13" s="1">
-        <v>6555628.0</v>
+        <v>6555628</v>
       </c>
       <c r="AF13" s="1">
         <v>730474.625</v>
       </c>
       <c r="AG13" s="1">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="AH13" s="1">
         <v>14.3999996185303</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -1916,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>34</v>
@@ -1940,19 +1970,19 @@
         <v>55</v>
       </c>
       <c r="N14" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="3">
         <v>43147.50984953704</v>
       </c>
-      <c r="R14" s="2">
-        <v>43147.51119212963</v>
+      <c r="R14" s="3">
+        <v>43147.511192129627</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>41</v>
@@ -1961,31 +1991,31 @@
         <v>13.6614942550659</v>
       </c>
       <c r="U14" s="1">
-        <v>122.706115722656</v>
+        <v>122.70611572265599</v>
       </c>
       <c r="V14" s="1">
         <v>53.1888427734375</v>
       </c>
       <c r="W14" s="1">
-        <v>484.871246337891</v>
+        <v>484.87124633789102</v>
       </c>
       <c r="X14" s="1">
         <v>1.18569135665894</v>
       </c>
       <c r="Y14" s="1">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="Z14" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="1">
-        <v>252.0</v>
+        <v>252</v>
       </c>
       <c r="AB14" s="1">
-        <v>86.6171035766602</v>
+        <v>86.617103576660199</v>
       </c>
       <c r="AC14" s="1">
-        <v>6109845.0</v>
+        <v>6109845</v>
       </c>
       <c r="AD14" s="1">
         <v>944010.4375</v>
@@ -1997,15 +2027,15 @@
         <v>717654.125</v>
       </c>
       <c r="AG14" s="1">
-        <v>269.0</v>
+        <v>269</v>
       </c>
       <c r="AH14" s="1">
         <v>15.6133832931519</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
@@ -2017,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
@@ -2041,19 +2071,19 @@
         <v>55</v>
       </c>
       <c r="N15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="2">
-        <v>43147.49267361111</v>
-      </c>
-      <c r="R15" s="2">
-        <v>43147.49989583333</v>
+      <c r="Q15" s="3">
+        <v>43147.492673611108</v>
+      </c>
+      <c r="R15" s="3">
+        <v>43147.499895833331</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>41</v>
@@ -2062,51 +2092,51 @@
         <v>13.6933794021606</v>
       </c>
       <c r="U15" s="1">
-        <v>122.901702880859</v>
+        <v>122.90170288085901</v>
       </c>
       <c r="V15" s="1">
-        <v>53.3383102416992</v>
+        <v>53.338310241699197</v>
       </c>
       <c r="W15" s="1">
-        <v>486.900512695313</v>
+        <v>486.90051269531301</v>
       </c>
       <c r="X15" s="1">
-        <v>1.19095993041992</v>
+        <v>1.1909599304199201</v>
       </c>
       <c r="Y15" s="1">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="Z15" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AA15" s="1">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="AB15" s="1">
-        <v>84.8101272583008</v>
+        <v>84.810127258300795</v>
       </c>
       <c r="AC15" s="1">
-        <v>5270725.0</v>
+        <v>5270725</v>
       </c>
       <c r="AD15" s="1">
         <v>944010.4375</v>
       </c>
       <c r="AE15" s="1">
-        <v>6214735.0</v>
+        <v>6214735</v>
       </c>
       <c r="AF15" s="1">
         <v>175905.953125</v>
       </c>
       <c r="AG15" s="1">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="AH15" s="1">
-        <v>17.7215194702148</v>
+        <v>17.721519470214801</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
@@ -2118,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -2142,49 +2172,49 @@
         <v>55</v>
       </c>
       <c r="N16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="3">
         <v>43130.69258101852</v>
       </c>
-      <c r="R16" s="2">
-        <v>43130.69446759259</v>
+      <c r="R16" s="3">
+        <v>43130.694467592592</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T16" s="1">
-        <v>13.7418689727783</v>
+        <v>13.741868972778301</v>
       </c>
       <c r="U16" s="1">
         <v>123.555557250977</v>
       </c>
       <c r="V16" s="1">
-        <v>53.5145645141602</v>
+        <v>53.514564514160199</v>
       </c>
       <c r="W16" s="1">
-        <v>489.898071289063</v>
+        <v>489.89807128906301</v>
       </c>
       <c r="X16" s="1">
         <v>1.19322550296783</v>
       </c>
       <c r="Y16" s="1">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="Z16" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AA16" s="1">
-        <v>226.0</v>
+        <v>226</v>
       </c>
       <c r="AB16" s="1">
-        <v>85.1239700317383</v>
+        <v>85.123970031738295</v>
       </c>
       <c r="AC16" s="1">
         <v>5401837.5</v>
@@ -2193,21 +2223,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE16" s="1">
-        <v>6345848.0</v>
+        <v>6345848</v>
       </c>
       <c r="AF16" s="1">
         <v>579274.1875</v>
       </c>
       <c r="AG16" s="1">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="AH16" s="1">
         <v>14.8760328292847</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -2219,7 +2249,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -2243,19 +2273,19 @@
         <v>55</v>
       </c>
       <c r="N17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="3">
         <v>43130.59884259259</v>
       </c>
-      <c r="R17" s="2">
-        <v>43130.60057870371</v>
+      <c r="R17" s="3">
+        <v>43130.600578703707</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>41</v>
@@ -2270,22 +2300,22 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W17" s="1">
-        <v>490.616149902344</v>
+        <v>490.61614990234398</v>
       </c>
       <c r="X17" s="1">
-        <v>1.19486701488495</v>
+        <v>1.1948670148849501</v>
       </c>
       <c r="Y17" s="1">
-        <v>198.0</v>
+        <v>198</v>
       </c>
       <c r="Z17" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AA17" s="1">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="AB17" s="1">
-        <v>84.6153869628906</v>
+        <v>84.615386962890597</v>
       </c>
       <c r="AC17" s="1">
         <v>5192057.5</v>
@@ -2300,15 +2330,15 @@
         <v>222505.390625</v>
       </c>
       <c r="AG17" s="1">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="AH17" s="1">
-        <v>15.384614944458</v>
+        <v>15.384614944458001</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
@@ -2320,7 +2350,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
@@ -2344,49 +2374,49 @@
         <v>55</v>
       </c>
       <c r="N18" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="2">
-        <v>43130.5490162037</v>
-      </c>
-      <c r="R18" s="2">
+      <c r="Q18" s="3">
+        <v>43130.549016203702</v>
+      </c>
+      <c r="R18" s="3">
         <v>43130.555451388886</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T18" s="1">
-        <v>13.8617849349976</v>
+        <v>13.861784934997599</v>
       </c>
       <c r="U18" s="1">
         <v>125.03604888916</v>
       </c>
       <c r="V18" s="1">
-        <v>53.9700012207031</v>
+        <v>53.970001220703097</v>
       </c>
       <c r="W18" s="1">
-        <v>497.345001220703</v>
+        <v>497.34500122070301</v>
       </c>
       <c r="X18" s="1">
-        <v>1.20102965831757</v>
+        <v>1.2010296583175699</v>
       </c>
       <c r="Y18" s="1">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="Z18" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AA18" s="1">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="AB18" s="1">
-        <v>84.7457656860352</v>
+        <v>84.745765686035199</v>
       </c>
       <c r="AC18" s="1">
         <v>5244502.5</v>
@@ -2401,15 +2431,15 @@
         <v>633695.625</v>
       </c>
       <c r="AG18" s="1">
-        <v>236.0</v>
+        <v>236</v>
       </c>
       <c r="AH18" s="1">
-        <v>10.1694917678833</v>
+        <v>10.169491767883301</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
@@ -2421,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
@@ -2445,52 +2475,52 @@
         <v>39</v>
       </c>
       <c r="N19" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="2">
-        <v>43110.66663194444</v>
-      </c>
-      <c r="R19" s="2">
+      <c r="Q19" s="3">
+        <v>43110.666631944441</v>
+      </c>
+      <c r="R19" s="3">
         <v>43110.668171296296</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T19" s="1">
-        <v>13.6021490097046</v>
+        <v>13.602149009704601</v>
       </c>
       <c r="U19" s="1">
         <v>122.050735473633</v>
       </c>
       <c r="V19" s="1">
-        <v>52.9523811340332</v>
+        <v>52.952381134033203</v>
       </c>
       <c r="W19" s="1">
-        <v>481.166656494141</v>
+        <v>481.16665649414102</v>
       </c>
       <c r="X19" s="1">
-        <v>1.18058300018311</v>
+        <v>1.1805830001831099</v>
       </c>
       <c r="Y19" s="1">
-        <v>126.0</v>
+        <v>126</v>
       </c>
       <c r="Z19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA19" s="1">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="AB19" s="1">
         <v>87.5</v>
       </c>
       <c r="AC19" s="1">
-        <v>6608073.0</v>
+        <v>6608073</v>
       </c>
       <c r="AD19" s="1">
         <v>944010.4375</v>
@@ -2499,18 +2529,18 @@
         <v>7552083.5</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.16666667163372</v>
+        <v>0.16666667163372001</v>
       </c>
       <c r="AG19" s="1">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="AH19" s="1">
         <v>16.6666660308838</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
@@ -2522,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>34</v>
@@ -2546,18 +2576,18 @@
         <v>39</v>
       </c>
       <c r="N20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="Q20" s="3">
         <v>43110.649675925924</v>
       </c>
-      <c r="R20" s="2">
+      <c r="R20" s="3">
         <v>43110.655185185184</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -2573,22 +2603,22 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W20" s="1">
-        <v>490.616149902344</v>
+        <v>490.61614990234398</v>
       </c>
       <c r="X20" s="1">
-        <v>1.19486701488495</v>
+        <v>1.1948670148849501</v>
       </c>
       <c r="Y20" s="1">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="Z20" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA20" s="1">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="AB20" s="1">
-        <v>84.6153869628906</v>
+        <v>84.615386962890597</v>
       </c>
       <c r="AC20" s="1">
         <v>5192057.5</v>
@@ -2603,15 +2633,15 @@
         <v>222505.390625</v>
       </c>
       <c r="AG20" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AH20" s="1">
-        <v>15.384614944458</v>
+        <v>15.384614944458001</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
@@ -2623,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
@@ -2648,19 +2678,19 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O21" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="2">
-        <v>39549.56574074074</v>
-      </c>
-      <c r="R21" s="2">
-        <v>39549.65362268518</v>
+      <c r="Q21" s="3">
+        <v>39549.565740740742</v>
+      </c>
+      <c r="R21" s="3">
+        <v>39549.653622685182</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>41</v>
@@ -2669,51 +2699,51 @@
         <v>11.5630340576172</v>
       </c>
       <c r="U21" s="1">
-        <v>80.036003112793</v>
+        <v>80.036003112792997</v>
       </c>
       <c r="V21" s="1">
-        <v>44.9008941650391</v>
+        <v>44.900894165039098</v>
       </c>
       <c r="W21" s="1">
-        <v>364.414611816406</v>
+        <v>364.41461181640602</v>
       </c>
       <c r="X21" s="1">
         <v>1.31174564361572</v>
       </c>
       <c r="Y21" s="1">
-        <v>3572.0</v>
+        <v>3572</v>
       </c>
       <c r="Z21" s="1">
-        <v>765.0</v>
+        <v>765</v>
       </c>
       <c r="AA21" s="1">
-        <v>4337.0</v>
+        <v>4337</v>
       </c>
       <c r="AB21" s="1">
-        <v>82.3610790869265</v>
+        <v>82.361079086926495</v>
       </c>
       <c r="AC21" s="1">
         <v>2194512.23645854</v>
       </c>
       <c r="AD21" s="1">
-        <v>469989.322757779</v>
+        <v>469989.32275777898</v>
       </c>
       <c r="AE21" s="1">
         <v>2664501.55921632</v>
       </c>
       <c r="AF21" s="1">
-        <v>131308.958842724</v>
+        <v>131308.95884272401</v>
       </c>
       <c r="AG21" s="1">
-        <v>4337.0</v>
+        <v>4337</v>
       </c>
       <c r="AH21" s="1">
-        <v>5.55683652294213</v>
+        <v>5.5568365229421302</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>34</v>
@@ -2725,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>34</v>
@@ -2750,19 +2780,19 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="2">
-        <v>39549.56570601852</v>
-      </c>
-      <c r="R22" s="2">
-        <v>39549.65005787037</v>
+      <c r="Q22" s="3">
+        <v>39549.565706018519</v>
+      </c>
+      <c r="R22" s="3">
+        <v>39549.650057870371</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>41</v>
@@ -2777,45 +2807,45 @@
         <v>57.3278879813302</v>
       </c>
       <c r="W22" s="1">
-        <v>575.916569428238</v>
+        <v>575.91656942823795</v>
       </c>
       <c r="X22" s="1">
-        <v>1.27148062254055</v>
+        <v>1.2714806225405499</v>
       </c>
       <c r="Y22" s="1">
-        <v>3428.0</v>
+        <v>3428</v>
       </c>
       <c r="Z22" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="AA22" s="1">
-        <v>2653.0</v>
+        <v>2653</v>
       </c>
       <c r="AB22" s="1">
-        <v>97.3310618966496</v>
+        <v>97.331061896649601</v>
       </c>
       <c r="AC22" s="1">
-        <v>1914585.14368825</v>
+        <v>1914585.1436882501</v>
       </c>
       <c r="AD22" s="1">
-        <v>52500.2927382427</v>
+        <v>52500.292738242701</v>
       </c>
       <c r="AE22" s="1">
-        <v>1967085.4364265</v>
+        <v>1967085.4364265001</v>
       </c>
       <c r="AF22" s="1">
         <v>121209.065829051</v>
       </c>
       <c r="AG22" s="1">
-        <v>3522.0</v>
+        <v>3522</v>
       </c>
       <c r="AH22" s="1">
-        <v>47.2458830210108</v>
+        <v>47.245883021010798</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -2827,7 +2857,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>34</v>
@@ -2852,19 +2882,19 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O23" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="Q23" s="3">
         <v>39549.359560185185</v>
       </c>
-      <c r="R23" s="2">
-        <v>39549.36253472222</v>
+      <c r="R23" s="3">
+        <v>39549.362534722219</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>41</v>
@@ -2873,34 +2903,34 @@
         <v>11.5433403005693</v>
       </c>
       <c r="U23" s="1">
-        <v>90.9093952149452</v>
+        <v>90.909395214945206</v>
       </c>
       <c r="V23" s="1">
-        <v>44.8229885057471</v>
+        <v>44.822988505747098</v>
       </c>
       <c r="W23" s="1">
-        <v>376.572590627763</v>
+        <v>376.57259062776302</v>
       </c>
       <c r="X23" s="1">
-        <v>1.19381040177506</v>
+        <v>1.1938104017750599</v>
       </c>
       <c r="Y23" s="1">
-        <v>5655.0</v>
+        <v>5655</v>
       </c>
       <c r="Z23" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="AA23" s="1">
-        <v>5509.0</v>
+        <v>5509</v>
       </c>
       <c r="AB23" s="1">
-        <v>98.9674483724186</v>
+        <v>98.967448372418602</v>
       </c>
       <c r="AC23" s="1">
-        <v>5790391.3294014</v>
+        <v>5790391.3294013999</v>
       </c>
       <c r="AD23" s="1">
-        <v>60412.5708991481</v>
+        <v>60412.570899148101</v>
       </c>
       <c r="AE23" s="1">
         <v>5850803.90030054</v>
@@ -2909,15 +2939,15 @@
         <v>186166.037976828</v>
       </c>
       <c r="AG23" s="1">
-        <v>5714.0</v>
+        <v>5714</v>
       </c>
       <c r="AH23" s="1">
-        <v>16.1883094154708</v>
+        <v>16.188309415470801</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -2929,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>34</v>
@@ -2954,72 +2984,72 @@
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="2">
-        <v>39549.35302083333</v>
-      </c>
-      <c r="R24" s="2">
-        <v>39549.3559375</v>
+      <c r="Q24" s="3">
+        <v>39549.353020833332</v>
+      </c>
+      <c r="R24" s="3">
+        <v>39549.355937499997</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AA24" s="1">
-        <v>3495.0</v>
+        <v>3495</v>
       </c>
       <c r="AB24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="1">
-        <v>13311.2444354055</v>
+        <v>13311.244435405501</v>
       </c>
       <c r="AE24" s="1">
-        <v>13311.2444354055</v>
+        <v>13311.244435405501</v>
       </c>
       <c r="AF24" s="1">
-        <v>4221.82052427633</v>
+        <v>4221.8205242763297</v>
       </c>
       <c r="AG24" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AH24" s="1">
-        <v>30.7692307692308</v>
+        <v>30.769230769230798</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -3031,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>34</v>
@@ -3056,19 +3086,19 @@
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q25" s="3">
         <v>39549.347025462965</v>
       </c>
-      <c r="R25" s="2">
-        <v>39549.34991898148</v>
+      <c r="R25" s="3">
+        <v>39549.349918981483</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>41</v>
@@ -3077,28 +3107,28 @@
         <v>10.8430392800945</v>
       </c>
       <c r="U25" s="1">
-        <v>78.751461630753</v>
+        <v>78.751461630752999</v>
       </c>
       <c r="V25" s="1">
         <v>42.0907534246575</v>
       </c>
       <c r="W25" s="1">
-        <v>336.872431506849</v>
+        <v>336.87243150684901</v>
       </c>
       <c r="X25" s="1">
-        <v>1.20121157373849</v>
+        <v>1.2012115737384901</v>
       </c>
       <c r="Y25" s="1">
-        <v>1168.0</v>
+        <v>1168</v>
       </c>
       <c r="Z25" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA25" s="1">
-        <v>1209.0</v>
+        <v>1209</v>
       </c>
       <c r="AB25" s="1">
-        <v>99.8290598290598</v>
+        <v>99.829059829059801</v>
       </c>
       <c r="AC25" s="1">
         <v>1195964.1154272</v>
@@ -3110,18 +3140,18 @@
         <v>1198011.9991865</v>
       </c>
       <c r="AF25" s="1">
-        <v>62753.5209385934</v>
+        <v>62753.520938593399</v>
       </c>
       <c r="AG25" s="1">
-        <v>1170.0</v>
+        <v>1170</v>
       </c>
       <c r="AH25" s="1">
-        <v>8.29059829059829</v>
+        <v>8.2905982905982896</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
@@ -3133,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>34</v>
@@ -3158,72 +3188,72 @@
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="2">
-        <v>39549.34222222222</v>
-      </c>
-      <c r="R26" s="2">
+      <c r="Q26" s="3">
+        <v>39549.342222222222</v>
+      </c>
+      <c r="R26" s="3">
         <v>39549.34516203704</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T26" s="1">
-        <v>10.709265923303</v>
+        <v>10.709265923303001</v>
       </c>
       <c r="U26" s="1">
-        <v>77.5324479242212</v>
+        <v>77.532447924221202</v>
       </c>
       <c r="V26" s="1">
-        <v>41.5640495867769</v>
+        <v>41.564049586776903</v>
       </c>
       <c r="W26" s="1">
-        <v>331.530991735537</v>
+        <v>331.53099173553699</v>
       </c>
       <c r="X26" s="1">
         <v>1.19324818144386</v>
       </c>
       <c r="Y26" s="1">
-        <v>484.0</v>
+        <v>484</v>
       </c>
       <c r="Z26" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA26" s="1">
-        <v>530.0</v>
+        <v>530</v>
       </c>
       <c r="AB26" s="1">
-        <v>99.3839835728953</v>
+        <v>99.383983572895303</v>
       </c>
       <c r="AC26" s="1">
-        <v>495587.869748943</v>
+        <v>495587.86974894302</v>
       </c>
       <c r="AD26" s="1">
-        <v>3071.82563893973</v>
+        <v>3071.8256389397302</v>
       </c>
       <c r="AE26" s="1">
         <v>498659.695387883</v>
       </c>
       <c r="AF26" s="1">
-        <v>55112.4291832106</v>
+        <v>55112.429183210603</v>
       </c>
       <c r="AG26" s="1">
-        <v>487.0</v>
+        <v>487</v>
       </c>
       <c r="AH26" s="1">
-        <v>6.77618069815195</v>
+        <v>6.7761806981519497</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>34</v>
@@ -3235,7 +3265,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
@@ -3260,18 +3290,18 @@
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O27" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="2">
-        <v>39549.33851851852</v>
-      </c>
-      <c r="R27" s="2">
+      <c r="Q27" s="3">
+        <v>39549.338518518518</v>
+      </c>
+      <c r="R27" s="3">
         <v>39549.341458333336</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -3281,51 +3311,51 @@
         <v>10.905206300301</v>
       </c>
       <c r="U27" s="1">
-        <v>80.7163975572344</v>
+        <v>80.716397557234401</v>
       </c>
       <c r="V27" s="1">
-        <v>42.3262548262548</v>
+        <v>42.326254826254797</v>
       </c>
       <c r="W27" s="1">
-        <v>341.667953667954</v>
+        <v>341.66795366795401</v>
       </c>
       <c r="X27" s="1">
-        <v>1.19314509658116</v>
+        <v>1.1931450965811601</v>
       </c>
       <c r="Y27" s="1">
-        <v>518.0</v>
+        <v>518</v>
       </c>
       <c r="Z27" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA27" s="1">
-        <v>566.0</v>
+        <v>566</v>
       </c>
       <c r="AB27" s="1">
-        <v>99.2337164750958</v>
+        <v>99.233716475095804</v>
       </c>
       <c r="AC27" s="1">
-        <v>530401.893656927</v>
+        <v>530401.89365692704</v>
       </c>
       <c r="AD27" s="1">
         <v>4095.76751858631</v>
       </c>
       <c r="AE27" s="1">
-        <v>534497.661175513</v>
+        <v>534497.66117551306</v>
       </c>
       <c r="AF27" s="1">
-        <v>76405.552318367</v>
+        <v>76405.552318367001</v>
       </c>
       <c r="AG27" s="1">
-        <v>522.0</v>
+        <v>522</v>
       </c>
       <c r="AH27" s="1">
-        <v>5.17241379310345</v>
+        <v>5.1724137931034502</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
@@ -3337,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>34</v>
@@ -3362,52 +3392,52 @@
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="2">
-        <v>39549.335</v>
-      </c>
-      <c r="R28" s="2">
-        <v>39549.33793981482</v>
+      <c r="Q28" s="3">
+        <v>39549.334999999999</v>
+      </c>
+      <c r="R28" s="3">
+        <v>39549.337939814817</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T28" s="1">
-        <v>10.8007382913856</v>
+        <v>10.800738291385599</v>
       </c>
       <c r="U28" s="1">
-        <v>79.0963393731751</v>
+        <v>79.096339373175098</v>
       </c>
       <c r="V28" s="1">
-        <v>41.8947368421053</v>
+        <v>41.894736842105303</v>
       </c>
       <c r="W28" s="1">
-        <v>336.912885662432</v>
+        <v>336.91288566243202</v>
       </c>
       <c r="X28" s="1">
-        <v>1.1920519036792</v>
+        <v>1.1920519036792001</v>
       </c>
       <c r="Y28" s="1">
-        <v>551.0</v>
+        <v>551</v>
       </c>
       <c r="Z28" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA28" s="1">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="AB28" s="1">
-        <v>99.2792792792793</v>
+        <v>99.279279279279294</v>
       </c>
       <c r="AC28" s="1">
-        <v>564191.975685264</v>
+        <v>564191.97568526398</v>
       </c>
       <c r="AD28" s="1">
         <v>4095.76751858631</v>
@@ -3416,18 +3446,18 @@
         <v>568287.74320385</v>
       </c>
       <c r="AF28" s="1">
-        <v>77204.1313072256</v>
+        <v>77204.131307225602</v>
       </c>
       <c r="AG28" s="1">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="AH28" s="1">
-        <v>7.02702702702703</v>
+        <v>7.0270270270270299</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
@@ -3439,7 +3469,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>34</v>
@@ -3464,72 +3494,72 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="Q29" s="3">
         <v>39549.32240740741</v>
       </c>
-      <c r="R29" s="2">
-        <v>39549.33118055556</v>
+      <c r="R29" s="3">
+        <v>39549.331180555557</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T29" s="1">
-        <v>11.5885553986328</v>
+        <v>11.588555398632799</v>
       </c>
       <c r="U29" s="1">
-        <v>85.1993484180574</v>
+        <v>85.199348418057397</v>
       </c>
       <c r="V29" s="1">
-        <v>45.0049492699827</v>
+        <v>45.004949269982703</v>
       </c>
       <c r="W29" s="1">
-        <v>365.450136104925</v>
+        <v>365.45013610492498</v>
       </c>
       <c r="X29" s="1">
         <v>1.23496213601333</v>
       </c>
       <c r="Y29" s="1">
-        <v>4041.0</v>
+        <v>4041</v>
       </c>
       <c r="Z29" s="1">
-        <v>549.0</v>
+        <v>549</v>
       </c>
       <c r="AA29" s="1">
-        <v>5156.0</v>
+        <v>5156</v>
       </c>
       <c r="AB29" s="1">
-        <v>88.0392156862745</v>
+        <v>88.039215686274503</v>
       </c>
       <c r="AC29" s="1">
-        <v>2256954.0739919</v>
+        <v>2256954.0739918998</v>
       </c>
       <c r="AD29" s="1">
-        <v>306624.050141439</v>
+        <v>306624.05014143902</v>
       </c>
       <c r="AE29" s="1">
-        <v>2563578.12413334</v>
+        <v>2563578.1241333401</v>
       </c>
       <c r="AF29" s="1">
-        <v>148238.851178634</v>
+        <v>148238.85117863401</v>
       </c>
       <c r="AG29" s="1">
-        <v>4590.0</v>
+        <v>4590</v>
       </c>
       <c r="AH29" s="1">
-        <v>4.79302832244009</v>
+        <v>4.7930283224400902</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
@@ -3541,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>34</v>
@@ -3566,55 +3596,55 @@
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="2">
-        <v>39549.32237268519</v>
-      </c>
-      <c r="R30" s="2">
-        <v>39549.32759259259</v>
+      <c r="Q30" s="3">
+        <v>39549.322372685187</v>
+      </c>
+      <c r="R30" s="3">
+        <v>39549.327592592592</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T30" s="1">
-        <v>14.5474334164071</v>
+        <v>14.547433416407101</v>
       </c>
       <c r="U30" s="1">
-        <v>139.807695278704</v>
+        <v>139.80769527870399</v>
       </c>
       <c r="V30" s="1">
-        <v>56.6249636310736</v>
+        <v>56.624963631073598</v>
       </c>
       <c r="W30" s="1">
-        <v>561.478324119872</v>
+        <v>561.47832411987201</v>
       </c>
       <c r="X30" s="1">
-        <v>1.24855610117999</v>
+        <v>1.2485561011799899</v>
       </c>
       <c r="Y30" s="1">
-        <v>3437.0</v>
+        <v>3437</v>
       </c>
       <c r="Z30" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="AA30" s="1">
-        <v>2545.0</v>
+        <v>2545</v>
       </c>
       <c r="AB30" s="1">
-        <v>97.1727452643483</v>
+        <v>97.172745264348293</v>
       </c>
       <c r="AC30" s="1">
-        <v>1919611.76746107</v>
+        <v>1919611.7674610701</v>
       </c>
       <c r="AD30" s="1">
-        <v>55851.3752534497</v>
+        <v>55851.375253449703</v>
       </c>
       <c r="AE30" s="1">
         <v>1975463.14271451</v>
@@ -3623,15 +3653,15 @@
         <v>203110.189691715</v>
       </c>
       <c r="AG30" s="1">
-        <v>3537.0</v>
+        <v>3537</v>
       </c>
       <c r="AH30" s="1">
         <v>47.0172462538875</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
@@ -3643,7 +3673,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>34</v>
@@ -3668,72 +3698,72 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O31" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q31" s="2">
-        <v>39548.62836805556</v>
-      </c>
-      <c r="R31" s="2">
+      <c r="Q31" s="3">
+        <v>39548.628368055557</v>
+      </c>
+      <c r="R31" s="3">
         <v>39548.652407407404</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T31" s="1">
-        <v>11.8984815945184</v>
+        <v>11.898481594518399</v>
       </c>
       <c r="U31" s="1">
-        <v>90.8459892651805</v>
+        <v>90.845989265180506</v>
       </c>
       <c r="V31" s="1">
         <v>46.2198174706649</v>
       </c>
       <c r="W31" s="1">
-        <v>382.10482398957</v>
+        <v>382.10482398956998</v>
       </c>
       <c r="X31" s="1">
-        <v>1.22189752387544</v>
+        <v>1.2218975238754399</v>
       </c>
       <c r="Y31" s="1">
-        <v>3835.0</v>
+        <v>3835</v>
       </c>
       <c r="Z31" s="1">
-        <v>398.0</v>
+        <v>398</v>
       </c>
       <c r="AA31" s="1">
-        <v>4609.0</v>
+        <v>4609</v>
       </c>
       <c r="AB31" s="1">
-        <v>90.5976848570754</v>
+        <v>90.597684857075393</v>
       </c>
       <c r="AC31" s="1">
-        <v>2141900.24096979</v>
+        <v>2141900.2409697901</v>
       </c>
       <c r="AD31" s="1">
-        <v>222288.47350873</v>
+        <v>222288.47350873001</v>
       </c>
       <c r="AE31" s="1">
-        <v>2364188.71447852</v>
+        <v>2364188.7144785202</v>
       </c>
       <c r="AF31" s="1">
         <v>113701.109854754</v>
       </c>
       <c r="AG31" s="1">
-        <v>4233.0</v>
+        <v>4233</v>
       </c>
       <c r="AH31" s="1">
         <v>4.51216631230806</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -3745,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
@@ -3770,72 +3800,72 @@
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O32" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="2">
-        <v>39548.62832175926</v>
-      </c>
-      <c r="R32" s="2">
-        <v>39548.64910879629</v>
+      <c r="Q32" s="3">
+        <v>39548.628321759257</v>
+      </c>
+      <c r="R32" s="3">
+        <v>39548.649108796293</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T32" s="1">
-        <v>14.0397513368571</v>
+        <v>14.039751336857099</v>
       </c>
       <c r="U32" s="1">
-        <v>128.875580178611</v>
+        <v>128.87558017861099</v>
       </c>
       <c r="V32" s="1">
-        <v>54.6262656343061</v>
+        <v>54.626265634306101</v>
       </c>
       <c r="W32" s="1">
-        <v>524.806134603931</v>
+        <v>524.80613460393101</v>
       </c>
       <c r="X32" s="1">
-        <v>1.25452337641228</v>
+        <v>1.2545233764122801</v>
       </c>
       <c r="Y32" s="1">
-        <v>3358.0</v>
+        <v>3358</v>
       </c>
       <c r="Z32" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AA32" s="1">
-        <v>2622.0</v>
+        <v>2622</v>
       </c>
       <c r="AB32" s="1">
-        <v>98.5328638497653</v>
+        <v>98.532863849765306</v>
       </c>
       <c r="AC32" s="1">
         <v>1875489.18101084</v>
       </c>
       <c r="AD32" s="1">
-        <v>27925.6876267248</v>
+        <v>27925.687626724801</v>
       </c>
       <c r="AE32" s="1">
-        <v>1903414.86863756</v>
+        <v>1903414.8686375599</v>
       </c>
       <c r="AF32" s="1">
-        <v>294380.72593343</v>
+        <v>294380.72593343002</v>
       </c>
       <c r="AG32" s="1">
-        <v>3408.0</v>
+        <v>3408</v>
       </c>
       <c r="AH32" s="1">
         <v>38.8204225352113</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
@@ -3847,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>34</v>
@@ -3872,72 +3902,72 @@
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" s="2">
-        <v>39548.39028935185</v>
-      </c>
-      <c r="R33" s="2">
-        <v>39548.40928240741</v>
+      <c r="Q33" s="3">
+        <v>39548.390289351853</v>
+      </c>
+      <c r="R33" s="3">
+        <v>39548.409282407411</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T33" s="1">
-        <v>11.9991717154481</v>
+        <v>11.999171715448099</v>
       </c>
       <c r="U33" s="1">
-        <v>93.5265367020443</v>
+        <v>93.526536702044297</v>
       </c>
       <c r="V33" s="1">
-        <v>46.612525021447</v>
+        <v>46.612525021446999</v>
       </c>
       <c r="W33" s="1">
-        <v>387.737489276523</v>
+        <v>387.73748927652298</v>
       </c>
       <c r="X33" s="1">
         <v>1.20785972096294</v>
       </c>
       <c r="Y33" s="1">
-        <v>3497.0</v>
+        <v>3497</v>
       </c>
       <c r="Z33" s="1">
-        <v>416.0</v>
+        <v>416</v>
       </c>
       <c r="AA33" s="1">
-        <v>4204.0</v>
+        <v>4204</v>
       </c>
       <c r="AB33" s="1">
-        <v>89.3687707641196</v>
+        <v>89.368770764119603</v>
       </c>
       <c r="AC33" s="1">
-        <v>1953122.59261314</v>
+        <v>1953122.5926131399</v>
       </c>
       <c r="AD33" s="1">
-        <v>232341.721054351</v>
+        <v>232341.72105435099</v>
       </c>
       <c r="AE33" s="1">
-        <v>2185464.31366749</v>
+        <v>2185464.3136674901</v>
       </c>
       <c r="AF33" s="1">
-        <v>138200.275301693</v>
+        <v>138200.27530169301</v>
       </c>
       <c r="AG33" s="1">
-        <v>3913.0</v>
+        <v>3913</v>
       </c>
       <c r="AH33" s="1">
         <v>5.7756197291081</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -3949,7 +3979,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>34</v>
@@ -3974,72 +4004,72 @@
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O34" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="Q34" s="3">
         <v>39548.39025462963</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="3">
         <v>39548.406018518515</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T34" s="1">
-        <v>14.1241334693717</v>
+        <v>14.124133469371699</v>
       </c>
       <c r="U34" s="1">
-        <v>129.743577317783</v>
+        <v>129.74357731778301</v>
       </c>
       <c r="V34" s="1">
-        <v>54.9589364844904</v>
+        <v>54.958936484490401</v>
       </c>
       <c r="W34" s="1">
-        <v>530.539438700148</v>
+        <v>530.53943870014803</v>
       </c>
       <c r="X34" s="1">
         <v>1.26215169729639</v>
       </c>
       <c r="Y34" s="1">
-        <v>3385.0</v>
+        <v>3385</v>
       </c>
       <c r="Z34" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="AA34" s="1">
-        <v>2681.0</v>
+        <v>2681</v>
       </c>
       <c r="AB34" s="1">
-        <v>98.2013344937627</v>
+        <v>98.201334493762701</v>
       </c>
       <c r="AC34" s="1">
-        <v>1890569.05232927</v>
+        <v>1890569.0523292699</v>
       </c>
       <c r="AD34" s="1">
-        <v>34627.8526571388</v>
+        <v>34627.852657138799</v>
       </c>
       <c r="AE34" s="1">
-        <v>1925196.90498641</v>
+        <v>1925196.9049864099</v>
       </c>
       <c r="AF34" s="1">
         <v>164544.635133459</v>
       </c>
       <c r="AG34" s="1">
-        <v>3447.0</v>
+        <v>3447</v>
       </c>
       <c r="AH34" s="1">
         <v>36.1763852625471</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -4051,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>34</v>
@@ -4076,19 +4106,19 @@
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="Q35" s="3">
         <v>39548.374548611115</v>
       </c>
-      <c r="R35" s="2">
-        <v>39548.37747685185</v>
+      <c r="R35" s="3">
+        <v>39548.377476851849</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>41</v>
@@ -4097,28 +4127,28 @@
         <v>10.9934371221633</v>
       </c>
       <c r="U35" s="1">
-        <v>79.9522755286514</v>
+        <v>79.952275528651398</v>
       </c>
       <c r="V35" s="1">
-        <v>42.6538461538462</v>
+        <v>42.653846153846203</v>
       </c>
       <c r="W35" s="1">
-        <v>346.716117216117</v>
+        <v>346.71611721611703</v>
       </c>
       <c r="X35" s="1">
-        <v>1.22140035555258</v>
+        <v>1.2214003555525801</v>
       </c>
       <c r="Y35" s="1">
-        <v>546.0</v>
+        <v>546</v>
       </c>
       <c r="Z35" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA35" s="1">
-        <v>593.0</v>
+        <v>593</v>
       </c>
       <c r="AB35" s="1">
-        <v>99.6350364963504</v>
+        <v>99.635036496350395</v>
       </c>
       <c r="AC35" s="1">
         <v>559072.266287031</v>
@@ -4127,21 +4157,21 @@
         <v>2047.88375929315</v>
       </c>
       <c r="AE35" s="1">
-        <v>561120.150046324</v>
+        <v>561120.15004632401</v>
       </c>
       <c r="AF35" s="1">
-        <v>55026.7547445636</v>
+        <v>55026.754744563601</v>
       </c>
       <c r="AG35" s="1">
-        <v>548.0</v>
+        <v>548</v>
       </c>
       <c r="AH35" s="1">
-        <v>6.75182481751825</v>
+        <v>6.7518248175182496</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -4153,7 +4183,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -4178,19 +4208,19 @@
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q36" s="3">
         <v>39548.371099537035</v>
       </c>
-      <c r="R36" s="2">
-        <v>39548.37401620371</v>
+      <c r="R36" s="3">
+        <v>39548.374016203707</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>41</v>
@@ -4199,51 +4229,51 @@
         <v>10.5891574155367</v>
       </c>
       <c r="U36" s="1">
-        <v>74.2864283573564</v>
+        <v>74.286428357356399</v>
       </c>
       <c r="V36" s="1">
-        <v>41.0692307692308</v>
+        <v>41.069230769230799</v>
       </c>
       <c r="W36" s="1">
-        <v>324.584615384615</v>
+        <v>324.58461538461501</v>
       </c>
       <c r="X36" s="1">
         <v>1.21034593327769</v>
       </c>
       <c r="Y36" s="1">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="Z36" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA36" s="1">
-        <v>582.0</v>
+        <v>582</v>
       </c>
       <c r="AB36" s="1">
-        <v>99.6168582375479</v>
+        <v>99.616858237547902</v>
       </c>
       <c r="AC36" s="1">
-        <v>532449.77741622</v>
+        <v>532449.77741622005</v>
       </c>
       <c r="AD36" s="1">
         <v>2047.88375929315</v>
       </c>
       <c r="AE36" s="1">
-        <v>534497.661175513</v>
+        <v>534497.66117551306</v>
       </c>
       <c r="AF36" s="1">
-        <v>61231.3819464295</v>
+        <v>61231.381946429501</v>
       </c>
       <c r="AG36" s="1">
-        <v>522.0</v>
+        <v>522</v>
       </c>
       <c r="AH36" s="1">
-        <v>5.93869731800766</v>
+        <v>5.9386973180076597</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>34</v>
@@ -4255,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>34</v>
@@ -4280,19 +4310,19 @@
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="3">
         <v>39548.367638888885</v>
       </c>
-      <c r="R37" s="2">
-        <v>39548.37055555556</v>
+      <c r="R37" s="3">
+        <v>39548.370555555557</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>41</v>
@@ -4301,10 +4331,10 @@
         <v>10.7498310950016</v>
       </c>
       <c r="U37" s="1">
-        <v>76.1077024692166</v>
+        <v>76.107702469216605</v>
       </c>
       <c r="V37" s="1">
-        <v>41.7392996108949</v>
+        <v>41.739299610894903</v>
       </c>
       <c r="W37" s="1">
         <v>333.274319066148</v>
@@ -4313,39 +4343,39 @@
         <v>1.22279316693169</v>
       </c>
       <c r="Y37" s="1">
-        <v>514.0</v>
+        <v>514</v>
       </c>
       <c r="Z37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA37" s="1">
-        <v>568.0</v>
+        <v>568</v>
       </c>
       <c r="AB37" s="1">
-        <v>99.4197292069633</v>
+        <v>99.419729206963297</v>
       </c>
       <c r="AC37" s="1">
-        <v>526306.126138341</v>
+        <v>526306.12613834103</v>
       </c>
       <c r="AD37" s="1">
-        <v>3071.82563893973</v>
+        <v>3071.8256389397302</v>
       </c>
       <c r="AE37" s="1">
-        <v>529377.951777281</v>
+        <v>529377.95177728101</v>
       </c>
       <c r="AF37" s="1">
-        <v>44361.6246109444</v>
+        <v>44361.624610944396</v>
       </c>
       <c r="AG37" s="1">
-        <v>517.0</v>
+        <v>517</v>
       </c>
       <c r="AH37" s="1">
-        <v>3.86847195357834</v>
+        <v>3.8684719535783398</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>34</v>
@@ -4357,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>34</v>
@@ -4382,49 +4412,49 @@
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="2">
-        <v>39548.35041666667</v>
-      </c>
-      <c r="R38" s="2">
-        <v>39548.35333333333</v>
+      <c r="Q38" s="3">
+        <v>39548.350416666668</v>
+      </c>
+      <c r="R38" s="3">
+        <v>39548.353333333333</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T38" s="1">
-        <v>10.9048474643655</v>
+        <v>10.904847464365499</v>
       </c>
       <c r="U38" s="1">
         <v>78.4304887313465</v>
       </c>
       <c r="V38" s="1">
-        <v>42.3114155251142</v>
+        <v>42.311415525114199</v>
       </c>
       <c r="W38" s="1">
-        <v>340.987214611872</v>
+        <v>340.98721461187199</v>
       </c>
       <c r="X38" s="1">
         <v>1.22183677990143</v>
       </c>
       <c r="Y38" s="1">
-        <v>1095.0</v>
+        <v>1095</v>
       </c>
       <c r="Z38" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA38" s="1">
-        <v>1189.0</v>
+        <v>1189</v>
       </c>
       <c r="AB38" s="1">
-        <v>99.6360327570519</v>
+        <v>99.636032757051893</v>
       </c>
       <c r="AC38" s="1">
         <v>1121216.358213</v>
@@ -4439,15 +4469,15 @@
         <v>100100.465982679</v>
       </c>
       <c r="AG38" s="1">
-        <v>1099.0</v>
+        <v>1099</v>
       </c>
       <c r="AH38" s="1">
-        <v>7.91628753412193</v>
+        <v>7.9162875341219303</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>34</v>
@@ -4459,7 +4489,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
@@ -4484,19 +4514,19 @@
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O39" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="Q39" s="3">
         <v>39548.346712962964</v>
       </c>
-      <c r="R39" s="2">
-        <v>39548.34972222222</v>
+      <c r="R39" s="3">
+        <v>39548.349722222221</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>41</v>
@@ -4505,7 +4535,7 @@
         <v>11.5522880543709</v>
       </c>
       <c r="U39" s="1">
-        <v>89.7362225236848</v>
+        <v>89.736222523684802</v>
       </c>
       <c r="V39" s="1">
         <v>44.8597456170505</v>
@@ -4517,39 +4547,39 @@
         <v>1.20567705207086</v>
       </c>
       <c r="Y39" s="1">
-        <v>5818.0</v>
+        <v>5818</v>
       </c>
       <c r="Z39" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="AA39" s="1">
-        <v>5786.0</v>
+        <v>5786</v>
       </c>
       <c r="AB39" s="1">
-        <v>99.0635109824621</v>
+        <v>99.063510982462105</v>
       </c>
       <c r="AC39" s="1">
-        <v>5957293.85578379</v>
+        <v>5957293.8557837903</v>
       </c>
       <c r="AD39" s="1">
-        <v>56316.8033805618</v>
+        <v>56316.803380561803</v>
       </c>
       <c r="AE39" s="1">
-        <v>6013610.65916435</v>
+        <v>6013610.6591643495</v>
       </c>
       <c r="AF39" s="1">
         <v>145878.480862781</v>
       </c>
       <c r="AG39" s="1">
-        <v>5873.0</v>
+        <v>5873</v>
       </c>
       <c r="AH39" s="1">
-        <v>14.2857142857143</v>
+        <v>14.285714285714301</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>34</v>
@@ -4561,7 +4591,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
@@ -4586,19 +4616,19 @@
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" s="2">
-        <v>39548.3416087963</v>
-      </c>
-      <c r="R40" s="2">
-        <v>39548.34454861111</v>
+      <c r="Q40" s="3">
+        <v>39548.341608796298</v>
+      </c>
+      <c r="R40" s="3">
+        <v>39548.344548611109</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>41</v>
@@ -4610,48 +4640,48 @@
         <v>88.1350036865703</v>
       </c>
       <c r="V40" s="1">
-        <v>44.6099095556429</v>
+        <v>44.609909555642901</v>
       </c>
       <c r="W40" s="1">
-        <v>372.780180888714</v>
+        <v>372.78018088871403</v>
       </c>
       <c r="X40" s="1">
-        <v>1.21438041924154</v>
+        <v>1.2143804192415399</v>
       </c>
       <c r="Y40" s="1">
-        <v>5086.0</v>
+        <v>5086</v>
       </c>
       <c r="Z40" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AA40" s="1">
-        <v>5207.0</v>
+        <v>5207</v>
       </c>
       <c r="AB40" s="1">
-        <v>99.0264797507788</v>
+        <v>99.026479750778805</v>
       </c>
       <c r="AC40" s="1">
-        <v>5207768.39988249</v>
+        <v>5207768.3998824898</v>
       </c>
       <c r="AD40" s="1">
-        <v>51197.0939823289</v>
+        <v>51197.093982328901</v>
       </c>
       <c r="AE40" s="1">
-        <v>5258965.49386482</v>
+        <v>5258965.4938648203</v>
       </c>
       <c r="AF40" s="1">
-        <v>145860.511770556</v>
+        <v>145860.51177055601</v>
       </c>
       <c r="AG40" s="1">
-        <v>5136.0</v>
+        <v>5136</v>
       </c>
       <c r="AH40" s="1">
         <v>13.4345794392523</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
@@ -4663,7 +4693,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>34</v>
@@ -4688,55 +4718,55 @@
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="Q41" s="3">
         <v>39547.643587962964</v>
       </c>
-      <c r="R41" s="2">
-        <v>39547.65337962963</v>
+      <c r="R41" s="3">
+        <v>39547.653379629628</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T41" s="1">
-        <v>12.3389496169963</v>
+        <v>12.338949616996301</v>
       </c>
       <c r="U41" s="1">
-        <v>97.7565496267958</v>
+        <v>97.756549626795803</v>
       </c>
       <c r="V41" s="1">
-        <v>47.9368120668569</v>
+        <v>47.936812066856902</v>
       </c>
       <c r="W41" s="1">
-        <v>407.315939665715</v>
+        <v>407.31593966571501</v>
       </c>
       <c r="X41" s="1">
         <v>1.22544529085135</v>
       </c>
       <c r="Y41" s="1">
-        <v>2453.0</v>
+        <v>2453</v>
       </c>
       <c r="Z41" s="1">
-        <v>331.0</v>
+        <v>331</v>
       </c>
       <c r="AA41" s="1">
-        <v>3118.0</v>
+        <v>3118</v>
       </c>
       <c r="AB41" s="1">
-        <v>88.110632183908</v>
+        <v>88.110632183907995</v>
       </c>
       <c r="AC41" s="1">
         <v>1370034.23496712</v>
       </c>
       <c r="AD41" s="1">
-        <v>184868.052088918</v>
+        <v>184868.05208891799</v>
       </c>
       <c r="AE41" s="1">
         <v>1554902.28705604</v>
@@ -4745,15 +4775,15 @@
         <v>106779.883805064</v>
       </c>
       <c r="AG41" s="1">
-        <v>2784.0</v>
+        <v>2784</v>
       </c>
       <c r="AH41" s="1">
-        <v>4.38218390804598</v>
+        <v>4.3821839080459801</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>34</v>
@@ -4765,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>34</v>
@@ -4790,19 +4820,19 @@
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="Q42" s="3">
         <v>39547.643530092595</v>
       </c>
-      <c r="R42" s="2">
-        <v>39547.65020833333</v>
+      <c r="R42" s="3">
+        <v>39547.650208333333</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>41</v>
@@ -4811,28 +4841,28 @@
         <v>13.5629428280641</v>
       </c>
       <c r="U42" s="1">
-        <v>118.754944293065</v>
+        <v>118.75494429306499</v>
       </c>
       <c r="V42" s="1">
-        <v>52.764631445745</v>
+        <v>52.764631445745003</v>
       </c>
       <c r="W42" s="1">
-        <v>490.913634925656</v>
+        <v>490.91363492565603</v>
       </c>
       <c r="X42" s="1">
-        <v>1.26003065870525</v>
+        <v>1.2600306587052501</v>
       </c>
       <c r="Y42" s="1">
-        <v>3161.0</v>
+        <v>3161</v>
       </c>
       <c r="Z42" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AA42" s="1">
-        <v>2582.0</v>
+        <v>2582</v>
       </c>
       <c r="AB42" s="1">
-        <v>99.1219818124804</v>
+        <v>99.121981812480399</v>
       </c>
       <c r="AC42" s="1">
         <v>1765461.97176154</v>
@@ -4841,21 +4871,21 @@
         <v>15638.3850709659</v>
       </c>
       <c r="AE42" s="1">
-        <v>1781100.35683251</v>
+        <v>1781100.3568325101</v>
       </c>
       <c r="AF42" s="1">
         <v>151226.300851796</v>
       </c>
       <c r="AG42" s="1">
-        <v>3189.0</v>
+        <v>3189</v>
       </c>
       <c r="AH42" s="1">
-        <v>30.6052053935403</v>
+        <v>30.605205393540299</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>34</v>
@@ -4867,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>34</v>
@@ -4892,19 +4922,19 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O43" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="Q43" s="3">
         <v>39547.345034722224</v>
       </c>
-      <c r="R43" s="2">
-        <v>39547.38270833333</v>
+      <c r="R43" s="3">
+        <v>39547.382708333331</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>41</v>
@@ -4913,51 +4943,51 @@
         <v>12.3648413543107</v>
       </c>
       <c r="U43" s="1">
-        <v>96.5201573926281</v>
+        <v>96.520157392628093</v>
       </c>
       <c r="V43" s="1">
-        <v>48.0561423012785</v>
+        <v>48.056142301278499</v>
       </c>
       <c r="W43" s="1">
-        <v>409.370761534186</v>
+        <v>409.37076153418599</v>
       </c>
       <c r="X43" s="1">
         <v>1.2545393215042</v>
       </c>
       <c r="Y43" s="1">
-        <v>1799.0</v>
+        <v>1799</v>
       </c>
       <c r="Z43" s="1">
-        <v>315.0</v>
+        <v>315</v>
       </c>
       <c r="AA43" s="1">
-        <v>2476.0</v>
+        <v>2476</v>
       </c>
       <c r="AB43" s="1">
-        <v>85.0993377483444</v>
+        <v>85.099337748344396</v>
       </c>
       <c r="AC43" s="1">
-        <v>1004766.24080956</v>
+        <v>1004766.2408095601</v>
       </c>
       <c r="AD43" s="1">
-        <v>175931.832048366</v>
+        <v>175931.83204836599</v>
       </c>
       <c r="AE43" s="1">
-        <v>1180698.07285793</v>
+        <v>1180698.0728579301</v>
       </c>
       <c r="AF43" s="1">
-        <v>95530.3447599136</v>
+        <v>95530.344759913598</v>
       </c>
       <c r="AG43" s="1">
-        <v>2114.0</v>
+        <v>2114</v>
       </c>
       <c r="AH43" s="1">
-        <v>4.3519394512772</v>
+        <v>4.3519394512772003</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>34</v>
@@ -4969,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>34</v>
@@ -4994,72 +5024,72 @@
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O44" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="Q44" s="3">
         <v>39547.344930555555</v>
       </c>
-      <c r="R44" s="2">
+      <c r="R44" s="3">
         <v>39547.379583333335</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T44" s="1">
-        <v>13.5695733354373</v>
+        <v>13.569573335437299</v>
       </c>
       <c r="U44" s="1">
         <v>117.447044330205</v>
       </c>
       <c r="V44" s="1">
-        <v>52.7864429088516</v>
+        <v>52.786442908851598</v>
       </c>
       <c r="W44" s="1">
-        <v>491.558078315235</v>
+        <v>491.55807831523498</v>
       </c>
       <c r="X44" s="1">
-        <v>1.2808051675755</v>
+        <v>1.2808051675754999</v>
       </c>
       <c r="Y44" s="1">
-        <v>3039.0</v>
+        <v>3039</v>
       </c>
       <c r="Z44" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AA44" s="1">
-        <v>2566.0</v>
+        <v>2566</v>
       </c>
       <c r="AB44" s="1">
-        <v>98.8614183474301</v>
+        <v>98.861418347430103</v>
       </c>
       <c r="AC44" s="1">
         <v>1697323.29395234</v>
       </c>
       <c r="AD44" s="1">
-        <v>19547.9813387074</v>
+        <v>19547.981338707399</v>
       </c>
       <c r="AE44" s="1">
-        <v>1716871.27529104</v>
+        <v>1716871.2752910401</v>
       </c>
       <c r="AF44" s="1">
         <v>137485.168373992</v>
       </c>
       <c r="AG44" s="1">
-        <v>3074.0</v>
+        <v>3074</v>
       </c>
       <c r="AH44" s="1">
-        <v>26.9030579050098</v>
+        <v>26.903057905009799</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>34</v>
@@ -5071,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -5096,72 +5126,72 @@
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="Q45" s="3">
         <v>39547.340092592596</v>
       </c>
-      <c r="R45" s="2">
-        <v>39547.34303240741</v>
+      <c r="R45" s="3">
+        <v>39547.343032407407</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T45" s="1">
-        <v>10.7871391180129</v>
+        <v>10.787139118012901</v>
       </c>
       <c r="U45" s="1">
-        <v>78.7814754782554</v>
+        <v>78.781475478255402</v>
       </c>
       <c r="V45" s="1">
         <v>41.8419047619048</v>
       </c>
       <c r="W45" s="1">
-        <v>335.79619047619</v>
+        <v>335.79619047619002</v>
       </c>
       <c r="X45" s="1">
         <v>1.19293940896319</v>
       </c>
       <c r="Y45" s="1">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="Z45" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="AA45" s="1">
-        <v>562.0</v>
+        <v>562</v>
       </c>
       <c r="AB45" s="1">
-        <v>99.2438563327032</v>
+        <v>99.243856332703203</v>
       </c>
       <c r="AC45" s="1">
-        <v>537569.486814453</v>
+        <v>537569.48681445303</v>
       </c>
       <c r="AD45" s="1">
         <v>4095.76751858631</v>
       </c>
       <c r="AE45" s="1">
-        <v>541665.25433304</v>
+        <v>541665.25433303998</v>
       </c>
       <c r="AF45" s="1">
-        <v>37440.4456805672</v>
+        <v>37440.445680567202</v>
       </c>
       <c r="AG45" s="1">
-        <v>529.0</v>
+        <v>529</v>
       </c>
       <c r="AH45" s="1">
-        <v>7.75047258979206</v>
+        <v>7.7504725897920599</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>34</v>
@@ -5173,7 +5203,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>34</v>
@@ -5198,72 +5228,72 @@
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q46" s="2">
-        <v>39547.33702546296</v>
-      </c>
-      <c r="R46" s="2">
+      <c r="Q46" s="3">
+        <v>39547.337025462963</v>
+      </c>
+      <c r="R46" s="3">
         <v>39547.339953703704</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T46" s="1">
-        <v>10.7828125013551</v>
+        <v>10.782812501355099</v>
       </c>
       <c r="U46" s="1">
-        <v>78.455265248563</v>
+        <v>78.455265248562995</v>
       </c>
       <c r="V46" s="1">
         <v>41.8312611012433</v>
       </c>
       <c r="W46" s="1">
-        <v>333.737122557726</v>
+        <v>333.73712255772602</v>
       </c>
       <c r="X46" s="1">
         <v>1.1883809311577</v>
       </c>
       <c r="Y46" s="1">
-        <v>563.0</v>
+        <v>563</v>
       </c>
       <c r="Z46" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA46" s="1">
-        <v>636.0</v>
+        <v>636</v>
       </c>
       <c r="AB46" s="1">
-        <v>99.1197183098592</v>
+        <v>99.119718309859195</v>
       </c>
       <c r="AC46" s="1">
-        <v>576479.278241023</v>
+        <v>576479.27824102296</v>
       </c>
       <c r="AD46" s="1">
-        <v>5119.70939823289</v>
+        <v>5119.7093982328897</v>
       </c>
       <c r="AE46" s="1">
-        <v>581598.987639256</v>
+        <v>581598.98763925605</v>
       </c>
       <c r="AF46" s="1">
-        <v>65468.2526511236</v>
+        <v>65468.252651123599</v>
       </c>
       <c r="AG46" s="1">
-        <v>568.0</v>
+        <v>568</v>
       </c>
       <c r="AH46" s="1">
         <v>7.21830985915493</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>34</v>
@@ -5275,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
@@ -5300,72 +5330,72 @@
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O47" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="Q47" s="3">
         <v>39547.333333333336</v>
       </c>
-      <c r="R47" s="2">
-        <v>39547.33626157408</v>
+      <c r="R47" s="3">
+        <v>39547.336261574077</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T47" s="1">
-        <v>10.7295131690616</v>
+        <v>10.729513169061599</v>
       </c>
       <c r="U47" s="1">
-        <v>77.516370575694</v>
+        <v>77.516370575693998</v>
       </c>
       <c r="V47" s="1">
         <v>41.64</v>
       </c>
       <c r="W47" s="1">
-        <v>332.165714285714</v>
+        <v>332.16571428571399</v>
       </c>
       <c r="X47" s="1">
         <v>1.19458796293609</v>
       </c>
       <c r="Y47" s="1">
-        <v>525.0</v>
+        <v>525</v>
       </c>
       <c r="Z47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA47" s="1">
-        <v>588.0</v>
+        <v>588</v>
       </c>
       <c r="AB47" s="1">
-        <v>99.4318181818182</v>
+        <v>99.431818181818201</v>
       </c>
       <c r="AC47" s="1">
-        <v>537569.486814453</v>
+        <v>537569.48681445303</v>
       </c>
       <c r="AD47" s="1">
-        <v>3071.82563893973</v>
+        <v>3071.8256389397302</v>
       </c>
       <c r="AE47" s="1">
-        <v>540641.312453393</v>
+        <v>540641.31245339301</v>
       </c>
       <c r="AF47" s="1">
-        <v>41059.9417000782</v>
+        <v>41059.941700078198</v>
       </c>
       <c r="AG47" s="1">
-        <v>528.0</v>
+        <v>528</v>
       </c>
       <c r="AH47" s="1">
-        <v>4.92424242424242</v>
+        <v>4.9242424242424203</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>34</v>
@@ -5377,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>34</v>
@@ -5402,46 +5432,46 @@
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q48" s="2">
-        <v>39547.32946759259</v>
-      </c>
-      <c r="R48" s="2">
-        <v>39547.33238425926</v>
+      <c r="Q48" s="3">
+        <v>39547.329467592594</v>
+      </c>
+      <c r="R48" s="3">
+        <v>39547.332384259258</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T48" s="1">
-        <v>10.8565846035452</v>
+        <v>10.856584603545199</v>
       </c>
       <c r="U48" s="1">
-        <v>78.6127626582381</v>
+        <v>78.612762658238097</v>
       </c>
       <c r="V48" s="1">
-        <v>42.1257976298997</v>
+        <v>42.125797629899701</v>
       </c>
       <c r="W48" s="1">
         <v>337.827711941659</v>
       </c>
       <c r="X48" s="1">
-        <v>1.20682577571073</v>
+        <v>1.2068257757107299</v>
       </c>
       <c r="Y48" s="1">
-        <v>1097.0</v>
+        <v>1097</v>
       </c>
       <c r="Z48" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA48" s="1">
-        <v>1185.0</v>
+        <v>1185</v>
       </c>
       <c r="AB48" s="1">
         <v>99.2760180995475</v>
@@ -5450,24 +5480,24 @@
         <v>1123264.2419723</v>
       </c>
       <c r="AD48" s="1">
-        <v>8191.53503717262</v>
+        <v>8191.5350371726199</v>
       </c>
       <c r="AE48" s="1">
-        <v>1131455.77700947</v>
+        <v>1131455.7770094699</v>
       </c>
       <c r="AF48" s="1">
-        <v>35896.4290659521</v>
+        <v>35896.429065952099</v>
       </c>
       <c r="AG48" s="1">
-        <v>1105.0</v>
+        <v>1105</v>
       </c>
       <c r="AH48" s="1">
-        <v>6.87782805429864</v>
+        <v>6.8778280542986403</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>34</v>
@@ -5479,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -5504,72 +5534,72 @@
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="2">
-        <v>39547.32585648148</v>
-      </c>
-      <c r="R49" s="2">
+      <c r="Q49" s="3">
+        <v>39547.325856481482</v>
+      </c>
+      <c r="R49" s="3">
         <v>39547.328831018516</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T49" s="1">
-        <v>11.5269087214191</v>
+        <v>11.526908721419099</v>
       </c>
       <c r="U49" s="1">
-        <v>89.4128155918997</v>
+        <v>89.412815591899701</v>
       </c>
       <c r="V49" s="1">
-        <v>44.7550532892319</v>
+        <v>44.755053289231903</v>
       </c>
       <c r="W49" s="1">
-        <v>375.967842704888</v>
+        <v>375.96784270488803</v>
       </c>
       <c r="X49" s="1">
-        <v>1.20865457507122</v>
+        <v>1.2086545750712201</v>
       </c>
       <c r="Y49" s="1">
-        <v>5442.0</v>
+        <v>5442</v>
       </c>
       <c r="Z49" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="AA49" s="1">
-        <v>5499.0</v>
+        <v>5499</v>
       </c>
       <c r="AB49" s="1">
-        <v>98.9814477991997</v>
+        <v>98.981447799199699</v>
       </c>
       <c r="AC49" s="1">
-        <v>5572291.70903667</v>
+        <v>5572291.7090366697</v>
       </c>
       <c r="AD49" s="1">
-        <v>57340.7452602083</v>
+        <v>57340.745260208299</v>
       </c>
       <c r="AE49" s="1">
-        <v>5629632.45429688</v>
+        <v>5629632.4542968804</v>
       </c>
       <c r="AF49" s="1">
-        <v>192544.640438361</v>
+        <v>192544.64043836101</v>
       </c>
       <c r="AG49" s="1">
-        <v>5498.0</v>
+        <v>5498</v>
       </c>
       <c r="AH49" s="1">
         <v>14.85994907239</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>34</v>
@@ -5581,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>34</v>
@@ -5606,19 +5636,19 @@
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="2">
-        <v>39546.65074074074</v>
-      </c>
-      <c r="R50" s="2">
-        <v>39546.66039351852</v>
+      <c r="Q50" s="3">
+        <v>39546.650740740741</v>
+      </c>
+      <c r="R50" s="3">
+        <v>39546.660393518519</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>41</v>
@@ -5633,45 +5663,45 @@
         <v>47.9587458745875</v>
       </c>
       <c r="W50" s="1">
-        <v>407.938943894389</v>
+        <v>407.93894389438901</v>
       </c>
       <c r="X50" s="1">
         <v>1.19566298825228</v>
       </c>
       <c r="Y50" s="1">
-        <v>1212.0</v>
+        <v>1212</v>
       </c>
       <c r="Z50" s="1">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="AA50" s="1">
-        <v>1781.0</v>
+        <v>1781</v>
       </c>
       <c r="AB50" s="1">
-        <v>82.2810590631365</v>
+        <v>82.281059063136496</v>
       </c>
       <c r="AC50" s="1">
-        <v>676918.66807181</v>
+        <v>676918.66807181004</v>
       </c>
       <c r="AD50" s="1">
-        <v>145772.089411504</v>
+        <v>145772.08941150401</v>
       </c>
       <c r="AE50" s="1">
-        <v>822690.757483314</v>
+        <v>822690.75748331402</v>
       </c>
       <c r="AF50" s="1">
         <v>72761.2887939957</v>
       </c>
       <c r="AG50" s="1">
-        <v>1473.0</v>
+        <v>1473</v>
       </c>
       <c r="AH50" s="1">
-        <v>3.12287847929396</v>
+        <v>3.1228784792939601</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>34</v>
@@ -5683,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -5708,18 +5738,18 @@
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O51" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="Q51" s="3">
         <v>39546.650671296295</v>
       </c>
-      <c r="R51" s="2">
+      <c r="R51" s="3">
         <v>39546.657314814816</v>
       </c>
       <c r="S51" s="1" t="s">
@@ -5729,7 +5759,7 @@
         <v>13.5354050845292</v>
       </c>
       <c r="U51" s="1">
-        <v>117.596198913879</v>
+        <v>117.59619891387899</v>
       </c>
       <c r="V51" s="1">
         <v>52.6579189686924</v>
@@ -5741,39 +5771,39 @@
         <v>1.26032711103309</v>
       </c>
       <c r="Y51" s="1">
-        <v>2172.0</v>
+        <v>2172</v>
       </c>
       <c r="Z51" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AA51" s="1">
-        <v>1951.0</v>
+        <v>1951</v>
       </c>
       <c r="AB51" s="1">
-        <v>99.4961062757673</v>
+        <v>99.496106275767303</v>
       </c>
       <c r="AC51" s="1">
-        <v>1213091.87050493</v>
+        <v>1213091.8705049299</v>
       </c>
       <c r="AD51" s="1">
-        <v>6143.65127787946</v>
+        <v>6143.6512778794604</v>
       </c>
       <c r="AE51" s="1">
-        <v>1219235.52178281</v>
+        <v>1219235.5217828101</v>
       </c>
       <c r="AF51" s="1">
-        <v>99869.3806866712</v>
+        <v>99869.380686671197</v>
       </c>
       <c r="AG51" s="1">
-        <v>2183.0</v>
+        <v>2183</v>
       </c>
       <c r="AH51" s="1">
-        <v>20.7512597343106</v>
+        <v>20.751259734310601</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>34</v>
@@ -5785,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>34</v>
@@ -5810,19 +5840,19 @@
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O52" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q52" s="2">
-        <v>39546.34576388889</v>
-      </c>
-      <c r="R52" s="2">
-        <v>39546.35383101852</v>
+      <c r="Q52" s="3">
+        <v>39546.345763888887</v>
+      </c>
+      <c r="R52" s="3">
+        <v>39546.353831018518</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>41</v>
@@ -5834,48 +5864,48 @@
         <v>103.012914145753</v>
       </c>
       <c r="V52" s="1">
-        <v>48.606490872211</v>
+        <v>48.606490872210998</v>
       </c>
       <c r="W52" s="1">
         <v>417.326572008114</v>
       </c>
       <c r="X52" s="1">
-        <v>1.19234752423675</v>
+        <v>1.1923475242367501</v>
       </c>
       <c r="Y52" s="1">
-        <v>986.0</v>
+        <v>986</v>
       </c>
       <c r="Z52" s="1">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="AA52" s="1">
-        <v>1566.0</v>
+        <v>1566</v>
       </c>
       <c r="AB52" s="1">
         <v>77.03125</v>
       </c>
       <c r="AC52" s="1">
-        <v>550694.559999014</v>
+        <v>550694.55999901402</v>
       </c>
       <c r="AD52" s="1">
-        <v>164203.043245142</v>
+        <v>164203.04324514201</v>
       </c>
       <c r="AE52" s="1">
-        <v>714897.603244156</v>
+        <v>714897.60324415599</v>
       </c>
       <c r="AF52" s="1">
-        <v>57529.6276789747</v>
+        <v>57529.627678974699</v>
       </c>
       <c r="AG52" s="1">
-        <v>1280.0</v>
+        <v>1280</v>
       </c>
       <c r="AH52" s="1">
         <v>2.65625</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>34</v>
@@ -5887,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>34</v>
@@ -5912,72 +5942,72 @@
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O53" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="2">
-        <v>39546.34570601852</v>
-      </c>
-      <c r="R53" s="2">
-        <v>39546.35078703704</v>
+      <c r="Q53" s="3">
+        <v>39546.345706018517</v>
+      </c>
+      <c r="R53" s="3">
+        <v>39546.350787037038</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T53" s="1">
-        <v>13.8902101347206</v>
+        <v>13.890210134720601</v>
       </c>
       <c r="U53" s="1">
         <v>126.830287047444</v>
       </c>
       <c r="V53" s="1">
-        <v>54.0412007062978</v>
+        <v>54.041200706297801</v>
       </c>
       <c r="W53" s="1">
-        <v>510.311359623308</v>
+        <v>510.31135962330802</v>
       </c>
       <c r="X53" s="1">
-        <v>1.22935476448354</v>
+        <v>1.2293547644835401</v>
       </c>
       <c r="Y53" s="1">
-        <v>1699.0</v>
+        <v>1699</v>
       </c>
       <c r="Z53" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AA53" s="1">
-        <v>1471.0</v>
+        <v>1471</v>
       </c>
       <c r="AB53" s="1">
-        <v>98.0380842469706</v>
+        <v>98.038084246970598</v>
       </c>
       <c r="AC53" s="1">
-        <v>948914.86555611</v>
+        <v>948914.86555611005</v>
       </c>
       <c r="AD53" s="1">
-        <v>18989.4675861729</v>
+        <v>18989.467586172901</v>
       </c>
       <c r="AE53" s="1">
-        <v>967904.333142283</v>
+        <v>967904.33314228302</v>
       </c>
       <c r="AF53" s="1">
-        <v>59585.8531630455</v>
+        <v>59585.853163045504</v>
       </c>
       <c r="AG53" s="1">
-        <v>1733.0</v>
+        <v>1733</v>
       </c>
       <c r="AH53" s="1">
-        <v>24.3508366993653</v>
+        <v>24.350836699365299</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>34</v>
@@ -5989,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>34</v>
@@ -6014,19 +6044,19 @@
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O54" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q54" s="2">
-        <v>39546.34261574074</v>
-      </c>
-      <c r="R54" s="2">
-        <v>39546.34552083333</v>
+      <c r="Q54" s="3">
+        <v>39546.342615740738</v>
+      </c>
+      <c r="R54" s="3">
+        <v>39546.345520833333</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>41</v>
@@ -6035,51 +6065,51 @@
         <v>11.0423533232946</v>
       </c>
       <c r="U54" s="1">
-        <v>79.3728592683516</v>
+        <v>79.372859268351604</v>
       </c>
       <c r="V54" s="1">
-        <v>42.8821292775665</v>
+        <v>42.882129277566499</v>
       </c>
       <c r="W54" s="1">
-        <v>348.916349809886</v>
+        <v>348.91634980988601</v>
       </c>
       <c r="X54" s="1">
-        <v>1.24008614873478</v>
+        <v>1.2400861487347801</v>
       </c>
       <c r="Y54" s="1">
-        <v>526.0</v>
+        <v>526</v>
       </c>
       <c r="Z54" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA54" s="1">
-        <v>585.0</v>
+        <v>585</v>
       </c>
       <c r="AB54" s="1">
-        <v>98.8721804511278</v>
+        <v>98.872180451127804</v>
       </c>
       <c r="AC54" s="1">
         <v>538593.4286941</v>
       </c>
       <c r="AD54" s="1">
-        <v>6143.65127787946</v>
+        <v>6143.6512778794604</v>
       </c>
       <c r="AE54" s="1">
-        <v>544737.079971979</v>
+        <v>544737.07997197902</v>
       </c>
       <c r="AF54" s="1">
-        <v>41161.9541348194</v>
+        <v>41161.954134819403</v>
       </c>
       <c r="AG54" s="1">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="AH54" s="1">
-        <v>6.95488721804511</v>
+        <v>6.9548872180451102</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>34</v>
@@ -6091,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
@@ -6116,19 +6146,19 @@
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O55" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="Q55" s="3">
         <v>39546.339004629626</v>
       </c>
-      <c r="R55" s="2">
-        <v>39546.34190972222</v>
+      <c r="R55" s="3">
+        <v>39546.341909722221</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>41</v>
@@ -6137,10 +6167,10 @@
         <v>10.9802027114557</v>
       </c>
       <c r="U55" s="1">
-        <v>79.0749830052116</v>
+        <v>79.074983005211607</v>
       </c>
       <c r="V55" s="1">
-        <v>42.6183673469388</v>
+        <v>42.618367346938797</v>
       </c>
       <c r="W55" s="1">
         <v>349.587755102041</v>
@@ -6149,39 +6179,39 @@
         <v>1.24670049313845</v>
       </c>
       <c r="Y55" s="1">
-        <v>490.0</v>
+        <v>490</v>
       </c>
       <c r="Z55" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA55" s="1">
-        <v>538.0</v>
+        <v>538</v>
       </c>
       <c r="AB55" s="1">
-        <v>99.3914807302231</v>
+        <v>99.391480730223094</v>
       </c>
       <c r="AC55" s="1">
-        <v>501731.521026823</v>
+        <v>501731.52102682297</v>
       </c>
       <c r="AD55" s="1">
-        <v>3071.82563893973</v>
+        <v>3071.8256389397302</v>
       </c>
       <c r="AE55" s="1">
-        <v>504803.346665763</v>
+        <v>504803.34666576301</v>
       </c>
       <c r="AF55" s="1">
-        <v>32589.6749529938</v>
+        <v>32589.674952993799</v>
       </c>
       <c r="AG55" s="1">
-        <v>493.0</v>
+        <v>493</v>
       </c>
       <c r="AH55" s="1">
         <v>5.67951318458418</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>34</v>
@@ -6193,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
@@ -6218,19 +6248,19 @@
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O56" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="Q56" s="3">
         <v>39546.336018518516</v>
       </c>
-      <c r="R56" s="2">
-        <v>39546.33892361111</v>
+      <c r="R56" s="3">
+        <v>39546.338923611111</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>41</v>
@@ -6239,7 +6269,7 @@
         <v>10.7888240243723</v>
       </c>
       <c r="U56" s="1">
-        <v>76.2344176814379</v>
+        <v>76.234417681437904</v>
       </c>
       <c r="V56" s="1">
         <v>41.8522522522522</v>
@@ -6251,39 +6281,39 @@
         <v>1.23676188010799</v>
       </c>
       <c r="Y56" s="1">
-        <v>555.0</v>
+        <v>555</v>
       </c>
       <c r="Z56" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA56" s="1">
-        <v>611.0</v>
+        <v>611</v>
       </c>
       <c r="AB56" s="1">
-        <v>99.1071428571429</v>
+        <v>99.107142857142904</v>
       </c>
       <c r="AC56" s="1">
         <v>568287.74320385</v>
       </c>
       <c r="AD56" s="1">
-        <v>5119.70939823289</v>
+        <v>5119.7093982328897</v>
       </c>
       <c r="AE56" s="1">
-        <v>573407.452602083</v>
+        <v>573407.45260208298</v>
       </c>
       <c r="AF56" s="1">
-        <v>37145.2470220447</v>
+        <v>37145.247022044699</v>
       </c>
       <c r="AG56" s="1">
-        <v>560.0</v>
+        <v>560</v>
       </c>
       <c r="AH56" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>34</v>
@@ -6295,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>34</v>
@@ -6320,72 +6350,72 @@
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O57" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q57" s="2">
-        <v>39546.33290509259</v>
-      </c>
-      <c r="R57" s="2">
+      <c r="Q57" s="3">
+        <v>39546.332905092589</v>
+      </c>
+      <c r="R57" s="3">
         <v>39546.335810185185</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T57" s="1">
-        <v>10.9557294307436</v>
+        <v>10.955729430743601</v>
       </c>
       <c r="U57" s="1">
-        <v>77.5843631134195</v>
+        <v>77.584363113419499</v>
       </c>
       <c r="V57" s="1">
-        <v>42.5133928571429</v>
+        <v>42.513392857142897</v>
       </c>
       <c r="W57" s="1">
-        <v>344.466071428571</v>
+        <v>344.46607142857101</v>
       </c>
       <c r="X57" s="1">
-        <v>1.24906167866391</v>
+        <v>1.2490616786639099</v>
       </c>
       <c r="Y57" s="1">
-        <v>1120.0</v>
+        <v>1120</v>
       </c>
       <c r="Z57" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA57" s="1">
-        <v>1253.0</v>
+        <v>1253</v>
       </c>
       <c r="AB57" s="1">
-        <v>99.7328584149599</v>
+        <v>99.732858414959907</v>
       </c>
       <c r="AC57" s="1">
-        <v>1146814.90520417</v>
+        <v>1146814.9052041699</v>
       </c>
       <c r="AD57" s="1">
-        <v>3071.82563893973</v>
+        <v>3071.8256389397302</v>
       </c>
       <c r="AE57" s="1">
         <v>1149886.73084311</v>
       </c>
       <c r="AF57" s="1">
-        <v>67804.7478141532</v>
+        <v>67804.747814153205</v>
       </c>
       <c r="AG57" s="1">
-        <v>1123.0</v>
+        <v>1123</v>
       </c>
       <c r="AH57" s="1">
-        <v>5.25378450578807</v>
+        <v>5.2537845057880697</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>34</v>
@@ -6397,7 +6427,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>34</v>
@@ -6422,18 +6452,18 @@
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O58" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q58" s="2">
-        <v>39546.32947916666</v>
-      </c>
-      <c r="R58" s="2">
+      <c r="Q58" s="3">
+        <v>39546.329479166663</v>
+      </c>
+      <c r="R58" s="3">
         <v>39546.332407407404</v>
       </c>
       <c r="S58" s="1" t="s">
@@ -6443,51 +6473,51 @@
         <v>11.5723942035794</v>
       </c>
       <c r="U58" s="1">
-        <v>88.6477596903505</v>
+        <v>88.647759690350497</v>
       </c>
       <c r="V58" s="1">
-        <v>44.9382107657316</v>
+        <v>44.938210765731597</v>
       </c>
       <c r="W58" s="1">
-        <v>378.922858225929</v>
+        <v>378.92285822592902</v>
       </c>
       <c r="X58" s="1">
-        <v>1.22983142831549</v>
+        <v>1.2298314283154901</v>
       </c>
       <c r="Y58" s="1">
-        <v>5276.0</v>
+        <v>5276</v>
       </c>
       <c r="Z58" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AA58" s="1">
-        <v>5417.0</v>
+        <v>5417</v>
       </c>
       <c r="AB58" s="1">
-        <v>99.0984222389181</v>
+        <v>99.098422238918104</v>
       </c>
       <c r="AC58" s="1">
-        <v>5402317.35701534</v>
+        <v>5402317.3570153397</v>
       </c>
       <c r="AD58" s="1">
-        <v>49149.2102230357</v>
+        <v>49149.210223035698</v>
       </c>
       <c r="AE58" s="1">
-        <v>5451466.56723838</v>
+        <v>5451466.5672383802</v>
       </c>
       <c r="AF58" s="1">
         <v>120216.184078406</v>
       </c>
       <c r="AG58" s="1">
-        <v>5324.0</v>
+        <v>5324</v>
       </c>
       <c r="AH58" s="1">
         <v>13.580015026296</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>34</v>
@@ -6499,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>34</v>
@@ -6524,19 +6554,19 @@
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O59" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="Q59" s="3">
         <v>39545.618113425924</v>
       </c>
-      <c r="R59" s="2">
-        <v>39545.66501157408</v>
+      <c r="R59" s="3">
+        <v>39545.665011574078</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>41</v>
@@ -6545,51 +6575,51 @@
         <v>11.5039304126792</v>
       </c>
       <c r="U59" s="1">
-        <v>85.3192209075394</v>
+        <v>85.319220907539403</v>
       </c>
       <c r="V59" s="1">
-        <v>44.6854838709677</v>
+        <v>44.685483870967701</v>
       </c>
       <c r="W59" s="1">
-        <v>360.66935483871</v>
+        <v>360.66935483870998</v>
       </c>
       <c r="X59" s="1">
-        <v>1.21437185138896</v>
+        <v>1.2143718513889601</v>
       </c>
       <c r="Y59" s="1">
-        <v>868.0</v>
+        <v>868</v>
       </c>
       <c r="Z59" s="1">
-        <v>321.0</v>
+        <v>321</v>
       </c>
       <c r="AA59" s="1">
-        <v>1409.0</v>
+        <v>1409</v>
       </c>
       <c r="AB59" s="1">
-        <v>73.0025231286796</v>
+        <v>73.002523128679599</v>
       </c>
       <c r="AC59" s="1">
         <v>484789.937199943</v>
       </c>
       <c r="AD59" s="1">
-        <v>179282.914563573</v>
+        <v>179282.91456357299</v>
       </c>
       <c r="AE59" s="1">
-        <v>664072.851763517</v>
+        <v>664072.85176351701</v>
       </c>
       <c r="AF59" s="1">
-        <v>62951.2146024854</v>
+        <v>62951.214602485401</v>
       </c>
       <c r="AG59" s="1">
-        <v>1189.0</v>
+        <v>1189</v>
       </c>
       <c r="AH59" s="1">
-        <v>2.18671152228764</v>
+        <v>2.1867115222876401</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>34</v>
@@ -6601,7 +6631,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>34</v>
@@ -6626,19 +6656,19 @@
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q60" s="2">
-        <v>39545.61800925926</v>
-      </c>
-      <c r="R60" s="2">
-        <v>39545.66193287037</v>
+      <c r="Q60" s="3">
+        <v>39545.618009259262</v>
+      </c>
+      <c r="R60" s="3">
+        <v>39545.661932870367</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>41</v>
@@ -6650,48 +6680,48 @@
         <v>114.139562252974</v>
       </c>
       <c r="V60" s="1">
-        <v>52.0064575645756</v>
+        <v>52.006457564575598</v>
       </c>
       <c r="W60" s="1">
-        <v>478.588560885609</v>
+        <v>478.58856088560901</v>
       </c>
       <c r="X60" s="1">
-        <v>1.27390953980601</v>
+        <v>1.2739095398060101</v>
       </c>
       <c r="Y60" s="1">
-        <v>1084.0</v>
+        <v>1084</v>
       </c>
       <c r="Z60" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA60" s="1">
-        <v>980.0</v>
+        <v>980</v>
       </c>
       <c r="AB60" s="1">
-        <v>99.0859232175503</v>
+        <v>99.085923217550302</v>
       </c>
       <c r="AC60" s="1">
-        <v>605428.907747394</v>
+        <v>605428.90774739406</v>
       </c>
       <c r="AD60" s="1">
-        <v>5585.13752534497</v>
+        <v>5585.1375253449696</v>
       </c>
       <c r="AE60" s="1">
-        <v>611014.045272739</v>
+        <v>611014.04527273902</v>
       </c>
       <c r="AF60" s="1">
-        <v>64080.7827772293</v>
+        <v>64080.782777229302</v>
       </c>
       <c r="AG60" s="1">
-        <v>1094.0</v>
+        <v>1094</v>
       </c>
       <c r="AH60" s="1">
         <v>27.3308957952468</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>34</v>
@@ -6703,7 +6733,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>34</v>
@@ -6728,72 +6758,72 @@
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O61" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="Q61" s="3">
         <v>39545.541712962964</v>
       </c>
-      <c r="R61" s="2">
+      <c r="R61" s="3">
         <v>39545.551030092596</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T61" s="1">
-        <v>11.1749170550863</v>
+        <v>11.174917055086301</v>
       </c>
       <c r="U61" s="1">
-        <v>79.7693238074563</v>
+        <v>79.769323807456303</v>
       </c>
       <c r="V61" s="1">
         <v>43.381679389313</v>
       </c>
       <c r="W61" s="1">
-        <v>343.775572519084</v>
+        <v>343.77557251908399</v>
       </c>
       <c r="X61" s="1">
         <v>1.22071469796145</v>
       </c>
       <c r="Y61" s="1">
-        <v>655.0</v>
+        <v>655</v>
       </c>
       <c r="Z61" s="1">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="AA61" s="1">
-        <v>1126.0</v>
+        <v>1126</v>
       </c>
       <c r="AB61" s="1">
-        <v>73.1026785714286</v>
+        <v>73.102678571428598</v>
       </c>
       <c r="AC61" s="1">
-        <v>365826.507910095</v>
+        <v>365826.50791009498</v>
       </c>
       <c r="AD61" s="1">
-        <v>134601.814360814</v>
+        <v>134601.81436081399</v>
       </c>
       <c r="AE61" s="1">
-        <v>500428.322270909</v>
+        <v>500428.32227090898</v>
       </c>
       <c r="AF61" s="1">
-        <v>55470.2857618465</v>
+        <v>55470.285761846499</v>
       </c>
       <c r="AG61" s="1">
-        <v>896.0</v>
+        <v>896</v>
       </c>
       <c r="AH61" s="1">
-        <v>5.58035714285714</v>
+        <v>5.5803571428571397</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>34</v>
@@ -6805,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>34</v>
@@ -6830,19 +6860,19 @@
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O62" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="Q62" s="3">
         <v>39545.541550925926</v>
       </c>
-      <c r="R62" s="2">
-        <v>39545.54775462963</v>
+      <c r="R62" s="3">
+        <v>39545.547754629632</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>41</v>
@@ -6851,51 +6881,51 @@
         <v>13.155995473605</v>
       </c>
       <c r="U62" s="1">
-        <v>113.795972484138</v>
+        <v>113.79597248413801</v>
       </c>
       <c r="V62" s="1">
         <v>51.1718426501035</v>
       </c>
       <c r="W62" s="1">
-        <v>463.18115942029</v>
+        <v>463.18115942028999</v>
       </c>
       <c r="X62" s="1">
-        <v>1.22056621771212</v>
+        <v>1.2205662177121199</v>
       </c>
       <c r="Y62" s="1">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="Z62" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AA62" s="1">
-        <v>887.0</v>
+        <v>887</v>
       </c>
       <c r="AB62" s="1">
-        <v>98.3706720977597</v>
+        <v>98.370672097759694</v>
       </c>
       <c r="AC62" s="1">
-        <v>539524.284948324</v>
+        <v>539524.28494832397</v>
       </c>
       <c r="AD62" s="1">
-        <v>8936.22004055195</v>
+        <v>8936.2200405519507</v>
       </c>
       <c r="AE62" s="1">
-        <v>548460.504988876</v>
+        <v>548460.50498887605</v>
       </c>
       <c r="AF62" s="1">
-        <v>77715.7386833191</v>
+        <v>77715.738683319098</v>
       </c>
       <c r="AG62" s="1">
-        <v>982.0</v>
+        <v>982</v>
       </c>
       <c r="AH62" s="1">
-        <v>30.6517311608961</v>
+        <v>30.651731160896102</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>34</v>
@@ -6907,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>34</v>
@@ -6932,72 +6962,72 @@
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O63" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q63" s="2">
-        <v>39545.44877314815</v>
-      </c>
-      <c r="R63" s="2">
-        <v>39545.45167824074</v>
+      <c r="Q63" s="3">
+        <v>39545.448773148149</v>
+      </c>
+      <c r="R63" s="3">
+        <v>39545.451678240737</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T63" s="1">
-        <v>10.9514215029203</v>
+        <v>10.951421502920301</v>
       </c>
       <c r="U63" s="1">
-        <v>77.9937065507715</v>
+        <v>77.993706550771506</v>
       </c>
       <c r="V63" s="1">
         <v>42.4978632478633</v>
       </c>
       <c r="W63" s="1">
-        <v>345.247863247863</v>
+        <v>345.24786324786299</v>
       </c>
       <c r="X63" s="1">
-        <v>1.24450839696397</v>
+        <v>1.2445083969639701</v>
       </c>
       <c r="Y63" s="1">
-        <v>468.0</v>
+        <v>468</v>
       </c>
       <c r="Z63" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA63" s="1">
-        <v>574.0</v>
+        <v>574</v>
       </c>
       <c r="AB63" s="1">
-        <v>98.5263157894737</v>
+        <v>98.526315789473699</v>
       </c>
       <c r="AC63" s="1">
-        <v>479204.799674598</v>
+        <v>479204.79967459798</v>
       </c>
       <c r="AD63" s="1">
-        <v>7167.59315752604</v>
+        <v>7167.5931575260402</v>
       </c>
       <c r="AE63" s="1">
-        <v>486372.392832124</v>
+        <v>486372.39283212402</v>
       </c>
       <c r="AF63" s="1">
-        <v>61887.1014184894</v>
+        <v>61887.101418489401</v>
       </c>
       <c r="AG63" s="1">
-        <v>475.0</v>
+        <v>475</v>
       </c>
       <c r="AH63" s="1">
-        <v>6.94736842105263</v>
+        <v>6.9473684210526301</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>34</v>
@@ -7009,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>34</v>
@@ -7034,72 +7064,72 @@
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O64" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q64" s="2">
-        <v>39545.44537037037</v>
-      </c>
-      <c r="R64" s="2">
+      <c r="Q64" s="3">
+        <v>39545.445370370369</v>
+      </c>
+      <c r="R64" s="3">
         <v>39545.448287037034</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T64" s="1">
-        <v>10.9204986837757</v>
+        <v>10.920498683775699</v>
       </c>
       <c r="U64" s="1">
-        <v>76.9618895528023</v>
+        <v>76.961889552802305</v>
       </c>
       <c r="V64" s="1">
-        <v>42.3992673992674</v>
+        <v>42.399267399267401</v>
       </c>
       <c r="W64" s="1">
         <v>341.239926739927</v>
       </c>
       <c r="X64" s="1">
-        <v>1.2432445129672</v>
+        <v>1.2432445129672001</v>
       </c>
       <c r="Y64" s="1">
-        <v>546.0</v>
+        <v>546</v>
       </c>
       <c r="Z64" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="AA64" s="1">
-        <v>679.0</v>
+        <v>679</v>
       </c>
       <c r="AB64" s="1">
-        <v>98.9130434782609</v>
+        <v>98.913043478260903</v>
       </c>
       <c r="AC64" s="1">
         <v>559072.266287031</v>
       </c>
       <c r="AD64" s="1">
-        <v>6143.65127787946</v>
+        <v>6143.6512778794604</v>
       </c>
       <c r="AE64" s="1">
-        <v>565215.917564911</v>
+        <v>565215.91756491095</v>
       </c>
       <c r="AF64" s="1">
-        <v>73723.8153345536</v>
+        <v>73723.815334553597</v>
       </c>
       <c r="AG64" s="1">
-        <v>552.0</v>
+        <v>552</v>
       </c>
       <c r="AH64" s="1">
-        <v>4.89130434782609</v>
+        <v>4.8913043478260896</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>34</v>
@@ -7111,7 +7141,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>34</v>
@@ -7136,19 +7166,19 @@
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O65" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q65" s="2">
-        <v>39545.43662037037</v>
-      </c>
-      <c r="R65" s="2">
-        <v>39545.43952546296</v>
+      <c r="Q65" s="3">
+        <v>39545.436620370368</v>
+      </c>
+      <c r="R65" s="3">
+        <v>39545.439525462964</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>41</v>
@@ -7157,51 +7187,51 @@
         <v>10.8596810907007</v>
       </c>
       <c r="U65" s="1">
-        <v>77.7043019974971</v>
+        <v>77.704301997497097</v>
       </c>
       <c r="V65" s="1">
-        <v>42.1175298804781</v>
+        <v>42.117529880478102</v>
       </c>
       <c r="W65" s="1">
-        <v>338.03984063745</v>
+        <v>338.03984063745003</v>
       </c>
       <c r="X65" s="1">
         <v>1.2191404771982</v>
       </c>
       <c r="Y65" s="1">
-        <v>502.0</v>
+        <v>502</v>
       </c>
       <c r="Z65" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA65" s="1">
-        <v>613.0</v>
+        <v>613</v>
       </c>
       <c r="AB65" s="1">
-        <v>99.0138067061144</v>
+        <v>99.013806706114394</v>
       </c>
       <c r="AC65" s="1">
         <v>514018.823582582</v>
       </c>
       <c r="AD65" s="1">
-        <v>5119.70939823289</v>
+        <v>5119.7093982328897</v>
       </c>
       <c r="AE65" s="1">
-        <v>519138.532980815</v>
+        <v>519138.53298081498</v>
       </c>
       <c r="AF65" s="1">
-        <v>55264.4113516167</v>
+        <v>55264.411351616698</v>
       </c>
       <c r="AG65" s="1">
-        <v>507.0</v>
+        <v>507</v>
       </c>
       <c r="AH65" s="1">
         <v>3.74753451676529</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>34</v>
@@ -7213,7 +7243,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>34</v>
@@ -7238,19 +7268,19 @@
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O66" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="2">
-        <v>39545.4324537037</v>
-      </c>
-      <c r="R66" s="2">
-        <v>39545.43539351852</v>
+      <c r="Q66" s="3">
+        <v>39545.432453703703</v>
+      </c>
+      <c r="R66" s="3">
+        <v>39545.435393518521</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>41</v>
@@ -7262,7 +7292,7 @@
         <v>91.3753799996136</v>
       </c>
       <c r="V66" s="1">
-        <v>45.0364185468112</v>
+        <v>45.036418546811198</v>
       </c>
       <c r="W66" s="1">
         <v>378.660508083141</v>
@@ -7271,39 +7301,39 @@
         <v>1.19573099705293</v>
       </c>
       <c r="Y66" s="1">
-        <v>5629.0</v>
+        <v>5629</v>
       </c>
       <c r="Z66" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="AA66" s="1">
-        <v>5516.0</v>
+        <v>5516</v>
       </c>
       <c r="AB66" s="1">
-        <v>98.7890487890488</v>
+        <v>98.789048789048806</v>
       </c>
       <c r="AC66" s="1">
-        <v>5763768.84053058</v>
+        <v>5763768.8405305799</v>
       </c>
       <c r="AD66" s="1">
-        <v>70651.9896956138</v>
+        <v>70651.989695613796</v>
       </c>
       <c r="AE66" s="1">
-        <v>5834420.8302262</v>
+        <v>5834420.8302261997</v>
       </c>
       <c r="AF66" s="1">
-        <v>250252.736058798</v>
+        <v>250252.73605879801</v>
       </c>
       <c r="AG66" s="1">
-        <v>5698.0</v>
+        <v>5698</v>
       </c>
       <c r="AH66" s="1">
-        <v>16.6374166374166</v>
+        <v>16.637416637416599</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>34</v>
@@ -7315,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>34</v>
@@ -7340,72 +7370,72 @@
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O67" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q67" s="2">
-        <v>39545.40361111111</v>
-      </c>
-      <c r="R67" s="2">
-        <v>39545.40657407408</v>
+      <c r="Q67" s="3">
+        <v>39545.403611111113</v>
+      </c>
+      <c r="R67" s="3">
+        <v>39545.406574074077</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T67" s="1">
-        <v>10.9775337002382</v>
+        <v>10.977533700238199</v>
       </c>
       <c r="U67" s="1">
-        <v>77.8368125911972</v>
+        <v>77.836812591197202</v>
       </c>
       <c r="V67" s="1">
-        <v>42.6029285099053</v>
+        <v>42.602928509905297</v>
       </c>
       <c r="W67" s="1">
-        <v>345.583979328165</v>
+        <v>345.58397932816501</v>
       </c>
       <c r="X67" s="1">
-        <v>1.25062674129527</v>
+        <v>1.2506267412952701</v>
       </c>
       <c r="Y67" s="1">
-        <v>1161.0</v>
+        <v>1161</v>
       </c>
       <c r="Z67" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AA67" s="1">
-        <v>1494.0</v>
+        <v>1494</v>
       </c>
       <c r="AB67" s="1">
-        <v>97.3176865046102</v>
+        <v>97.317686504610194</v>
       </c>
       <c r="AC67" s="1">
-        <v>1188796.52226968</v>
+        <v>1188796.5222696799</v>
       </c>
       <c r="AD67" s="1">
-        <v>32766.1401486905</v>
+        <v>32766.140148690502</v>
       </c>
       <c r="AE67" s="1">
-        <v>1221562.66241837</v>
+        <v>1221562.6624183699</v>
       </c>
       <c r="AF67" s="1">
-        <v>120255.424106895</v>
+        <v>120255.42410689501</v>
       </c>
       <c r="AG67" s="1">
-        <v>1193.0</v>
+        <v>1193</v>
       </c>
       <c r="AH67" s="1">
-        <v>8.63369656328583</v>
+        <v>8.6336965632858291</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>34</v>
@@ -7417,7 +7447,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>34</v>
@@ -7442,19 +7472,19 @@
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O68" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="Q68" s="3">
         <v>39542.650289351855</v>
       </c>
-      <c r="R68" s="2">
-        <v>39542.68716435185</v>
+      <c r="R68" s="3">
+        <v>39542.687164351853</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>41</v>
@@ -7463,51 +7493,51 @@
         <v>11.5698967663372</v>
       </c>
       <c r="U68" s="1">
-        <v>91.5816367628433</v>
+        <v>91.581636762843303</v>
       </c>
       <c r="V68" s="1">
-        <v>44.9295734597156</v>
+        <v>44.929573459715598</v>
       </c>
       <c r="W68" s="1">
-        <v>377.064834123223</v>
+        <v>377.06483412322302</v>
       </c>
       <c r="X68" s="1">
-        <v>1.18684655269028</v>
+        <v>1.1868465526902801</v>
       </c>
       <c r="Y68" s="1">
-        <v>10550.0</v>
+        <v>10550</v>
       </c>
       <c r="Z68" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="AA68" s="1">
-        <v>10185.0</v>
+        <v>10185</v>
       </c>
       <c r="AB68" s="1">
-        <v>98.9124320270017</v>
+        <v>98.912432027001699</v>
       </c>
       <c r="AC68" s="1">
-        <v>5892320.08923894</v>
+        <v>5892320.0892389398</v>
       </c>
       <c r="AD68" s="1">
         <v>64787.5952940016</v>
       </c>
       <c r="AE68" s="1">
-        <v>5957107.68453294</v>
+        <v>5957107.6845329404</v>
       </c>
       <c r="AF68" s="1">
-        <v>202516.501353144</v>
+        <v>202516.50135314401</v>
       </c>
       <c r="AG68" s="1">
-        <v>10666.0</v>
+        <v>10666</v>
       </c>
       <c r="AH68" s="1">
-        <v>15.4040877554847</v>
+        <v>15.404087755484699</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>34</v>
@@ -7519,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>34</v>
@@ -7544,19 +7574,19 @@
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O69" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="Q69" s="3">
         <v>39542.650289351855</v>
       </c>
-      <c r="R69" s="2">
-        <v>39542.68342592593</v>
+      <c r="R69" s="3">
+        <v>39542.683425925927</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>41</v>
@@ -7565,51 +7595,51 @@
         <v>11.5299230701008</v>
       </c>
       <c r="U69" s="1">
-        <v>91.002720985912</v>
+        <v>91.002720985912006</v>
       </c>
       <c r="V69" s="1">
-        <v>44.7760888629056</v>
+        <v>44.776088862905603</v>
       </c>
       <c r="W69" s="1">
-        <v>374.854720841859</v>
+        <v>374.85472084185898</v>
       </c>
       <c r="X69" s="1">
-        <v>1.18671862202111</v>
+        <v>1.1867186220211099</v>
       </c>
       <c r="Y69" s="1">
-        <v>10263.0</v>
+        <v>10263</v>
       </c>
       <c r="Z69" s="1">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="AA69" s="1">
-        <v>10054.0</v>
+        <v>10054</v>
       </c>
       <c r="AB69" s="1">
-        <v>98.7396574947085</v>
+        <v>98.739657494708496</v>
       </c>
       <c r="AC69" s="1">
-        <v>5732026.64226154</v>
+        <v>5732026.6422615396</v>
       </c>
       <c r="AD69" s="1">
-        <v>73165.3015820191</v>
+        <v>73165.301582019107</v>
       </c>
       <c r="AE69" s="1">
-        <v>5805191.94384356</v>
+        <v>5805191.9438435603</v>
       </c>
       <c r="AF69" s="1">
-        <v>138457.35036085</v>
+        <v>138457.35036084999</v>
       </c>
       <c r="AG69" s="1">
-        <v>10394.0</v>
+        <v>10394</v>
       </c>
       <c r="AH69" s="1">
         <v>15.0567635174139</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>34</v>
@@ -7621,7 +7651,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>34</v>
@@ -7646,72 +7676,72 @@
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q70" s="2">
-        <v>39542.65027777778</v>
-      </c>
-      <c r="R70" s="2">
+      <c r="Q70" s="3">
+        <v>39542.650277777779</v>
+      </c>
+      <c r="R70" s="3">
         <v>39542.679756944446</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T70" s="1">
-        <v>11.5334157469482</v>
+        <v>11.533415746948201</v>
       </c>
       <c r="U70" s="1">
-        <v>91.2358481325728</v>
+        <v>91.235848132572798</v>
       </c>
       <c r="V70" s="1">
-        <v>44.7858391608392</v>
+        <v>44.785839160839203</v>
       </c>
       <c r="W70" s="1">
-        <v>375.400446775447</v>
+        <v>375.40044677544699</v>
       </c>
       <c r="X70" s="1">
-        <v>1.1848964585111</v>
+        <v>1.1848964585110999</v>
       </c>
       <c r="Y70" s="1">
-        <v>10296.0</v>
+        <v>10296</v>
       </c>
       <c r="Z70" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="AA70" s="1">
-        <v>9998.0</v>
+        <v>9998</v>
       </c>
       <c r="AB70" s="1">
-        <v>99.0285659324805</v>
+        <v>99.028565932480504</v>
       </c>
       <c r="AC70" s="1">
-        <v>5750457.59609518</v>
+        <v>5750457.5960951801</v>
       </c>
       <c r="AD70" s="1">
-        <v>56409.8890059842</v>
+        <v>56409.889005984202</v>
       </c>
       <c r="AE70" s="1">
-        <v>5806867.48510116</v>
+        <v>5806867.4851011597</v>
       </c>
       <c r="AF70" s="1">
         <v>180791.169133068</v>
       </c>
       <c r="AG70" s="1">
-        <v>10397.0</v>
+        <v>10397</v>
       </c>
       <c r="AH70" s="1">
-        <v>16.0334711936135</v>
+        <v>16.033471193613501</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>34</v>
@@ -7723,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>34</v>
@@ -7748,19 +7778,19 @@
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O71" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q71" s="2">
-        <v>39542.65027777778</v>
-      </c>
-      <c r="R71" s="2">
-        <v>39542.67607638889</v>
+      <c r="Q71" s="3">
+        <v>39542.650277777779</v>
+      </c>
+      <c r="R71" s="3">
+        <v>39542.676076388889</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>41</v>
@@ -7769,10 +7799,10 @@
         <v>11.5788219887026</v>
       </c>
       <c r="U71" s="1">
-        <v>91.8394846320624</v>
+        <v>91.839484632062394</v>
       </c>
       <c r="V71" s="1">
-        <v>44.9691175064538</v>
+        <v>44.969117506453799</v>
       </c>
       <c r="W71" s="1">
         <v>378.05258628932</v>
@@ -7781,39 +7811,39 @@
         <v>1.18740226527228</v>
       </c>
       <c r="Y71" s="1">
-        <v>10459.0</v>
+        <v>10459</v>
       </c>
       <c r="Z71" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="AA71" s="1">
-        <v>10176.0</v>
+        <v>10176</v>
       </c>
       <c r="AB71" s="1">
-        <v>98.8563327032136</v>
+        <v>98.856332703213596</v>
       </c>
       <c r="AC71" s="1">
-        <v>5841495.3377583</v>
+        <v>5841495.3377582999</v>
       </c>
       <c r="AD71" s="1">
-        <v>67580.1640566741</v>
+        <v>67580.164056674097</v>
       </c>
       <c r="AE71" s="1">
-        <v>5909075.50181498</v>
+        <v>5909075.5018149801</v>
       </c>
       <c r="AF71" s="1">
-        <v>259370.563537147</v>
+        <v>259370.56353714701</v>
       </c>
       <c r="AG71" s="1">
-        <v>10580.0</v>
+        <v>10580</v>
       </c>
       <c r="AH71" s="1">
         <v>15.8979206049149</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>34</v>
@@ -7825,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>34</v>
@@ -7850,18 +7880,18 @@
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O72" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q72" s="2">
-        <v>39542.65027777778</v>
-      </c>
-      <c r="R72" s="2">
+      <c r="Q72" s="3">
+        <v>39542.650277777779</v>
+      </c>
+      <c r="R72" s="3">
         <v>39542.672372685185</v>
       </c>
       <c r="S72" s="1" t="s">
@@ -7871,51 +7901,51 @@
         <v>11.5056568488425</v>
       </c>
       <c r="U72" s="1">
-        <v>90.644668408463</v>
+        <v>90.644668408463005</v>
       </c>
       <c r="V72" s="1">
-        <v>44.676301703163</v>
+        <v>44.676301703162999</v>
       </c>
       <c r="W72" s="1">
-        <v>373.543357664234</v>
+        <v>373.54335766423401</v>
       </c>
       <c r="X72" s="1">
-        <v>1.18575017354371</v>
+        <v>1.1857501735437099</v>
       </c>
       <c r="Y72" s="1">
-        <v>10275.0</v>
+        <v>10275</v>
       </c>
       <c r="Z72" s="1">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="AA72" s="1">
-        <v>10041.0</v>
+        <v>10041</v>
       </c>
       <c r="AB72" s="1">
-        <v>99.0361445783133</v>
+        <v>99.036144578313298</v>
       </c>
       <c r="AC72" s="1">
-        <v>5738728.80729195</v>
+        <v>5738728.8072919501</v>
       </c>
       <c r="AD72" s="1">
-        <v>55851.3752534497</v>
+        <v>55851.375253449703</v>
       </c>
       <c r="AE72" s="1">
-        <v>5794580.1825454</v>
+        <v>5794580.1825454002</v>
       </c>
       <c r="AF72" s="1">
-        <v>243893.43382649</v>
+        <v>243893.43382649001</v>
       </c>
       <c r="AG72" s="1">
-        <v>10375.0</v>
+        <v>10375</v>
       </c>
       <c r="AH72" s="1">
-        <v>15.5180722891566</v>
+        <v>15.518072289156599</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>34</v>
@@ -7927,7 +7957,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>34</v>
@@ -7952,18 +7982,18 @@
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O73" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q73" s="2">
-        <v>39542.65027777778</v>
-      </c>
-      <c r="R73" s="2">
+      <c r="Q73" s="3">
+        <v>39542.650277777779</v>
+      </c>
+      <c r="R73" s="3">
         <v>39542.668703703705</v>
       </c>
       <c r="S73" s="1" t="s">
@@ -7973,51 +8003,51 @@
         <v>11.5849744633017</v>
       </c>
       <c r="U73" s="1">
-        <v>92.1006642106228</v>
+        <v>92.100664210622796</v>
       </c>
       <c r="V73" s="1">
         <v>44.9938326867602</v>
       </c>
       <c r="W73" s="1">
-        <v>378.462349547399</v>
+        <v>378.46234954739901</v>
       </c>
       <c r="X73" s="1">
-        <v>1.18545749312587</v>
+        <v>1.1854574931258699</v>
       </c>
       <c r="Y73" s="1">
-        <v>10053.0</v>
+        <v>10053</v>
       </c>
       <c r="Z73" s="1">
-        <v>116.0</v>
+        <v>116</v>
       </c>
       <c r="AA73" s="1">
-        <v>9878.0</v>
+        <v>9878</v>
       </c>
       <c r="AB73" s="1">
-        <v>98.8592781984462</v>
+        <v>98.859278198446205</v>
       </c>
       <c r="AC73" s="1">
-        <v>5614738.7542293</v>
+        <v>5614738.7542292997</v>
       </c>
       <c r="AD73" s="1">
         <v>64787.5952940016</v>
       </c>
       <c r="AE73" s="1">
-        <v>5679526.3495233</v>
+        <v>5679526.3495233003</v>
       </c>
       <c r="AF73" s="1">
-        <v>145676.832763305</v>
+        <v>145676.83276330499</v>
       </c>
       <c r="AG73" s="1">
-        <v>10169.0</v>
+        <v>10169</v>
       </c>
       <c r="AH73" s="1">
-        <v>14.6130396302488</v>
+        <v>14.613039630248799</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>34</v>
@@ -8029,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>34</v>
@@ -8054,19 +8084,19 @@
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O74" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q74" s="2">
-        <v>39542.65027777778</v>
-      </c>
-      <c r="R74" s="2">
-        <v>39542.66504629629</v>
+      <c r="Q74" s="3">
+        <v>39542.650277777779</v>
+      </c>
+      <c r="R74" s="3">
+        <v>39542.665046296293</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>41</v>
@@ -8075,51 +8105,51 @@
         <v>11.5722200294608</v>
       </c>
       <c r="U74" s="1">
-        <v>91.8072049148648</v>
+        <v>91.807204914864798</v>
       </c>
       <c r="V74" s="1">
-        <v>44.9362811353543</v>
+        <v>44.936281135354299</v>
       </c>
       <c r="W74" s="1">
-        <v>377.46910600502</v>
+        <v>377.46910600502002</v>
       </c>
       <c r="X74" s="1">
-        <v>1.18514104032791</v>
+        <v>1.1851410403279099</v>
       </c>
       <c r="Y74" s="1">
-        <v>10358.0</v>
+        <v>10358</v>
       </c>
       <c r="Z74" s="1">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="AA74" s="1">
-        <v>10033.0</v>
+        <v>10033</v>
       </c>
       <c r="AB74" s="1">
-        <v>99.0343245052108</v>
+        <v>99.034324505210805</v>
       </c>
       <c r="AC74" s="1">
-        <v>5785085.44875232</v>
+        <v>5785085.4487523204</v>
       </c>
       <c r="AD74" s="1">
-        <v>56409.8890059842</v>
+        <v>56409.889005984202</v>
       </c>
       <c r="AE74" s="1">
-        <v>5841495.3377583</v>
+        <v>5841495.3377582999</v>
       </c>
       <c r="AF74" s="1">
-        <v>241489.876383371</v>
+        <v>241489.87638337101</v>
       </c>
       <c r="AG74" s="1">
-        <v>10459.0</v>
+        <v>10459</v>
       </c>
       <c r="AH74" s="1">
         <v>15.0301176020652</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>34</v>
@@ -8131,7 +8161,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>34</v>
@@ -8156,72 +8186,72 @@
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O75" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q75" s="2">
-        <v>39542.6502662037</v>
-      </c>
-      <c r="R75" s="2">
-        <v>39542.66137731481</v>
+      <c r="Q75" s="3">
+        <v>39542.650266203702</v>
+      </c>
+      <c r="R75" s="3">
+        <v>39542.661377314813</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T75" s="1">
-        <v>11.560824427973</v>
+        <v>11.560824427972999</v>
       </c>
       <c r="U75" s="1">
-        <v>91.4435761560569</v>
+        <v>91.443576156056906</v>
       </c>
       <c r="V75" s="1">
-        <v>44.8918170533753</v>
+        <v>44.891817053375298</v>
       </c>
       <c r="W75" s="1">
-        <v>376.743244533563</v>
+        <v>376.74324453356297</v>
       </c>
       <c r="X75" s="1">
         <v>1.18731837195838</v>
       </c>
       <c r="Y75" s="1">
-        <v>10473.0</v>
+        <v>10473</v>
       </c>
       <c r="Z75" s="1">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AA75" s="1">
-        <v>10163.0</v>
+        <v>10163</v>
       </c>
       <c r="AB75" s="1">
-        <v>98.8951841359773</v>
+        <v>98.895184135977303</v>
       </c>
       <c r="AC75" s="1">
-        <v>5849314.53029378</v>
+        <v>5849314.5302937804</v>
       </c>
       <c r="AD75" s="1">
-        <v>65346.1090465361</v>
+        <v>65346.109046536098</v>
       </c>
       <c r="AE75" s="1">
-        <v>5914660.63934032</v>
+        <v>5914660.6393403197</v>
       </c>
       <c r="AF75" s="1">
-        <v>217859.026393853</v>
+        <v>217859.02639385301</v>
       </c>
       <c r="AG75" s="1">
-        <v>10590.0</v>
+        <v>10590</v>
       </c>
       <c r="AH75" s="1">
         <v>16.0151085930123</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>34</v>
@@ -8233,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>34</v>
@@ -8258,55 +8288,55 @@
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O76" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q76" s="2">
-        <v>39542.6502662037</v>
-      </c>
-      <c r="R76" s="2">
+      <c r="Q76" s="3">
+        <v>39542.650266203702</v>
+      </c>
+      <c r="R76" s="3">
         <v>39542.657685185186</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T76" s="1">
-        <v>11.5345213225781</v>
+        <v>11.534521322578099</v>
       </c>
       <c r="U76" s="1">
-        <v>91.0223206953999</v>
+        <v>91.022320695399898</v>
       </c>
       <c r="V76" s="1">
-        <v>44.7940336713597</v>
+        <v>44.794033671359699</v>
       </c>
       <c r="W76" s="1">
-        <v>375.112237865511</v>
+        <v>375.11223786551102</v>
       </c>
       <c r="X76" s="1">
         <v>1.18770786984591</v>
       </c>
       <c r="Y76" s="1">
-        <v>10157.0</v>
+        <v>10157</v>
       </c>
       <c r="Z76" s="1">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="AA76" s="1">
-        <v>9865.0</v>
+        <v>9865</v>
       </c>
       <c r="AB76" s="1">
-        <v>98.7554691298007</v>
+        <v>98.755469129800701</v>
       </c>
       <c r="AC76" s="1">
-        <v>5672824.18449288</v>
+        <v>5672824.1844928795</v>
       </c>
       <c r="AD76" s="1">
-        <v>71489.7603244156</v>
+        <v>71489.760324415605</v>
       </c>
       <c r="AE76" s="1">
         <v>5744313.9448173</v>
@@ -8315,15 +8345,15 @@
         <v>223961.925553026</v>
       </c>
       <c r="AG76" s="1">
-        <v>10285.0</v>
+        <v>10285</v>
       </c>
       <c r="AH76" s="1">
-        <v>16.0913952357803</v>
+        <v>16.091395235780301</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>34</v>
@@ -8335,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>34</v>
@@ -8360,72 +8390,72 @@
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O77" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q77" s="2">
-        <v>39542.65017361111</v>
-      </c>
-      <c r="R77" s="2">
+      <c r="Q77" s="3">
+        <v>39542.650173611109</v>
+      </c>
+      <c r="R77" s="3">
         <v>39542.654016203705</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T77" s="1">
-        <v>11.6235286706684</v>
+        <v>11.623528670668399</v>
       </c>
       <c r="U77" s="1">
-        <v>92.6514874406953</v>
+        <v>92.651487440695306</v>
       </c>
       <c r="V77" s="1">
-        <v>45.1419499804611</v>
+        <v>45.141949980461099</v>
       </c>
       <c r="W77" s="1">
-        <v>380.507033997655</v>
+        <v>380.50703399765501</v>
       </c>
       <c r="X77" s="1">
-        <v>1.18683621034691</v>
+        <v>1.1868362103469099</v>
       </c>
       <c r="Y77" s="1">
-        <v>10236.0</v>
+        <v>10236</v>
       </c>
       <c r="Z77" s="1">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="AA77" s="1">
-        <v>9967.0</v>
+        <v>9967</v>
       </c>
       <c r="AB77" s="1">
-        <v>98.793552745874</v>
+        <v>98.793552745873995</v>
       </c>
       <c r="AC77" s="1">
-        <v>5716946.77094311</v>
+        <v>5716946.7709431099</v>
       </c>
       <c r="AD77" s="1">
-        <v>69814.2190668121</v>
+        <v>69814.219066812104</v>
       </c>
       <c r="AE77" s="1">
-        <v>5786760.99000992</v>
+        <v>5786760.9900099197</v>
       </c>
       <c r="AF77" s="1">
-        <v>144994.300863386</v>
+        <v>144994.30086338599</v>
       </c>
       <c r="AG77" s="1">
-        <v>10361.0</v>
+        <v>10361</v>
       </c>
       <c r="AH77" s="1">
         <v>15.6259048354406</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>34</v>
@@ -8437,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>34</v>
@@ -8462,72 +8492,72 @@
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O78" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q78" s="2">
-        <v>39542.61877314815</v>
-      </c>
-      <c r="R78" s="2">
+      <c r="Q78" s="3">
+        <v>39542.618773148148</v>
+      </c>
+      <c r="R78" s="3">
         <v>39542.649930555555</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T78" s="1">
-        <v>10.8950035672462</v>
+        <v>10.895003567246199</v>
       </c>
       <c r="U78" s="1">
-        <v>79.4020466805323</v>
+        <v>79.402046680532294</v>
       </c>
       <c r="V78" s="1">
-        <v>42.2821330902461</v>
+        <v>42.282133090246099</v>
       </c>
       <c r="W78" s="1">
-        <v>339.644484958979</v>
+        <v>339.64448495897898</v>
       </c>
       <c r="X78" s="1">
-        <v>1.2010958836305</v>
+        <v>1.2010958836304999</v>
       </c>
       <c r="Y78" s="1">
-        <v>2194.0</v>
+        <v>2194</v>
       </c>
       <c r="Z78" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AA78" s="1">
-        <v>2303.0</v>
+        <v>2303</v>
       </c>
       <c r="AB78" s="1">
-        <v>99.5914661824784</v>
+        <v>99.591466182478399</v>
       </c>
       <c r="AC78" s="1">
-        <v>1225379.17306069</v>
+        <v>1225379.1730606901</v>
       </c>
       <c r="AD78" s="1">
-        <v>5026.62377281047</v>
+        <v>5026.6237728104697</v>
       </c>
       <c r="AE78" s="1">
         <v>1230405.7968335</v>
       </c>
       <c r="AF78" s="1">
-        <v>107536.743225483</v>
+        <v>107536.74322548301</v>
       </c>
       <c r="AG78" s="1">
-        <v>2203.0</v>
+        <v>2203</v>
       </c>
       <c r="AH78" s="1">
-        <v>6.99046754425783</v>
+        <v>6.9904675442578297</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>34</v>
@@ -8539,7 +8569,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>34</v>
@@ -8564,72 +8594,72 @@
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O79" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q79" s="2">
-        <v>39542.61876157407</v>
-      </c>
-      <c r="R79" s="2">
+      <c r="Q79" s="3">
+        <v>39542.618761574071</v>
+      </c>
+      <c r="R79" s="3">
         <v>39542.646840277775</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T79" s="1">
-        <v>10.9069665362525</v>
+        <v>10.906966536252501</v>
       </c>
       <c r="U79" s="1">
-        <v>79.6071560789019</v>
+        <v>79.607156078901895</v>
       </c>
       <c r="V79" s="1">
-        <v>42.3191593352884</v>
+        <v>42.319159335288397</v>
       </c>
       <c r="W79" s="1">
-        <v>340.598729227762</v>
+        <v>340.59872922776202</v>
       </c>
       <c r="X79" s="1">
         <v>1.20104967074424</v>
       </c>
       <c r="Y79" s="1">
-        <v>2046.0</v>
+        <v>2046</v>
       </c>
       <c r="Z79" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA79" s="1">
-        <v>2180.0</v>
+        <v>2180</v>
       </c>
       <c r="AB79" s="1">
-        <v>99.6105160662123</v>
+        <v>99.610516066212298</v>
       </c>
       <c r="AC79" s="1">
-        <v>1142719.13768558</v>
+        <v>1142719.1376855799</v>
       </c>
       <c r="AD79" s="1">
-        <v>4468.11002027597</v>
+        <v>4468.1100202759699</v>
       </c>
       <c r="AE79" s="1">
-        <v>1147187.24770586</v>
+        <v>1147187.2477058601</v>
       </c>
       <c r="AF79" s="1">
         <v>114161.085400225</v>
       </c>
       <c r="AG79" s="1">
-        <v>2054.0</v>
+        <v>2054</v>
       </c>
       <c r="AH79" s="1">
         <v>7.59493670886076</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>34</v>
@@ -8641,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>34</v>
@@ -8666,72 +8696,72 @@
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O80" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q80" s="2">
-        <v>39542.61876157407</v>
-      </c>
-      <c r="R80" s="2">
-        <v>39542.64376157407</v>
+      <c r="Q80" s="3">
+        <v>39542.618761574071</v>
+      </c>
+      <c r="R80" s="3">
+        <v>39542.643761574072</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T80" s="1">
-        <v>10.8740343496575</v>
+        <v>10.874034349657499</v>
       </c>
       <c r="U80" s="1">
-        <v>79.501285102446</v>
+        <v>79.501285102446005</v>
       </c>
       <c r="V80" s="1">
-        <v>42.1928982725528</v>
+        <v>42.192898272552803</v>
       </c>
       <c r="W80" s="1">
-        <v>339.829174664107</v>
+        <v>339.82917466410697</v>
       </c>
       <c r="X80" s="1">
         <v>1.2009951821592</v>
       </c>
       <c r="Y80" s="1">
-        <v>2084.0</v>
+        <v>2084</v>
       </c>
       <c r="Z80" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AA80" s="1">
-        <v>2225.0</v>
+        <v>2225</v>
       </c>
       <c r="AB80" s="1">
-        <v>99.5699952221691</v>
+        <v>99.569995222169098</v>
       </c>
       <c r="AC80" s="1">
-        <v>1163942.66028189</v>
+        <v>1163942.6602818901</v>
       </c>
       <c r="AD80" s="1">
-        <v>5026.62377281047</v>
+        <v>5026.6237728104697</v>
       </c>
       <c r="AE80" s="1">
-        <v>1168969.2840547</v>
+        <v>1168969.2840547001</v>
       </c>
       <c r="AF80" s="1">
-        <v>75748.138134877</v>
+        <v>75748.138134876994</v>
       </c>
       <c r="AG80" s="1">
-        <v>2093.0</v>
+        <v>2093</v>
       </c>
       <c r="AH80" s="1">
-        <v>7.40563784042045</v>
+        <v>7.4056378404204501</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>34</v>
@@ -8743,7 +8773,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>34</v>
@@ -8768,72 +8798,72 @@
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O81" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q81" s="2">
-        <v>39542.61876157407</v>
-      </c>
-      <c r="R81" s="2">
-        <v>39542.64068287037</v>
+      <c r="Q81" s="3">
+        <v>39542.618761574071</v>
+      </c>
+      <c r="R81" s="3">
+        <v>39542.640682870369</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T81" s="1">
-        <v>10.9102120289857</v>
+        <v>10.910212028985701</v>
       </c>
       <c r="U81" s="1">
-        <v>79.661127094918</v>
+        <v>79.661127094918001</v>
       </c>
       <c r="V81" s="1">
-        <v>42.3366858237548</v>
+        <v>42.336685823754799</v>
       </c>
       <c r="W81" s="1">
-        <v>340.924329501916</v>
+        <v>340.92432950191602</v>
       </c>
       <c r="X81" s="1">
         <v>1.20342434549861</v>
       </c>
       <c r="Y81" s="1">
-        <v>2088.0</v>
+        <v>2088</v>
       </c>
       <c r="Z81" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA81" s="1">
-        <v>2230.0</v>
+        <v>2230</v>
       </c>
       <c r="AB81" s="1">
-        <v>99.5233555767397</v>
+        <v>99.523355576739704</v>
       </c>
       <c r="AC81" s="1">
         <v>1166176.71529203</v>
       </c>
       <c r="AD81" s="1">
-        <v>5585.13752534497</v>
+        <v>5585.1375253449696</v>
       </c>
       <c r="AE81" s="1">
-        <v>1171761.85281737</v>
+        <v>1171761.8528173701</v>
       </c>
       <c r="AF81" s="1">
-        <v>68467.4990757077</v>
+        <v>68467.499075707703</v>
       </c>
       <c r="AG81" s="1">
-        <v>2098.0</v>
+        <v>2098</v>
       </c>
       <c r="AH81" s="1">
-        <v>6.48236415633937</v>
+        <v>6.4823641563393704</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>34</v>
@@ -8845,7 +8875,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>34</v>
@@ -8870,72 +8900,72 @@
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O82" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q82" s="2">
-        <v>39542.61875</v>
-      </c>
-      <c r="R82" s="2">
+      <c r="Q82" s="3">
+        <v>39542.618750000001</v>
+      </c>
+      <c r="R82" s="3">
         <v>39542.637604166666</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T82" s="1">
-        <v>10.8849547022039</v>
+        <v>10.884954702203901</v>
       </c>
       <c r="U82" s="1">
-        <v>79.3018621782843</v>
+        <v>79.301862178284296</v>
       </c>
       <c r="V82" s="1">
-        <v>42.2292929292929</v>
+        <v>42.229292929292903</v>
       </c>
       <c r="W82" s="1">
-        <v>339.580808080808</v>
+        <v>339.58080808080803</v>
       </c>
       <c r="X82" s="1">
-        <v>1.20183651223474</v>
+        <v>1.2018365122347401</v>
       </c>
       <c r="Y82" s="1">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="Z82" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AA82" s="1">
-        <v>2117.0</v>
+        <v>2117</v>
       </c>
       <c r="AB82" s="1">
-        <v>99.4475138121547</v>
+        <v>99.447513812154696</v>
       </c>
       <c r="AC82" s="1">
         <v>1105857.2300183</v>
       </c>
       <c r="AD82" s="1">
-        <v>6143.65127787946</v>
+        <v>6143.6512778794604</v>
       </c>
       <c r="AE82" s="1">
         <v>1112000.88129618</v>
       </c>
       <c r="AF82" s="1">
-        <v>71117.9051803514</v>
+        <v>71117.905180351401</v>
       </c>
       <c r="AG82" s="1">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="AH82" s="1">
-        <v>7.03164239075841</v>
+        <v>7.0316423907584102</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>34</v>
@@ -8947,7 +8977,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>34</v>
@@ -8972,72 +9002,72 @@
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O83" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q83" s="2">
-        <v>39542.61875</v>
-      </c>
-      <c r="R83" s="2">
+      <c r="Q83" s="3">
+        <v>39542.618750000001</v>
+      </c>
+      <c r="R83" s="3">
         <v>39542.63453703704</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T83" s="1">
-        <v>10.9015460870303</v>
+        <v>10.901546087030299</v>
       </c>
       <c r="U83" s="1">
-        <v>80.0305400074965</v>
+        <v>80.030540007496498</v>
       </c>
       <c r="V83" s="1">
-        <v>42.3053741838272</v>
+        <v>42.305374183827197</v>
       </c>
       <c r="W83" s="1">
-        <v>341.861376192868</v>
+        <v>341.86137619286802</v>
       </c>
       <c r="X83" s="1">
         <v>1.201872630402</v>
       </c>
       <c r="Y83" s="1">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="Z83" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AA83" s="1">
-        <v>2128.0</v>
+        <v>2128</v>
       </c>
       <c r="AB83" s="1">
-        <v>99.400898652022</v>
+        <v>99.400898652021993</v>
       </c>
       <c r="AC83" s="1">
         <v>1112000.88129618</v>
       </c>
       <c r="AD83" s="1">
-        <v>6702.16503041396</v>
+        <v>6702.1650304139603</v>
       </c>
       <c r="AE83" s="1">
         <v>1118703.0463266</v>
       </c>
       <c r="AF83" s="1">
-        <v>68635.8638974773</v>
+        <v>68635.863897477306</v>
       </c>
       <c r="AG83" s="1">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="AH83" s="1">
-        <v>7.48876684972541</v>
+        <v>7.4887668497254101</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>34</v>
@@ -9049,7 +9079,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>34</v>
@@ -9074,72 +9104,72 @@
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O84" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q84" s="2">
-        <v>39542.61875</v>
-      </c>
-      <c r="R84" s="2">
-        <v>39542.63146990741</v>
+      <c r="Q84" s="3">
+        <v>39542.618750000001</v>
+      </c>
+      <c r="R84" s="3">
+        <v>39542.631469907406</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T84" s="1">
-        <v>10.7815287431318</v>
+        <v>10.781528743131799</v>
       </c>
       <c r="U84" s="1">
-        <v>77.9372740458279</v>
+        <v>77.937274045827905</v>
       </c>
       <c r="V84" s="1">
-        <v>41.8390461997019</v>
+        <v>41.839046199701897</v>
       </c>
       <c r="W84" s="1">
-        <v>333.937903626428</v>
+        <v>333.93790362642801</v>
       </c>
       <c r="X84" s="1">
         <v>1.1978398176036</v>
       </c>
       <c r="Y84" s="1">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="Z84" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA84" s="1">
-        <v>2161.0</v>
+        <v>2161</v>
       </c>
       <c r="AB84" s="1">
-        <v>99.5056846267919</v>
+        <v>99.505684626791904</v>
       </c>
       <c r="AC84" s="1">
-        <v>1124288.18385194</v>
+        <v>1124288.1838519401</v>
       </c>
       <c r="AD84" s="1">
-        <v>5585.13752534497</v>
+        <v>5585.1375253449696</v>
       </c>
       <c r="AE84" s="1">
-        <v>1129873.32137729</v>
+        <v>1129873.3213772899</v>
       </c>
       <c r="AF84" s="1">
-        <v>99182.9850568328</v>
+        <v>99182.985056832797</v>
       </c>
       <c r="AG84" s="1">
-        <v>2023.0</v>
+        <v>2023</v>
       </c>
       <c r="AH84" s="1">
-        <v>7.61245674740484</v>
+        <v>7.6124567474048401</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>34</v>
@@ -9151,7 +9181,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>34</v>
@@ -9176,18 +9206,18 @@
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O85" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q85" s="2">
-        <v>39542.61875</v>
-      </c>
-      <c r="R85" s="2">
+      <c r="Q85" s="3">
+        <v>39542.618750000001</v>
+      </c>
+      <c r="R85" s="3">
         <v>39542.62840277778</v>
       </c>
       <c r="S85" s="1" t="s">
@@ -9197,10 +9227,10 @@
         <v>10.8841488040656</v>
       </c>
       <c r="U85" s="1">
-        <v>79.3695402050138</v>
+        <v>79.369540205013806</v>
       </c>
       <c r="V85" s="1">
-        <v>42.2253663466397</v>
+        <v>42.225366346639703</v>
       </c>
       <c r="W85" s="1">
         <v>340.278423446185</v>
@@ -9209,39 +9239,39 @@
         <v>1.20439421563536</v>
       </c>
       <c r="Y85" s="1">
-        <v>1979.0</v>
+        <v>1979</v>
       </c>
       <c r="Z85" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="AA85" s="1">
-        <v>2151.0</v>
+        <v>2151</v>
       </c>
       <c r="AB85" s="1">
-        <v>99.4472361809045</v>
+        <v>99.447236180904497</v>
       </c>
       <c r="AC85" s="1">
-        <v>1105298.71626577</v>
+        <v>1105298.7162657699</v>
       </c>
       <c r="AD85" s="1">
-        <v>6143.65127787946</v>
+        <v>6143.6512778794604</v>
       </c>
       <c r="AE85" s="1">
-        <v>1111442.36754365</v>
+        <v>1111442.3675436501</v>
       </c>
       <c r="AF85" s="1">
-        <v>57778.5108943135</v>
+        <v>57778.510894313498</v>
       </c>
       <c r="AG85" s="1">
-        <v>1990.0</v>
+        <v>1990</v>
       </c>
       <c r="AH85" s="1">
-        <v>6.98492462311558</v>
+        <v>6.9849246231155799</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>34</v>
@@ -9253,7 +9283,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>34</v>
@@ -9278,72 +9308,72 @@
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O86" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q86" s="2">
-        <v>39542.61875</v>
-      </c>
-      <c r="R86" s="2">
-        <v>39542.62533564815</v>
+      <c r="Q86" s="3">
+        <v>39542.618750000001</v>
+      </c>
+      <c r="R86" s="3">
+        <v>39542.625335648147</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T86" s="1">
-        <v>10.9348091728103</v>
+        <v>10.934809172810301</v>
       </c>
       <c r="U86" s="1">
-        <v>79.983378046269</v>
+        <v>79.983378046268996</v>
       </c>
       <c r="V86" s="1">
-        <v>42.4397854705022</v>
+        <v>42.439785470502201</v>
       </c>
       <c r="W86" s="1">
-        <v>342.404193076548</v>
+        <v>342.40419307654798</v>
       </c>
       <c r="X86" s="1">
-        <v>1.20455471279387</v>
+        <v>1.2045547127938701</v>
       </c>
       <c r="Y86" s="1">
-        <v>2051.0</v>
+        <v>2051</v>
       </c>
       <c r="Z86" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA86" s="1">
-        <v>2235.0</v>
+        <v>2235</v>
       </c>
       <c r="AB86" s="1">
-        <v>99.6114618746964</v>
+        <v>99.611461874696403</v>
       </c>
       <c r="AC86" s="1">
         <v>1145511.70644825</v>
       </c>
       <c r="AD86" s="1">
-        <v>4468.11002027597</v>
+        <v>4468.1100202759699</v>
       </c>
       <c r="AE86" s="1">
-        <v>1149979.81646853</v>
+        <v>1149979.8164685301</v>
       </c>
       <c r="AF86" s="1">
-        <v>68903.4864948205</v>
+        <v>68903.486494820507</v>
       </c>
       <c r="AG86" s="1">
-        <v>2059.0</v>
+        <v>2059</v>
       </c>
       <c r="AH86" s="1">
-        <v>7.04225352112676</v>
+        <v>7.0422535211267601</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>34</v>
@@ -9355,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>34</v>
@@ -9380,55 +9410,55 @@
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O87" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q87" s="2">
-        <v>39542.61861111111</v>
-      </c>
-      <c r="R87" s="2">
+      <c r="Q87" s="3">
+        <v>39542.618611111109</v>
+      </c>
+      <c r="R87" s="3">
         <v>39542.62228009259</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T87" s="1">
-        <v>10.8599270541415</v>
+        <v>10.859927054141499</v>
       </c>
       <c r="U87" s="1">
-        <v>78.5983072258711</v>
+        <v>78.598307225871096</v>
       </c>
       <c r="V87" s="1">
-        <v>42.1332055582175</v>
+        <v>42.133205558217497</v>
       </c>
       <c r="W87" s="1">
-        <v>337.806899856253</v>
+        <v>337.80689985625298</v>
       </c>
       <c r="X87" s="1">
-        <v>1.20623812919847</v>
+        <v>1.2062381291984701</v>
       </c>
       <c r="Y87" s="1">
-        <v>2087.0</v>
+        <v>2087</v>
       </c>
       <c r="Z87" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA87" s="1">
-        <v>2238.0</v>
+        <v>2238</v>
       </c>
       <c r="AB87" s="1">
-        <v>99.618138424821</v>
+        <v>99.618138424820998</v>
       </c>
       <c r="AC87" s="1">
-        <v>1165618.20153949</v>
+        <v>1165618.2015394899</v>
       </c>
       <c r="AD87" s="1">
-        <v>4468.11002027597</v>
+        <v>4468.1100202759699</v>
       </c>
       <c r="AE87" s="1">
         <v>1170086.31155977</v>
@@ -9437,15 +9467,15 @@
         <v>51292.1223743917</v>
       </c>
       <c r="AG87" s="1">
-        <v>2095.0</v>
+        <v>2095</v>
       </c>
       <c r="AH87" s="1">
-        <v>7.5417661097852</v>
+        <v>7.5417661097851996</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>34</v>
@@ -9457,7 +9487,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>34</v>
@@ -9482,72 +9512,72 @@
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O88" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q88" s="2">
-        <v>39542.58453703704</v>
-      </c>
-      <c r="R88" s="2">
-        <v>39542.6180787037</v>
+      <c r="Q88" s="3">
+        <v>39542.584537037037</v>
+      </c>
+      <c r="R88" s="3">
+        <v>39542.618078703701</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T88" s="1">
-        <v>10.8036489061835</v>
+        <v>10.803648906183501</v>
       </c>
       <c r="U88" s="1">
-        <v>77.5943030613876</v>
+        <v>77.594303061387606</v>
       </c>
       <c r="V88" s="1">
-        <v>41.9182464454976</v>
+        <v>41.918246445497601</v>
       </c>
       <c r="W88" s="1">
-        <v>335.548578199052</v>
+        <v>335.54857819905197</v>
       </c>
       <c r="X88" s="1">
-        <v>1.20752625273865</v>
+        <v>1.2075262527386501</v>
       </c>
       <c r="Y88" s="1">
-        <v>844.0</v>
+        <v>844</v>
       </c>
       <c r="Z88" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AA88" s="1">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="AB88" s="1">
         <v>98.9449003516999</v>
       </c>
       <c r="AC88" s="1">
-        <v>471385.607139115</v>
+        <v>471385.60713911499</v>
       </c>
       <c r="AD88" s="1">
-        <v>5026.62377281047</v>
+        <v>5026.6237728104697</v>
       </c>
       <c r="AE88" s="1">
-        <v>476412.230911926</v>
+        <v>476412.23091192602</v>
       </c>
       <c r="AF88" s="1">
         <v>52613.0627016566</v>
       </c>
       <c r="AG88" s="1">
-        <v>853.0</v>
+        <v>853</v>
       </c>
       <c r="AH88" s="1">
-        <v>4.57209847596717</v>
+        <v>4.5720984759671701</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>34</v>
@@ -9559,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>34</v>
@@ -9584,19 +9614,19 @@
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O89" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q89" s="2">
-        <v>39542.58453703704</v>
-      </c>
-      <c r="R89" s="2">
-        <v>39542.61505787037</v>
+      <c r="Q89" s="3">
+        <v>39542.584537037037</v>
+      </c>
+      <c r="R89" s="3">
+        <v>39542.615057870367</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>41</v>
@@ -9605,51 +9635,51 @@
         <v>11.0872841771716</v>
       </c>
       <c r="U89" s="1">
-        <v>82.0500657570368</v>
+        <v>82.050065757036805</v>
       </c>
       <c r="V89" s="1">
-        <v>43.0374732334047</v>
+        <v>43.037473233404697</v>
       </c>
       <c r="W89" s="1">
         <v>350.60278372591</v>
       </c>
       <c r="X89" s="1">
-        <v>1.20754429633349</v>
+        <v>1.2075442963334899</v>
       </c>
       <c r="Y89" s="1">
-        <v>934.0</v>
+        <v>934</v>
       </c>
       <c r="Z89" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="AA89" s="1">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="AB89" s="1">
         <v>99.0455991516437</v>
       </c>
       <c r="AC89" s="1">
-        <v>521651.84486722</v>
+        <v>521651.84486721997</v>
       </c>
       <c r="AD89" s="1">
-        <v>5026.62377281047</v>
+        <v>5026.6237728104697</v>
       </c>
       <c r="AE89" s="1">
-        <v>526678.46864003</v>
+        <v>526678.46864003001</v>
       </c>
       <c r="AF89" s="1">
-        <v>52855.5886450392</v>
+        <v>52855.588645039199</v>
       </c>
       <c r="AG89" s="1">
-        <v>943.0</v>
+        <v>943</v>
       </c>
       <c r="AH89" s="1">
-        <v>8.27147401908802</v>
+        <v>8.2714740190880196</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>34</v>
@@ -9661,7 +9691,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>34</v>
@@ -9686,18 +9716,18 @@
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O90" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q90" s="2">
-        <v>39542.58453703704</v>
-      </c>
-      <c r="R90" s="2">
+      <c r="Q90" s="3">
+        <v>39542.584537037037</v>
+      </c>
+      <c r="R90" s="3">
         <v>39542.61204861111</v>
       </c>
       <c r="S90" s="1" t="s">
@@ -9707,10 +9737,10 @@
         <v>10.6629464792022</v>
       </c>
       <c r="U90" s="1">
-        <v>75.3923960565152</v>
+        <v>75.392396056515196</v>
       </c>
       <c r="V90" s="1">
-        <v>41.3628841607565</v>
+        <v>41.362884160756501</v>
       </c>
       <c r="W90" s="1">
         <v>327.009456264775</v>
@@ -9719,39 +9749,39 @@
         <v>1.20956783028958</v>
       </c>
       <c r="Y90" s="1">
-        <v>846.0</v>
+        <v>846</v>
       </c>
       <c r="Z90" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA90" s="1">
-        <v>1013.0</v>
+        <v>1013</v>
       </c>
       <c r="AB90" s="1">
-        <v>99.179366940211</v>
+        <v>99.179366940210997</v>
       </c>
       <c r="AC90" s="1">
-        <v>472502.634644184</v>
+        <v>472502.63464418403</v>
       </c>
       <c r="AD90" s="1">
         <v>3909.59626774148</v>
       </c>
       <c r="AE90" s="1">
-        <v>476412.230911926</v>
+        <v>476412.23091192602</v>
       </c>
       <c r="AF90" s="1">
-        <v>62563.512948779</v>
+        <v>62563.512948778996</v>
       </c>
       <c r="AG90" s="1">
-        <v>853.0</v>
+        <v>853</v>
       </c>
       <c r="AH90" s="1">
-        <v>4.57209847596717</v>
+        <v>4.5720984759671701</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>34</v>
@@ -9763,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>34</v>
@@ -9788,72 +9818,72 @@
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O91" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q91" s="2">
+      <c r="Q91" s="3">
         <v>39542.58452546296</v>
       </c>
-      <c r="R91" s="2">
-        <v>39542.60905092592</v>
+      <c r="R91" s="3">
+        <v>39542.609050925923</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T91" s="1">
-        <v>10.8669229424518</v>
+        <v>10.866922942451801</v>
       </c>
       <c r="U91" s="1">
-        <v>78.2038730288285</v>
+        <v>78.203873028828497</v>
       </c>
       <c r="V91" s="1">
-        <v>42.1578947368421</v>
+        <v>42.157894736842103</v>
       </c>
       <c r="W91" s="1">
-        <v>338.180778032037</v>
+        <v>338.18077803203698</v>
       </c>
       <c r="X91" s="1">
-        <v>1.21356476841872</v>
+        <v>1.2135647684187201</v>
       </c>
       <c r="Y91" s="1">
-        <v>874.0</v>
+        <v>874</v>
       </c>
       <c r="Z91" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="AA91" s="1">
-        <v>1014.0</v>
+        <v>1014</v>
       </c>
       <c r="AB91" s="1">
-        <v>99.6579247434436</v>
+        <v>99.657924743443601</v>
       </c>
       <c r="AC91" s="1">
         <v>488141.01971515</v>
       </c>
       <c r="AD91" s="1">
-        <v>1675.54125760349</v>
+        <v>1675.5412576034901</v>
       </c>
       <c r="AE91" s="1">
-        <v>489816.560972754</v>
+        <v>489816.56097275403</v>
       </c>
       <c r="AF91" s="1">
         <v>40844.1225606187</v>
       </c>
       <c r="AG91" s="1">
-        <v>877.0</v>
+        <v>877</v>
       </c>
       <c r="AH91" s="1">
-        <v>5.01710376282782</v>
+        <v>5.0171037628278201</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>34</v>
@@ -9865,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>34</v>
@@ -9890,19 +9920,19 @@
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O92" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q92" s="2">
+      <c r="Q92" s="3">
         <v>39542.58452546296</v>
       </c>
-      <c r="R92" s="2">
-        <v>39542.60600694444</v>
+      <c r="R92" s="3">
+        <v>39542.606006944443</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>41</v>
@@ -9911,51 +9941,51 @@
         <v>10.9043549284001</v>
       </c>
       <c r="U92" s="1">
-        <v>79.1112703171702</v>
+        <v>79.111270317170195</v>
       </c>
       <c r="V92" s="1">
-        <v>42.3123711340206</v>
+        <v>42.312371134020601</v>
       </c>
       <c r="W92" s="1">
-        <v>341.239175257732</v>
+        <v>341.23917525773197</v>
       </c>
       <c r="X92" s="1">
         <v>1.21254772478372</v>
       </c>
       <c r="Y92" s="1">
-        <v>970.0</v>
+        <v>970</v>
       </c>
       <c r="Z92" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA92" s="1">
-        <v>1101.0</v>
+        <v>1101</v>
       </c>
       <c r="AB92" s="1">
-        <v>99.4871794871795</v>
+        <v>99.487179487179503</v>
       </c>
       <c r="AC92" s="1">
-        <v>541758.339958462</v>
+        <v>541758.33995846205</v>
       </c>
       <c r="AD92" s="1">
-        <v>2792.56876267248</v>
+        <v>2792.5687626724798</v>
       </c>
       <c r="AE92" s="1">
-        <v>544550.908721134</v>
+        <v>544550.90872113395</v>
       </c>
       <c r="AF92" s="1">
-        <v>68476.6104602814</v>
+        <v>68476.610460281401</v>
       </c>
       <c r="AG92" s="1">
-        <v>975.0</v>
+        <v>975</v>
       </c>
       <c r="AH92" s="1">
-        <v>6.66666666666667</v>
+        <v>6.6666666666666696</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>34</v>
@@ -9967,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>34</v>
@@ -9992,46 +10022,46 @@
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O93" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="Q93" s="3">
         <v>39542.58452546296</v>
       </c>
-      <c r="R93" s="2">
+      <c r="R93" s="3">
         <v>39542.60297453704</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T93" s="1">
-        <v>10.9953016089595</v>
+        <v>10.995301608959499</v>
       </c>
       <c r="U93" s="1">
-        <v>80.3188692168821</v>
+        <v>80.318869216882106</v>
       </c>
       <c r="V93" s="1">
         <v>42.6673640167364</v>
       </c>
       <c r="W93" s="1">
-        <v>347.190376569038</v>
+        <v>347.19037656903799</v>
       </c>
       <c r="X93" s="1">
         <v>1.21781342514297</v>
       </c>
       <c r="Y93" s="1">
-        <v>956.0</v>
+        <v>956</v>
       </c>
       <c r="Z93" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AA93" s="1">
-        <v>1114.0</v>
+        <v>1114</v>
       </c>
       <c r="AB93" s="1">
         <v>98.9648033126294</v>
@@ -10040,24 +10070,24 @@
         <v>533939.147422979</v>
       </c>
       <c r="AD93" s="1">
-        <v>5585.13752534497</v>
+        <v>5585.1375253449696</v>
       </c>
       <c r="AE93" s="1">
-        <v>539524.284948324</v>
+        <v>539524.28494832397</v>
       </c>
       <c r="AF93" s="1">
-        <v>58273.0884862817</v>
+        <v>58273.088486281697</v>
       </c>
       <c r="AG93" s="1">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="AH93" s="1">
-        <v>5.175983436853</v>
+        <v>5.1759834368530004</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>34</v>
@@ -10069,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>34</v>
@@ -10094,18 +10124,18 @@
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O94" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="Q94" s="3">
         <v>39542.58452546296</v>
       </c>
-      <c r="R94" s="2">
+      <c r="R94" s="3">
         <v>39542.599965277775</v>
       </c>
       <c r="S94" s="1" t="s">
@@ -10115,51 +10145,51 @@
         <v>10.883564690001</v>
       </c>
       <c r="U94" s="1">
-        <v>78.157039464451</v>
+        <v>78.157039464451003</v>
       </c>
       <c r="V94" s="1">
-        <v>42.2238046795524</v>
+        <v>42.223804679552401</v>
       </c>
       <c r="W94" s="1">
-        <v>340.237029501526</v>
+        <v>340.23702950152602</v>
       </c>
       <c r="X94" s="1">
-        <v>1.22002028127219</v>
+        <v>1.2200202812721901</v>
       </c>
       <c r="Y94" s="1">
-        <v>983.0</v>
+        <v>983</v>
       </c>
       <c r="Z94" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AA94" s="1">
-        <v>1149.0</v>
+        <v>1149</v>
       </c>
       <c r="AB94" s="1">
-        <v>99.2929292929293</v>
+        <v>99.292929292929301</v>
       </c>
       <c r="AC94" s="1">
-        <v>549019.01874141</v>
+        <v>549019.01874140999</v>
       </c>
       <c r="AD94" s="1">
         <v>3909.59626774148</v>
       </c>
       <c r="AE94" s="1">
-        <v>552928.615009152</v>
+        <v>552928.61500915198</v>
       </c>
       <c r="AF94" s="1">
-        <v>84196.7586376624</v>
+        <v>84196.758637662395</v>
       </c>
       <c r="AG94" s="1">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="AH94" s="1">
-        <v>4.84848484848485</v>
+        <v>4.8484848484848504</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>34</v>
@@ -10171,7 +10201,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>34</v>
@@ -10196,72 +10226,72 @@
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O95" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q95" s="2">
+      <c r="Q95" s="3">
         <v>39542.58452546296</v>
       </c>
-      <c r="R95" s="2">
-        <v>39542.59693287037</v>
+      <c r="R95" s="3">
+        <v>39542.596932870372</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T95" s="1">
-        <v>10.7511796182032</v>
+        <v>10.751179618203199</v>
       </c>
       <c r="U95" s="1">
-        <v>75.9222690029309</v>
+        <v>75.922269002930904</v>
       </c>
       <c r="V95" s="1">
-        <v>41.7104972375691</v>
+        <v>41.710497237569101</v>
       </c>
       <c r="W95" s="1">
-        <v>332.301657458564</v>
+        <v>332.30165745856402</v>
       </c>
       <c r="X95" s="1">
         <v>1.22008522594733</v>
       </c>
       <c r="Y95" s="1">
-        <v>905.0</v>
+        <v>905</v>
       </c>
       <c r="Z95" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="AA95" s="1">
-        <v>1089.0</v>
+        <v>1089</v>
       </c>
       <c r="AB95" s="1">
-        <v>99.7794928335171</v>
+        <v>99.779492833517097</v>
       </c>
       <c r="AC95" s="1">
-        <v>505454.946043719</v>
+        <v>505454.94604371901</v>
       </c>
       <c r="AD95" s="1">
         <v>1117.02750506899</v>
       </c>
       <c r="AE95" s="1">
-        <v>506571.973548789</v>
+        <v>506571.97354878898</v>
       </c>
       <c r="AF95" s="1">
-        <v>54155.6776881528</v>
+        <v>54155.677688152799</v>
       </c>
       <c r="AG95" s="1">
-        <v>907.0</v>
+        <v>907</v>
       </c>
       <c r="AH95" s="1">
-        <v>4.85115766262404</v>
+        <v>4.8511576626240398</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>34</v>
@@ -10273,7 +10303,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>34</v>
@@ -10298,72 +10328,72 @@
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O96" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q96" s="2">
-        <v>39542.58451388889</v>
-      </c>
-      <c r="R96" s="2">
-        <v>39542.59394675926</v>
+      <c r="Q96" s="3">
+        <v>39542.584513888891</v>
+      </c>
+      <c r="R96" s="3">
+        <v>39542.593946759262</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T96" s="1">
-        <v>10.766787028675</v>
+        <v>10.766787028674999</v>
       </c>
       <c r="U96" s="1">
-        <v>75.8302274851755</v>
+        <v>75.830227485175499</v>
       </c>
       <c r="V96" s="1">
-        <v>41.7821681864235</v>
+        <v>41.782168186423498</v>
       </c>
       <c r="W96" s="1">
-        <v>333.620060790274</v>
+        <v>333.62006079027401</v>
       </c>
       <c r="X96" s="1">
         <v>1.22806202068632</v>
       </c>
       <c r="Y96" s="1">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="Z96" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AA96" s="1">
-        <v>1156.0</v>
+        <v>1156</v>
       </c>
       <c r="AB96" s="1">
-        <v>99.4959677419355</v>
+        <v>99.495967741935502</v>
       </c>
       <c r="AC96" s="1">
-        <v>551253.073751548</v>
+        <v>551253.07375154796</v>
       </c>
       <c r="AD96" s="1">
-        <v>2792.56876267248</v>
+        <v>2792.5687626724798</v>
       </c>
       <c r="AE96" s="1">
-        <v>554045.642514221</v>
+        <v>554045.64251422102</v>
       </c>
       <c r="AF96" s="1">
-        <v>62533.5901828033</v>
+        <v>62533.590182803302</v>
       </c>
       <c r="AG96" s="1">
-        <v>992.0</v>
+        <v>992</v>
       </c>
       <c r="AH96" s="1">
-        <v>6.95564516129032</v>
+        <v>6.9556451612903203</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>34</v>
@@ -10375,7 +10405,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>34</v>
@@ -10400,72 +10430,72 @@
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O97" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q97" s="2">
+      <c r="Q97" s="3">
         <v>39542.584328703706</v>
       </c>
-      <c r="R97" s="2">
-        <v>39542.59092592593</v>
+      <c r="R97" s="3">
+        <v>39542.590925925928</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T97" s="1">
-        <v>10.9549922437648</v>
+        <v>10.954992243764799</v>
       </c>
       <c r="U97" s="1">
-        <v>78.8583310091655</v>
+        <v>78.858331009165497</v>
       </c>
       <c r="V97" s="1">
-        <v>42.5020703933747</v>
+        <v>42.502070393374701</v>
       </c>
       <c r="W97" s="1">
         <v>343.455486542443</v>
       </c>
       <c r="X97" s="1">
-        <v>1.22512144975551</v>
+        <v>1.2251214497555101</v>
       </c>
       <c r="Y97" s="1">
-        <v>966.0</v>
+        <v>966</v>
       </c>
       <c r="Z97" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="AA97" s="1">
-        <v>1215.0</v>
+        <v>1215</v>
       </c>
       <c r="AB97" s="1">
-        <v>99.1786447638604</v>
+        <v>99.178644763860405</v>
       </c>
       <c r="AC97" s="1">
-        <v>539524.284948324</v>
+        <v>539524.28494832397</v>
       </c>
       <c r="AD97" s="1">
-        <v>4468.11002027597</v>
+        <v>4468.1100202759699</v>
       </c>
       <c r="AE97" s="1">
-        <v>543992.3949686</v>
+        <v>543992.39496860001</v>
       </c>
       <c r="AF97" s="1">
-        <v>46373.4611124026</v>
+        <v>46373.461112402598</v>
       </c>
       <c r="AG97" s="1">
-        <v>974.0</v>
+        <v>974</v>
       </c>
       <c r="AH97" s="1">
-        <v>6.6735112936345</v>
+        <v>6.6735112936345002</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>34</v>
@@ -10477,7 +10507,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>3700901.0</v>
+        <v>3700901</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>34</v>
@@ -10502,18 +10532,18 @@
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="O98" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="P98" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q98" s="2">
-        <v>39542.49155092592</v>
-      </c>
-      <c r="R98" s="2">
+      <c r="Q98" s="3">
+        <v>39542.491550925923</v>
+      </c>
+      <c r="R98" s="3">
         <v>39542.49486111111</v>
       </c>
       <c r="S98" s="1" t="s">
@@ -10523,28 +10553,28 @@
         <v>12.5180016241404</v>
       </c>
       <c r="U98" s="1">
-        <v>99.7548874170696</v>
+        <v>99.754887417069597</v>
       </c>
       <c r="V98" s="1">
         <v>48.6563661255623</v>
       </c>
       <c r="W98" s="1">
-        <v>418.696655583806</v>
+        <v>418.69665558380598</v>
       </c>
       <c r="X98" s="1">
-        <v>1.23326534715857</v>
+        <v>1.2332653471585699</v>
       </c>
       <c r="Y98" s="1">
-        <v>5113.0</v>
+        <v>5113</v>
       </c>
       <c r="Z98" s="1">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="AA98" s="1">
-        <v>5819.0</v>
+        <v>5819</v>
       </c>
       <c r="AB98" s="1">
-        <v>95.3917910447761</v>
+        <v>95.391791044776099</v>
       </c>
       <c r="AC98" s="1">
         <v>2855680.81670888</v>
@@ -10553,19 +10583,19 @@
         <v>137952.896876021</v>
       </c>
       <c r="AE98" s="1">
-        <v>2993633.7135849</v>
+        <v>2993633.7135848999</v>
       </c>
       <c r="AF98" s="1">
-        <v>150854.554220549</v>
+        <v>150854.55422054901</v>
       </c>
       <c r="AG98" s="1">
-        <v>5360.0</v>
+        <v>5360</v>
       </c>
       <c r="AH98" s="1">
-        <v>8.48880597014925</v>
+        <v>8.4888059701492509</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/parsers/roche_cedex_hires/testdata/roche_cedex_hires_example_4.xlsx
+++ b/tests/parsers/roche_cedex_hires/testdata/roche_cedex_hires_example_4.xlsx
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\pchakravarthi\Desktop\Connecter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D73635E-AA7D-4BDA-90D5-79F11B006A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet2" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
@@ -337,19 +328,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss am/pm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -360,51 +350,39 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -594,28 +572,20 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N67" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="12.5703125" style="2"/>
-  </cols>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,9 +689,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>34</v>
@@ -733,7 +703,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>34</v>
@@ -758,72 +728,72 @@
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O2" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="2">
         <v>44245.592141203706</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="2">
         <v>44245.59269675926</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T2" s="1">
-        <v>12.176286697387701</v>
+        <v>12.1762866973877</v>
       </c>
       <c r="U2" s="1">
-        <v>84.922286987304702</v>
+        <v>84.9222869873047</v>
       </c>
       <c r="V2" s="1">
-        <v>47.332855224609403</v>
+        <v>47.3328552246094</v>
       </c>
       <c r="W2" s="1">
-        <v>403.37588500976602</v>
+        <v>403.375885009766</v>
       </c>
       <c r="X2" s="1">
         <v>1.39031970500946</v>
       </c>
       <c r="Y2" s="1">
-        <v>2788</v>
+        <v>2788.0</v>
       </c>
       <c r="Z2" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AA2" s="1">
-        <v>2800</v>
+        <v>2800.0</v>
       </c>
       <c r="AB2" s="1">
-        <v>99.571428571428598</v>
+        <v>99.5714285714286</v>
       </c>
       <c r="AC2" s="1">
-        <v>2460991.3452195302</v>
+        <v>2460991.34521953</v>
       </c>
       <c r="AD2" s="1">
         <v>10592.5022032405</v>
       </c>
       <c r="AE2" s="1">
-        <v>2471583.8474227702</v>
+        <v>2471583.84742277</v>
       </c>
       <c r="AF2" s="1">
-        <v>98167.347231104606</v>
+        <v>98167.3472311046</v>
       </c>
       <c r="AG2" s="1">
-        <v>2800</v>
+        <v>2800.0</v>
       </c>
       <c r="AH2" s="1">
-        <v>6.0714285714285703</v>
+        <v>6.07142857142857</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>34</v>
@@ -835,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>34</v>
@@ -859,49 +829,49 @@
         <v>39</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O3" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>43306.540868055556</v>
       </c>
-      <c r="R3" s="3">
-        <v>43306.546817129631</v>
+      <c r="R3" s="2">
+        <v>43306.54681712963</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T3" s="1">
-        <v>13.712583541870099</v>
+        <v>13.7125835418701</v>
       </c>
       <c r="U3" s="1">
         <v>123.338729858398</v>
       </c>
       <c r="V3" s="1">
-        <v>53.382610321044901</v>
+        <v>53.3826103210449</v>
       </c>
       <c r="W3" s="1">
-        <v>488.04348754882801</v>
+        <v>488.043487548828</v>
       </c>
       <c r="X3" s="1">
         <v>1.18898618221283</v>
       </c>
       <c r="Y3" s="1">
-        <v>115</v>
+        <v>115.0</v>
       </c>
       <c r="Z3" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA3" s="1">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="AB3" s="1">
-        <v>86.466163635253906</v>
+        <v>86.4661636352539</v>
       </c>
       <c r="AC3" s="1">
         <v>6031177.5</v>
@@ -910,21 +880,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE3" s="1">
-        <v>6975188</v>
+        <v>6975188.0</v>
       </c>
       <c r="AF3" s="1">
         <v>815853.0625</v>
       </c>
       <c r="AG3" s="1">
-        <v>133</v>
+        <v>133.0</v>
       </c>
       <c r="AH3" s="1">
         <v>13.5338344573975</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>34</v>
@@ -936,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>34</v>
@@ -963,15 +933,15 @@
         <v>0.25</v>
       </c>
       <c r="O4" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>43158.364386574074</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>43158.365439814814</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -987,45 +957,45 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W4" s="1">
-        <v>490.61614990234398</v>
+        <v>490.616149902344</v>
       </c>
       <c r="X4" s="1">
-        <v>1.1948670148849501</v>
+        <v>1.19486701488495</v>
       </c>
       <c r="Y4" s="1">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="Z4" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA4" s="1">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="AB4" s="1">
-        <v>84.615386962890597</v>
+        <v>84.6153869628906</v>
       </c>
       <c r="AC4" s="1">
-        <v>20768230</v>
+        <v>2.076823E7</v>
       </c>
       <c r="AD4" s="1">
         <v>3776041.75</v>
       </c>
       <c r="AE4" s="1">
-        <v>24544270</v>
+        <v>2.454427E7</v>
       </c>
       <c r="AF4" s="1">
         <v>890021.5625</v>
       </c>
       <c r="AG4" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AH4" s="1">
-        <v>15.384614944458001</v>
+        <v>15.384614944458</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -1037,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>34</v>
@@ -1061,31 +1031,31 @@
         <v>39</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O5" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="3">
-        <v>43158.560624999998</v>
-      </c>
-      <c r="R5" s="3">
-        <v>43250.544560185182</v>
+      <c r="Q5" s="2">
+        <v>43158.560625</v>
+      </c>
+      <c r="R5" s="2">
+        <v>43250.54456018518</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T5" s="1">
-        <v>13.731376647949199</v>
+        <v>13.7313766479492</v>
       </c>
       <c r="U5" s="1">
-        <v>123.47788238525401</v>
+        <v>123.477882385254</v>
       </c>
       <c r="V5" s="1">
-        <v>53.467288970947301</v>
+        <v>53.4672889709473</v>
       </c>
       <c r="W5" s="1">
         <v>489.233642578125</v>
@@ -1094,16 +1064,16 @@
         <v>1.19170677661896</v>
       </c>
       <c r="Y5" s="1">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="Z5" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA5" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AB5" s="1">
-        <v>85.599998474121094</v>
+        <v>85.5999984741211</v>
       </c>
       <c r="AC5" s="1">
         <v>5611617.5</v>
@@ -1112,21 +1082,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE5" s="1">
-        <v>6555628</v>
+        <v>6555628.0</v>
       </c>
       <c r="AF5" s="1">
         <v>730474.625</v>
       </c>
       <c r="AG5" s="1">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="AH5" s="1">
         <v>14.3999996185303</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>34</v>
@@ -1138,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>34</v>
@@ -1162,52 +1132,52 @@
         <v>39</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O6" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>43250.363854166666</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>43250.36650462963</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T6" s="1">
-        <v>14.011823654174799</v>
+        <v>14.0118236541748</v>
       </c>
       <c r="U6" s="1">
         <v>126.82878112793</v>
       </c>
       <c r="V6" s="1">
-        <v>54.548385620117202</v>
+        <v>54.5483856201172</v>
       </c>
       <c r="W6" s="1">
-        <v>506.67742919921898</v>
+        <v>506.677429199219</v>
       </c>
       <c r="X6" s="1">
-        <v>1.2117559909820601</v>
+        <v>1.21175599098206</v>
       </c>
       <c r="Y6" s="1">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="Z6" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AA6" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="AB6" s="1">
-        <v>83.783782958984403</v>
+        <v>83.7837829589844</v>
       </c>
       <c r="AC6" s="1">
-        <v>4877387</v>
+        <v>4877387.0</v>
       </c>
       <c r="AD6" s="1">
         <v>944010.4375</v>
@@ -1216,18 +1186,18 @@
         <v>5821397.5</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.9444440305233002E-2</v>
+        <v>0.069444440305233</v>
       </c>
       <c r="AG6" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AH6" s="1">
-        <v>5.4054055213928196</v>
+        <v>5.40540552139282</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>34</v>
@@ -1239,7 +1209,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>34</v>
@@ -1263,19 +1233,19 @@
         <v>39</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O7" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="3">
-        <v>43243.542581018519</v>
-      </c>
-      <c r="R7" s="3">
-        <v>43243.544548611113</v>
+      <c r="Q7" s="2">
+        <v>43243.54258101852</v>
+      </c>
+      <c r="R7" s="2">
+        <v>43243.54454861111</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>41</v>
@@ -1287,25 +1257,25 @@
         <v>122.185585021973</v>
       </c>
       <c r="V7" s="1">
-        <v>53.117645263671903</v>
+        <v>53.1176452636719</v>
       </c>
       <c r="W7" s="1">
-        <v>483.29412841796898</v>
+        <v>483.294128417969</v>
       </c>
       <c r="X7" s="1">
         <v>1.18716764450073</v>
       </c>
       <c r="Y7" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="Z7" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AA7" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AB7" s="1">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="AC7" s="1">
         <v>5349392.5</v>
@@ -1314,21 +1284,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE7" s="1">
-        <v>6293403</v>
+        <v>6293403.0</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.22222222387790699</v>
+        <v>0.222222223877907</v>
       </c>
       <c r="AG7" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AH7" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>34</v>
@@ -1340,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>34</v>
@@ -1364,19 +1334,19 @@
         <v>39</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O8" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q8" s="3">
-        <v>43158.560624999998</v>
-      </c>
-      <c r="R8" s="3">
-        <v>43250.545567129629</v>
+      <c r="Q8" s="2">
+        <v>43158.560625</v>
+      </c>
+      <c r="R8" s="2">
+        <v>43250.54556712963</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>41</v>
@@ -1388,25 +1358,25 @@
         <v>122.185585021973</v>
       </c>
       <c r="V8" s="1">
-        <v>53.117645263671903</v>
+        <v>53.1176452636719</v>
       </c>
       <c r="W8" s="1">
-        <v>483.29412841796898</v>
+        <v>483.294128417969</v>
       </c>
       <c r="X8" s="1">
         <v>1.18716764450073</v>
       </c>
       <c r="Y8" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="Z8" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AA8" s="1">
-        <v>37</v>
+        <v>37.0</v>
       </c>
       <c r="AB8" s="1">
-        <v>85</v>
+        <v>85.0</v>
       </c>
       <c r="AC8" s="1">
         <v>5349392.5</v>
@@ -1415,21 +1385,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE8" s="1">
-        <v>6293403</v>
+        <v>6293403.0</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.22222222387790699</v>
+        <v>0.222222223877907</v>
       </c>
       <c r="AG8" s="1">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="AH8" s="1">
-        <v>20</v>
+        <v>20.0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -1441,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>34</v>
@@ -1465,19 +1435,19 @@
         <v>39</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O9" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="3">
-        <v>43158.370625000003</v>
-      </c>
-      <c r="R9" s="3">
-        <v>43158.372372685182</v>
+      <c r="Q9" s="2">
+        <v>43158.370625</v>
+      </c>
+      <c r="R9" s="2">
+        <v>43158.37237268518</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>41</v>
@@ -1489,25 +1459,25 @@
         <v>122.08959197998</v>
       </c>
       <c r="V9" s="1">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="W9" s="1">
-        <v>481.77966308593801</v>
+        <v>481.779663085938</v>
       </c>
       <c r="X9" s="1">
-        <v>1.1824803352355999</v>
+        <v>1.1824803352356</v>
       </c>
       <c r="Y9" s="1">
-        <v>118</v>
+        <v>118.0</v>
       </c>
       <c r="Z9" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA9" s="1">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="AB9" s="1">
-        <v>86.764709472656307</v>
+        <v>86.7647094726563</v>
       </c>
       <c r="AC9" s="1">
         <v>6188512.5</v>
@@ -1516,21 +1486,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE9" s="1">
-        <v>7132523</v>
+        <v>7132523.0</v>
       </c>
       <c r="AF9" s="1">
         <v>593347.6875</v>
       </c>
       <c r="AG9" s="1">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="AH9" s="1">
-        <v>17.647058486938501</v>
+        <v>17.6470584869385</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -1542,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>34</v>
@@ -1566,18 +1536,18 @@
         <v>39</v>
       </c>
       <c r="N10" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O10" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>43158.364386574074</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="2">
         <v>43158.365439814814</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -1593,22 +1563,22 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W10" s="1">
-        <v>490.61614990234398</v>
+        <v>490.616149902344</v>
       </c>
       <c r="X10" s="1">
-        <v>1.1948670148849501</v>
+        <v>1.19486701488495</v>
       </c>
       <c r="Y10" s="1">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="Z10" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA10" s="1">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="AB10" s="1">
-        <v>84.615386962890597</v>
+        <v>84.6153869628906</v>
       </c>
       <c r="AC10" s="1">
         <v>5192057.5</v>
@@ -1623,15 +1593,15 @@
         <v>222505.390625</v>
       </c>
       <c r="AG10" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AH10" s="1">
-        <v>15.384614944458001</v>
+        <v>15.384614944458</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>34</v>
@@ -1643,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>34</v>
@@ -1667,31 +1637,31 @@
         <v>39</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O11" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="3">
-        <v>43158.354548611111</v>
-      </c>
-      <c r="R11" s="3">
-        <v>43158.356319444443</v>
+      <c r="Q11" s="2">
+        <v>43158.35454861111</v>
+      </c>
+      <c r="R11" s="2">
+        <v>43158.35631944444</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T11" s="1">
-        <v>13.731376647949199</v>
+        <v>13.7313766479492</v>
       </c>
       <c r="U11" s="1">
-        <v>123.47788238525401</v>
+        <v>123.477882385254</v>
       </c>
       <c r="V11" s="1">
-        <v>53.467288970947301</v>
+        <v>53.4672889709473</v>
       </c>
       <c r="W11" s="1">
         <v>489.233642578125</v>
@@ -1700,16 +1670,16 @@
         <v>1.19170677661896</v>
       </c>
       <c r="Y11" s="1">
-        <v>107</v>
+        <v>107.0</v>
       </c>
       <c r="Z11" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA11" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AB11" s="1">
-        <v>85.599998474121094</v>
+        <v>85.5999984741211</v>
       </c>
       <c r="AC11" s="1">
         <v>5611617.5</v>
@@ -1718,21 +1688,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE11" s="1">
-        <v>6555628</v>
+        <v>6555628.0</v>
       </c>
       <c r="AF11" s="1">
         <v>730474.625</v>
       </c>
       <c r="AG11" s="1">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="AH11" s="1">
         <v>14.3999996185303</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -1744,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>34</v>
@@ -1768,19 +1738,19 @@
         <v>39</v>
       </c>
       <c r="N12" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O12" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="3">
-        <v>43158.335636574076</v>
-      </c>
-      <c r="R12" s="3">
-        <v>43158.341539351852</v>
+      <c r="Q12" s="2">
+        <v>43158.33563657408</v>
+      </c>
+      <c r="R12" s="2">
+        <v>43158.34153935185</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>41</v>
@@ -1795,22 +1765,22 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W12" s="1">
-        <v>490.61614990234398</v>
+        <v>490.616149902344</v>
       </c>
       <c r="X12" s="1">
-        <v>1.1948670148849501</v>
+        <v>1.19486701488495</v>
       </c>
       <c r="Y12" s="1">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="Z12" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA12" s="1">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="AB12" s="1">
-        <v>84.615386962890597</v>
+        <v>84.6153869628906</v>
       </c>
       <c r="AC12" s="1">
         <v>5192057.5</v>
@@ -1825,15 +1795,15 @@
         <v>222505.390625</v>
       </c>
       <c r="AG12" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AH12" s="1">
-        <v>15.384614944458001</v>
+        <v>15.384614944458</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
@@ -1845,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>34</v>
@@ -1869,31 +1839,31 @@
         <v>55</v>
       </c>
       <c r="N13" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O13" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="3">
-        <v>43147.511805555558</v>
-      </c>
-      <c r="R13" s="3">
-        <v>43147.513009259259</v>
+      <c r="Q13" s="2">
+        <v>43147.51180555556</v>
+      </c>
+      <c r="R13" s="2">
+        <v>43147.51300925926</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T13" s="1">
-        <v>13.731376647949199</v>
+        <v>13.7313766479492</v>
       </c>
       <c r="U13" s="1">
-        <v>123.47788238525401</v>
+        <v>123.477882385254</v>
       </c>
       <c r="V13" s="1">
-        <v>53.467288970947301</v>
+        <v>53.4672889709473</v>
       </c>
       <c r="W13" s="1">
         <v>489.233642578125</v>
@@ -1902,16 +1872,16 @@
         <v>1.19170677661896</v>
       </c>
       <c r="Y13" s="1">
-        <v>214</v>
+        <v>214.0</v>
       </c>
       <c r="Z13" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AA13" s="1">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="AB13" s="1">
-        <v>85.599998474121094</v>
+        <v>85.5999984741211</v>
       </c>
       <c r="AC13" s="1">
         <v>5611617.5</v>
@@ -1920,21 +1890,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE13" s="1">
-        <v>6555628</v>
+        <v>6555628.0</v>
       </c>
       <c r="AF13" s="1">
         <v>730474.625</v>
       </c>
       <c r="AG13" s="1">
-        <v>250</v>
+        <v>250.0</v>
       </c>
       <c r="AH13" s="1">
         <v>14.3999996185303</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -1946,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>34</v>
@@ -1970,19 +1940,19 @@
         <v>55</v>
       </c>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O14" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>43147.50984953704</v>
       </c>
-      <c r="R14" s="3">
-        <v>43147.511192129627</v>
+      <c r="R14" s="2">
+        <v>43147.51119212963</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>41</v>
@@ -1991,31 +1961,31 @@
         <v>13.6614942550659</v>
       </c>
       <c r="U14" s="1">
-        <v>122.70611572265599</v>
+        <v>122.706115722656</v>
       </c>
       <c r="V14" s="1">
         <v>53.1888427734375</v>
       </c>
       <c r="W14" s="1">
-        <v>484.87124633789102</v>
+        <v>484.871246337891</v>
       </c>
       <c r="X14" s="1">
         <v>1.18569135665894</v>
       </c>
       <c r="Y14" s="1">
-        <v>233</v>
+        <v>233.0</v>
       </c>
       <c r="Z14" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AA14" s="1">
-        <v>252</v>
+        <v>252.0</v>
       </c>
       <c r="AB14" s="1">
-        <v>86.617103576660199</v>
+        <v>86.6171035766602</v>
       </c>
       <c r="AC14" s="1">
-        <v>6109845</v>
+        <v>6109845.0</v>
       </c>
       <c r="AD14" s="1">
         <v>944010.4375</v>
@@ -2027,15 +1997,15 @@
         <v>717654.125</v>
       </c>
       <c r="AG14" s="1">
-        <v>269</v>
+        <v>269.0</v>
       </c>
       <c r="AH14" s="1">
         <v>15.6133832931519</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>34</v>
@@ -2047,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>34</v>
@@ -2071,19 +2041,19 @@
         <v>55</v>
       </c>
       <c r="N15" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O15" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q15" s="3">
-        <v>43147.492673611108</v>
-      </c>
-      <c r="R15" s="3">
-        <v>43147.499895833331</v>
+      <c r="Q15" s="2">
+        <v>43147.49267361111</v>
+      </c>
+      <c r="R15" s="2">
+        <v>43147.49989583333</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>41</v>
@@ -2092,51 +2062,51 @@
         <v>13.6933794021606</v>
       </c>
       <c r="U15" s="1">
-        <v>122.90170288085901</v>
+        <v>122.901702880859</v>
       </c>
       <c r="V15" s="1">
-        <v>53.338310241699197</v>
+        <v>53.3383102416992</v>
       </c>
       <c r="W15" s="1">
-        <v>486.90051269531301</v>
+        <v>486.900512695313</v>
       </c>
       <c r="X15" s="1">
-        <v>1.1909599304199201</v>
+        <v>1.19095993041992</v>
       </c>
       <c r="Y15" s="1">
-        <v>201</v>
+        <v>201.0</v>
       </c>
       <c r="Z15" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AA15" s="1">
-        <v>220</v>
+        <v>220.0</v>
       </c>
       <c r="AB15" s="1">
-        <v>84.810127258300795</v>
+        <v>84.8101272583008</v>
       </c>
       <c r="AC15" s="1">
-        <v>5270725</v>
+        <v>5270725.0</v>
       </c>
       <c r="AD15" s="1">
         <v>944010.4375</v>
       </c>
       <c r="AE15" s="1">
-        <v>6214735</v>
+        <v>6214735.0</v>
       </c>
       <c r="AF15" s="1">
         <v>175905.953125</v>
       </c>
       <c r="AG15" s="1">
-        <v>237</v>
+        <v>237.0</v>
       </c>
       <c r="AH15" s="1">
-        <v>17.721519470214801</v>
+        <v>17.7215194702148</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>34</v>
@@ -2148,7 +2118,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>34</v>
@@ -2172,49 +2142,49 @@
         <v>55</v>
       </c>
       <c r="N16" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O16" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>43130.69258101852</v>
       </c>
-      <c r="R16" s="3">
-        <v>43130.694467592592</v>
+      <c r="R16" s="2">
+        <v>43130.69446759259</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T16" s="1">
-        <v>13.741868972778301</v>
+        <v>13.7418689727783</v>
       </c>
       <c r="U16" s="1">
         <v>123.555557250977</v>
       </c>
       <c r="V16" s="1">
-        <v>53.514564514160199</v>
+        <v>53.5145645141602</v>
       </c>
       <c r="W16" s="1">
-        <v>489.89807128906301</v>
+        <v>489.898071289063</v>
       </c>
       <c r="X16" s="1">
         <v>1.19322550296783</v>
       </c>
       <c r="Y16" s="1">
-        <v>206</v>
+        <v>206.0</v>
       </c>
       <c r="Z16" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AA16" s="1">
-        <v>226</v>
+        <v>226.0</v>
       </c>
       <c r="AB16" s="1">
-        <v>85.123970031738295</v>
+        <v>85.1239700317383</v>
       </c>
       <c r="AC16" s="1">
         <v>5401837.5</v>
@@ -2223,21 +2193,21 @@
         <v>944010.4375</v>
       </c>
       <c r="AE16" s="1">
-        <v>6345848</v>
+        <v>6345848.0</v>
       </c>
       <c r="AF16" s="1">
         <v>579274.1875</v>
       </c>
       <c r="AG16" s="1">
-        <v>242</v>
+        <v>242.0</v>
       </c>
       <c r="AH16" s="1">
         <v>14.8760328292847</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -2249,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>34</v>
@@ -2273,19 +2243,19 @@
         <v>55</v>
       </c>
       <c r="N17" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O17" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>43130.59884259259</v>
       </c>
-      <c r="R17" s="3">
-        <v>43130.600578703707</v>
+      <c r="R17" s="2">
+        <v>43130.60057870371</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>41</v>
@@ -2300,22 +2270,22 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W17" s="1">
-        <v>490.61614990234398</v>
+        <v>490.616149902344</v>
       </c>
       <c r="X17" s="1">
-        <v>1.1948670148849501</v>
+        <v>1.19486701488495</v>
       </c>
       <c r="Y17" s="1">
-        <v>198</v>
+        <v>198.0</v>
       </c>
       <c r="Z17" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AA17" s="1">
-        <v>218</v>
+        <v>218.0</v>
       </c>
       <c r="AB17" s="1">
-        <v>84.615386962890597</v>
+        <v>84.6153869628906</v>
       </c>
       <c r="AC17" s="1">
         <v>5192057.5</v>
@@ -2330,15 +2300,15 @@
         <v>222505.390625</v>
       </c>
       <c r="AG17" s="1">
-        <v>234</v>
+        <v>234.0</v>
       </c>
       <c r="AH17" s="1">
-        <v>15.384614944458001</v>
+        <v>15.384614944458</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>34</v>
@@ -2350,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>34</v>
@@ -2374,49 +2344,49 @@
         <v>55</v>
       </c>
       <c r="N18" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O18" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="3">
-        <v>43130.549016203702</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="Q18" s="2">
+        <v>43130.5490162037</v>
+      </c>
+      <c r="R18" s="2">
         <v>43130.555451388886</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T18" s="1">
-        <v>13.861784934997599</v>
+        <v>13.8617849349976</v>
       </c>
       <c r="U18" s="1">
         <v>125.03604888916</v>
       </c>
       <c r="V18" s="1">
-        <v>53.970001220703097</v>
+        <v>53.9700012207031</v>
       </c>
       <c r="W18" s="1">
-        <v>497.34500122070301</v>
+        <v>497.345001220703</v>
       </c>
       <c r="X18" s="1">
-        <v>1.2010296583175699</v>
+        <v>1.20102965831757</v>
       </c>
       <c r="Y18" s="1">
-        <v>200</v>
+        <v>200.0</v>
       </c>
       <c r="Z18" s="1">
-        <v>36</v>
+        <v>36.0</v>
       </c>
       <c r="AA18" s="1">
-        <v>222</v>
+        <v>222.0</v>
       </c>
       <c r="AB18" s="1">
-        <v>84.745765686035199</v>
+        <v>84.7457656860352</v>
       </c>
       <c r="AC18" s="1">
         <v>5244502.5</v>
@@ -2431,15 +2401,15 @@
         <v>633695.625</v>
       </c>
       <c r="AG18" s="1">
-        <v>236</v>
+        <v>236.0</v>
       </c>
       <c r="AH18" s="1">
-        <v>10.169491767883301</v>
+        <v>10.1694917678833</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>34</v>
@@ -2451,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>34</v>
@@ -2475,52 +2445,52 @@
         <v>39</v>
       </c>
       <c r="N19" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O19" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="3">
-        <v>43110.666631944441</v>
-      </c>
-      <c r="R19" s="3">
+      <c r="Q19" s="2">
+        <v>43110.66663194444</v>
+      </c>
+      <c r="R19" s="2">
         <v>43110.668171296296</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T19" s="1">
-        <v>13.602149009704601</v>
+        <v>13.6021490097046</v>
       </c>
       <c r="U19" s="1">
         <v>122.050735473633</v>
       </c>
       <c r="V19" s="1">
-        <v>52.952381134033203</v>
+        <v>52.9523811340332</v>
       </c>
       <c r="W19" s="1">
-        <v>481.16665649414102</v>
+        <v>481.166656494141</v>
       </c>
       <c r="X19" s="1">
-        <v>1.1805830001831099</v>
+        <v>1.18058300018311</v>
       </c>
       <c r="Y19" s="1">
-        <v>126</v>
+        <v>126.0</v>
       </c>
       <c r="Z19" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA19" s="1">
-        <v>135</v>
+        <v>135.0</v>
       </c>
       <c r="AB19" s="1">
         <v>87.5</v>
       </c>
       <c r="AC19" s="1">
-        <v>6608073</v>
+        <v>6608073.0</v>
       </c>
       <c r="AD19" s="1">
         <v>944010.4375</v>
@@ -2529,18 +2499,18 @@
         <v>7552083.5</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.16666667163372001</v>
+        <v>0.16666667163372</v>
       </c>
       <c r="AG19" s="1">
-        <v>144</v>
+        <v>144.0</v>
       </c>
       <c r="AH19" s="1">
         <v>16.6666660308838</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
@@ -2552,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>34</v>
@@ -2576,18 +2546,18 @@
         <v>39</v>
       </c>
       <c r="N20" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O20" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="2">
         <v>43110.649675925924</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="2">
         <v>43110.655185185184</v>
       </c>
       <c r="S20" s="1" t="s">
@@ -2603,22 +2573,22 @@
         <v>53.5656547546387</v>
       </c>
       <c r="W20" s="1">
-        <v>490.61614990234398</v>
+        <v>490.616149902344</v>
       </c>
       <c r="X20" s="1">
-        <v>1.1948670148849501</v>
+        <v>1.19486701488495</v>
       </c>
       <c r="Y20" s="1">
-        <v>99</v>
+        <v>99.0</v>
       </c>
       <c r="Z20" s="1">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="AA20" s="1">
-        <v>109</v>
+        <v>109.0</v>
       </c>
       <c r="AB20" s="1">
-        <v>84.615386962890597</v>
+        <v>84.6153869628906</v>
       </c>
       <c r="AC20" s="1">
         <v>5192057.5</v>
@@ -2633,15 +2603,15 @@
         <v>222505.390625</v>
       </c>
       <c r="AG20" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AH20" s="1">
-        <v>15.384614944458001</v>
+        <v>15.384614944458</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>34</v>
@@ -2653,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>34</v>
@@ -2678,19 +2648,19 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O21" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="3">
-        <v>39549.565740740742</v>
-      </c>
-      <c r="R21" s="3">
-        <v>39549.653622685182</v>
+      <c r="Q21" s="2">
+        <v>39549.56574074074</v>
+      </c>
+      <c r="R21" s="2">
+        <v>39549.65362268518</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>41</v>
@@ -2699,51 +2669,51 @@
         <v>11.5630340576172</v>
       </c>
       <c r="U21" s="1">
-        <v>80.036003112792997</v>
+        <v>80.036003112793</v>
       </c>
       <c r="V21" s="1">
-        <v>44.900894165039098</v>
+        <v>44.9008941650391</v>
       </c>
       <c r="W21" s="1">
-        <v>364.41461181640602</v>
+        <v>364.414611816406</v>
       </c>
       <c r="X21" s="1">
         <v>1.31174564361572</v>
       </c>
       <c r="Y21" s="1">
-        <v>3572</v>
+        <v>3572.0</v>
       </c>
       <c r="Z21" s="1">
-        <v>765</v>
+        <v>765.0</v>
       </c>
       <c r="AA21" s="1">
-        <v>4337</v>
+        <v>4337.0</v>
       </c>
       <c r="AB21" s="1">
-        <v>82.361079086926495</v>
+        <v>82.3610790869265</v>
       </c>
       <c r="AC21" s="1">
         <v>2194512.23645854</v>
       </c>
       <c r="AD21" s="1">
-        <v>469989.32275777898</v>
+        <v>469989.322757779</v>
       </c>
       <c r="AE21" s="1">
         <v>2664501.55921632</v>
       </c>
       <c r="AF21" s="1">
-        <v>131308.95884272401</v>
+        <v>131308.958842724</v>
       </c>
       <c r="AG21" s="1">
-        <v>4337</v>
+        <v>4337.0</v>
       </c>
       <c r="AH21" s="1">
-        <v>5.5568365229421302</v>
+        <v>5.55683652294213</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>34</v>
@@ -2755,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>34</v>
@@ -2780,19 +2750,19 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O22" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="3">
-        <v>39549.565706018519</v>
-      </c>
-      <c r="R22" s="3">
-        <v>39549.650057870371</v>
+      <c r="Q22" s="2">
+        <v>39549.56570601852</v>
+      </c>
+      <c r="R22" s="2">
+        <v>39549.65005787037</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>41</v>
@@ -2807,45 +2777,45 @@
         <v>57.3278879813302</v>
       </c>
       <c r="W22" s="1">
-        <v>575.91656942823795</v>
+        <v>575.916569428238</v>
       </c>
       <c r="X22" s="1">
-        <v>1.2714806225405499</v>
+        <v>1.27148062254055</v>
       </c>
       <c r="Y22" s="1">
-        <v>3428</v>
+        <v>3428.0</v>
       </c>
       <c r="Z22" s="1">
-        <v>94</v>
+        <v>94.0</v>
       </c>
       <c r="AA22" s="1">
-        <v>2653</v>
+        <v>2653.0</v>
       </c>
       <c r="AB22" s="1">
-        <v>97.331061896649601</v>
+        <v>97.3310618966496</v>
       </c>
       <c r="AC22" s="1">
-        <v>1914585.1436882501</v>
+        <v>1914585.14368825</v>
       </c>
       <c r="AD22" s="1">
-        <v>52500.292738242701</v>
+        <v>52500.2927382427</v>
       </c>
       <c r="AE22" s="1">
-        <v>1967085.4364265001</v>
+        <v>1967085.4364265</v>
       </c>
       <c r="AF22" s="1">
         <v>121209.065829051</v>
       </c>
       <c r="AG22" s="1">
-        <v>3522</v>
+        <v>3522.0</v>
       </c>
       <c r="AH22" s="1">
-        <v>47.245883021010798</v>
+        <v>47.2458830210108</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
@@ -2857,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>34</v>
@@ -2882,19 +2852,19 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O23" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="2">
         <v>39549.359560185185</v>
       </c>
-      <c r="R23" s="3">
-        <v>39549.362534722219</v>
+      <c r="R23" s="2">
+        <v>39549.36253472222</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>41</v>
@@ -2903,34 +2873,34 @@
         <v>11.5433403005693</v>
       </c>
       <c r="U23" s="1">
-        <v>90.909395214945206</v>
+        <v>90.9093952149452</v>
       </c>
       <c r="V23" s="1">
-        <v>44.822988505747098</v>
+        <v>44.8229885057471</v>
       </c>
       <c r="W23" s="1">
-        <v>376.57259062776302</v>
+        <v>376.572590627763</v>
       </c>
       <c r="X23" s="1">
-        <v>1.1938104017750599</v>
+        <v>1.19381040177506</v>
       </c>
       <c r="Y23" s="1">
-        <v>5655</v>
+        <v>5655.0</v>
       </c>
       <c r="Z23" s="1">
-        <v>59</v>
+        <v>59.0</v>
       </c>
       <c r="AA23" s="1">
-        <v>5509</v>
+        <v>5509.0</v>
       </c>
       <c r="AB23" s="1">
-        <v>98.967448372418602</v>
+        <v>98.9674483724186</v>
       </c>
       <c r="AC23" s="1">
-        <v>5790391.3294013999</v>
+        <v>5790391.3294014</v>
       </c>
       <c r="AD23" s="1">
-        <v>60412.570899148101</v>
+        <v>60412.5708991481</v>
       </c>
       <c r="AE23" s="1">
         <v>5850803.90030054</v>
@@ -2939,15 +2909,15 @@
         <v>186166.037976828</v>
       </c>
       <c r="AG23" s="1">
-        <v>5714</v>
+        <v>5714.0</v>
       </c>
       <c r="AH23" s="1">
-        <v>16.188309415470801</v>
+        <v>16.1883094154708</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>34</v>
@@ -2959,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>34</v>
@@ -2984,72 +2954,72 @@
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O24" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q24" s="3">
-        <v>39549.353020833332</v>
-      </c>
-      <c r="R24" s="3">
-        <v>39549.355937499997</v>
+      <c r="Q24" s="2">
+        <v>39549.35302083333</v>
+      </c>
+      <c r="R24" s="2">
+        <v>39549.3559375</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z24" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AA24" s="1">
-        <v>3495</v>
+        <v>3495.0</v>
       </c>
       <c r="AB24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC24" s="1">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD24" s="1">
-        <v>13311.244435405501</v>
+        <v>13311.2444354055</v>
       </c>
       <c r="AE24" s="1">
-        <v>13311.244435405501</v>
+        <v>13311.2444354055</v>
       </c>
       <c r="AF24" s="1">
-        <v>4221.8205242763297</v>
+        <v>4221.82052427633</v>
       </c>
       <c r="AG24" s="1">
-        <v>13</v>
+        <v>13.0</v>
       </c>
       <c r="AH24" s="1">
-        <v>30.769230769230798</v>
+        <v>30.7692307692308</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>34</v>
@@ -3061,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>34</v>
@@ -3086,19 +3056,19 @@
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O25" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="2">
         <v>39549.347025462965</v>
       </c>
-      <c r="R25" s="3">
-        <v>39549.349918981483</v>
+      <c r="R25" s="2">
+        <v>39549.34991898148</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>41</v>
@@ -3107,28 +3077,28 @@
         <v>10.8430392800945</v>
       </c>
       <c r="U25" s="1">
-        <v>78.751461630752999</v>
+        <v>78.751461630753</v>
       </c>
       <c r="V25" s="1">
         <v>42.0907534246575</v>
       </c>
       <c r="W25" s="1">
-        <v>336.87243150684901</v>
+        <v>336.872431506849</v>
       </c>
       <c r="X25" s="1">
-        <v>1.2012115737384901</v>
+        <v>1.20121157373849</v>
       </c>
       <c r="Y25" s="1">
-        <v>1168</v>
+        <v>1168.0</v>
       </c>
       <c r="Z25" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AA25" s="1">
-        <v>1209</v>
+        <v>1209.0</v>
       </c>
       <c r="AB25" s="1">
-        <v>99.829059829059801</v>
+        <v>99.8290598290598</v>
       </c>
       <c r="AC25" s="1">
         <v>1195964.1154272</v>
@@ -3140,18 +3110,18 @@
         <v>1198011.9991865</v>
       </c>
       <c r="AF25" s="1">
-        <v>62753.520938593399</v>
+        <v>62753.5209385934</v>
       </c>
       <c r="AG25" s="1">
-        <v>1170</v>
+        <v>1170.0</v>
       </c>
       <c r="AH25" s="1">
-        <v>8.2905982905982896</v>
+        <v>8.29059829059829</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>34</v>
@@ -3163,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>34</v>
@@ -3188,72 +3158,72 @@
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O26" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q26" s="3">
-        <v>39549.342222222222</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="Q26" s="2">
+        <v>39549.34222222222</v>
+      </c>
+      <c r="R26" s="2">
         <v>39549.34516203704</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T26" s="1">
-        <v>10.709265923303001</v>
+        <v>10.709265923303</v>
       </c>
       <c r="U26" s="1">
-        <v>77.532447924221202</v>
+        <v>77.5324479242212</v>
       </c>
       <c r="V26" s="1">
-        <v>41.564049586776903</v>
+        <v>41.5640495867769</v>
       </c>
       <c r="W26" s="1">
-        <v>331.53099173553699</v>
+        <v>331.530991735537</v>
       </c>
       <c r="X26" s="1">
         <v>1.19324818144386</v>
       </c>
       <c r="Y26" s="1">
-        <v>484</v>
+        <v>484.0</v>
       </c>
       <c r="Z26" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AA26" s="1">
-        <v>530</v>
+        <v>530.0</v>
       </c>
       <c r="AB26" s="1">
-        <v>99.383983572895303</v>
+        <v>99.3839835728953</v>
       </c>
       <c r="AC26" s="1">
-        <v>495587.86974894302</v>
+        <v>495587.869748943</v>
       </c>
       <c r="AD26" s="1">
-        <v>3071.8256389397302</v>
+        <v>3071.82563893973</v>
       </c>
       <c r="AE26" s="1">
         <v>498659.695387883</v>
       </c>
       <c r="AF26" s="1">
-        <v>55112.429183210603</v>
+        <v>55112.4291832106</v>
       </c>
       <c r="AG26" s="1">
-        <v>487</v>
+        <v>487.0</v>
       </c>
       <c r="AH26" s="1">
-        <v>6.7761806981519497</v>
+        <v>6.77618069815195</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>34</v>
@@ -3265,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>34</v>
@@ -3290,18 +3260,18 @@
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O27" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="3">
-        <v>39549.338518518518</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="Q27" s="2">
+        <v>39549.33851851852</v>
+      </c>
+      <c r="R27" s="2">
         <v>39549.341458333336</v>
       </c>
       <c r="S27" s="1" t="s">
@@ -3311,51 +3281,51 @@
         <v>10.905206300301</v>
       </c>
       <c r="U27" s="1">
-        <v>80.716397557234401</v>
+        <v>80.7163975572344</v>
       </c>
       <c r="V27" s="1">
-        <v>42.326254826254797</v>
+        <v>42.3262548262548</v>
       </c>
       <c r="W27" s="1">
-        <v>341.66795366795401</v>
+        <v>341.667953667954</v>
       </c>
       <c r="X27" s="1">
-        <v>1.1931450965811601</v>
+        <v>1.19314509658116</v>
       </c>
       <c r="Y27" s="1">
-        <v>518</v>
+        <v>518.0</v>
       </c>
       <c r="Z27" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AA27" s="1">
-        <v>566</v>
+        <v>566.0</v>
       </c>
       <c r="AB27" s="1">
-        <v>99.233716475095804</v>
+        <v>99.2337164750958</v>
       </c>
       <c r="AC27" s="1">
-        <v>530401.89365692704</v>
+        <v>530401.893656927</v>
       </c>
       <c r="AD27" s="1">
         <v>4095.76751858631</v>
       </c>
       <c r="AE27" s="1">
-        <v>534497.66117551306</v>
+        <v>534497.661175513</v>
       </c>
       <c r="AF27" s="1">
-        <v>76405.552318367001</v>
+        <v>76405.552318367</v>
       </c>
       <c r="AG27" s="1">
-        <v>522</v>
+        <v>522.0</v>
       </c>
       <c r="AH27" s="1">
-        <v>5.1724137931034502</v>
+        <v>5.17241379310345</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>34</v>
@@ -3367,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>34</v>
@@ -3392,52 +3362,52 @@
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O28" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="3">
-        <v>39549.334999999999</v>
-      </c>
-      <c r="R28" s="3">
-        <v>39549.337939814817</v>
+      <c r="Q28" s="2">
+        <v>39549.335</v>
+      </c>
+      <c r="R28" s="2">
+        <v>39549.33793981482</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T28" s="1">
-        <v>10.800738291385599</v>
+        <v>10.8007382913856</v>
       </c>
       <c r="U28" s="1">
-        <v>79.096339373175098</v>
+        <v>79.0963393731751</v>
       </c>
       <c r="V28" s="1">
-        <v>41.894736842105303</v>
+        <v>41.8947368421053</v>
       </c>
       <c r="W28" s="1">
-        <v>336.91288566243202</v>
+        <v>336.912885662432</v>
       </c>
       <c r="X28" s="1">
-        <v>1.1920519036792001</v>
+        <v>1.1920519036792</v>
       </c>
       <c r="Y28" s="1">
-        <v>551</v>
+        <v>551.0</v>
       </c>
       <c r="Z28" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AA28" s="1">
-        <v>600</v>
+        <v>600.0</v>
       </c>
       <c r="AB28" s="1">
-        <v>99.279279279279294</v>
+        <v>99.2792792792793</v>
       </c>
       <c r="AC28" s="1">
-        <v>564191.97568526398</v>
+        <v>564191.975685264</v>
       </c>
       <c r="AD28" s="1">
         <v>4095.76751858631</v>
@@ -3446,18 +3416,18 @@
         <v>568287.74320385</v>
       </c>
       <c r="AF28" s="1">
-        <v>77204.131307225602</v>
+        <v>77204.1313072256</v>
       </c>
       <c r="AG28" s="1">
-        <v>555</v>
+        <v>555.0</v>
       </c>
       <c r="AH28" s="1">
-        <v>7.0270270270270299</v>
+        <v>7.02702702702703</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>34</v>
@@ -3469,7 +3439,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>34</v>
@@ -3494,72 +3464,72 @@
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O29" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="2">
         <v>39549.32240740741</v>
       </c>
-      <c r="R29" s="3">
-        <v>39549.331180555557</v>
+      <c r="R29" s="2">
+        <v>39549.33118055556</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T29" s="1">
-        <v>11.588555398632799</v>
+        <v>11.5885553986328</v>
       </c>
       <c r="U29" s="1">
-        <v>85.199348418057397</v>
+        <v>85.1993484180574</v>
       </c>
       <c r="V29" s="1">
-        <v>45.004949269982703</v>
+        <v>45.0049492699827</v>
       </c>
       <c r="W29" s="1">
-        <v>365.45013610492498</v>
+        <v>365.450136104925</v>
       </c>
       <c r="X29" s="1">
         <v>1.23496213601333</v>
       </c>
       <c r="Y29" s="1">
-        <v>4041</v>
+        <v>4041.0</v>
       </c>
       <c r="Z29" s="1">
-        <v>549</v>
+        <v>549.0</v>
       </c>
       <c r="AA29" s="1">
-        <v>5156</v>
+        <v>5156.0</v>
       </c>
       <c r="AB29" s="1">
-        <v>88.039215686274503</v>
+        <v>88.0392156862745</v>
       </c>
       <c r="AC29" s="1">
-        <v>2256954.0739918998</v>
+        <v>2256954.0739919</v>
       </c>
       <c r="AD29" s="1">
-        <v>306624.05014143902</v>
+        <v>306624.050141439</v>
       </c>
       <c r="AE29" s="1">
-        <v>2563578.1241333401</v>
+        <v>2563578.12413334</v>
       </c>
       <c r="AF29" s="1">
-        <v>148238.85117863401</v>
+        <v>148238.851178634</v>
       </c>
       <c r="AG29" s="1">
-        <v>4590</v>
+        <v>4590.0</v>
       </c>
       <c r="AH29" s="1">
-        <v>4.7930283224400902</v>
+        <v>4.79302832244009</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>34</v>
@@ -3571,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>34</v>
@@ -3596,55 +3566,55 @@
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O30" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q30" s="3">
-        <v>39549.322372685187</v>
-      </c>
-      <c r="R30" s="3">
-        <v>39549.327592592592</v>
+      <c r="Q30" s="2">
+        <v>39549.32237268519</v>
+      </c>
+      <c r="R30" s="2">
+        <v>39549.32759259259</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T30" s="1">
-        <v>14.547433416407101</v>
+        <v>14.5474334164071</v>
       </c>
       <c r="U30" s="1">
-        <v>139.80769527870399</v>
+        <v>139.807695278704</v>
       </c>
       <c r="V30" s="1">
-        <v>56.624963631073598</v>
+        <v>56.6249636310736</v>
       </c>
       <c r="W30" s="1">
-        <v>561.47832411987201</v>
+        <v>561.478324119872</v>
       </c>
       <c r="X30" s="1">
-        <v>1.2485561011799899</v>
+        <v>1.24855610117999</v>
       </c>
       <c r="Y30" s="1">
-        <v>3437</v>
+        <v>3437.0</v>
       </c>
       <c r="Z30" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="AA30" s="1">
-        <v>2545</v>
+        <v>2545.0</v>
       </c>
       <c r="AB30" s="1">
-        <v>97.172745264348293</v>
+        <v>97.1727452643483</v>
       </c>
       <c r="AC30" s="1">
-        <v>1919611.7674610701</v>
+        <v>1919611.76746107</v>
       </c>
       <c r="AD30" s="1">
-        <v>55851.375253449703</v>
+        <v>55851.3752534497</v>
       </c>
       <c r="AE30" s="1">
         <v>1975463.14271451</v>
@@ -3653,15 +3623,15 @@
         <v>203110.189691715</v>
       </c>
       <c r="AG30" s="1">
-        <v>3537</v>
+        <v>3537.0</v>
       </c>
       <c r="AH30" s="1">
         <v>47.0172462538875</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>34</v>
@@ -3673,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>34</v>
@@ -3698,72 +3668,72 @@
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O31" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P31" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q31" s="3">
-        <v>39548.628368055557</v>
-      </c>
-      <c r="R31" s="3">
+      <c r="Q31" s="2">
+        <v>39548.62836805556</v>
+      </c>
+      <c r="R31" s="2">
         <v>39548.652407407404</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T31" s="1">
-        <v>11.898481594518399</v>
+        <v>11.8984815945184</v>
       </c>
       <c r="U31" s="1">
-        <v>90.845989265180506</v>
+        <v>90.8459892651805</v>
       </c>
       <c r="V31" s="1">
         <v>46.2198174706649</v>
       </c>
       <c r="W31" s="1">
-        <v>382.10482398956998</v>
+        <v>382.10482398957</v>
       </c>
       <c r="X31" s="1">
-        <v>1.2218975238754399</v>
+        <v>1.22189752387544</v>
       </c>
       <c r="Y31" s="1">
-        <v>3835</v>
+        <v>3835.0</v>
       </c>
       <c r="Z31" s="1">
-        <v>398</v>
+        <v>398.0</v>
       </c>
       <c r="AA31" s="1">
-        <v>4609</v>
+        <v>4609.0</v>
       </c>
       <c r="AB31" s="1">
-        <v>90.597684857075393</v>
+        <v>90.5976848570754</v>
       </c>
       <c r="AC31" s="1">
-        <v>2141900.2409697901</v>
+        <v>2141900.24096979</v>
       </c>
       <c r="AD31" s="1">
-        <v>222288.47350873001</v>
+        <v>222288.47350873</v>
       </c>
       <c r="AE31" s="1">
-        <v>2364188.7144785202</v>
+        <v>2364188.71447852</v>
       </c>
       <c r="AF31" s="1">
         <v>113701.109854754</v>
       </c>
       <c r="AG31" s="1">
-        <v>4233</v>
+        <v>4233.0</v>
       </c>
       <c r="AH31" s="1">
         <v>4.51216631230806</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="A32" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>34</v>
@@ -3775,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>34</v>
@@ -3800,72 +3770,72 @@
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O32" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q32" s="3">
-        <v>39548.628321759257</v>
-      </c>
-      <c r="R32" s="3">
-        <v>39548.649108796293</v>
+      <c r="Q32" s="2">
+        <v>39548.62832175926</v>
+      </c>
+      <c r="R32" s="2">
+        <v>39548.64910879629</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T32" s="1">
-        <v>14.039751336857099</v>
+        <v>14.0397513368571</v>
       </c>
       <c r="U32" s="1">
-        <v>128.87558017861099</v>
+        <v>128.875580178611</v>
       </c>
       <c r="V32" s="1">
-        <v>54.626265634306101</v>
+        <v>54.6262656343061</v>
       </c>
       <c r="W32" s="1">
-        <v>524.80613460393101</v>
+        <v>524.806134603931</v>
       </c>
       <c r="X32" s="1">
-        <v>1.2545233764122801</v>
+        <v>1.25452337641228</v>
       </c>
       <c r="Y32" s="1">
-        <v>3358</v>
+        <v>3358.0</v>
       </c>
       <c r="Z32" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AA32" s="1">
-        <v>2622</v>
+        <v>2622.0</v>
       </c>
       <c r="AB32" s="1">
-        <v>98.532863849765306</v>
+        <v>98.5328638497653</v>
       </c>
       <c r="AC32" s="1">
         <v>1875489.18101084</v>
       </c>
       <c r="AD32" s="1">
-        <v>27925.687626724801</v>
+        <v>27925.6876267248</v>
       </c>
       <c r="AE32" s="1">
-        <v>1903414.8686375599</v>
+        <v>1903414.86863756</v>
       </c>
       <c r="AF32" s="1">
-        <v>294380.72593343002</v>
+        <v>294380.72593343</v>
       </c>
       <c r="AG32" s="1">
-        <v>3408</v>
+        <v>3408.0</v>
       </c>
       <c r="AH32" s="1">
         <v>38.8204225352113</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="A33" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
@@ -3877,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>34</v>
@@ -3902,72 +3872,72 @@
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O33" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q33" s="3">
-        <v>39548.390289351853</v>
-      </c>
-      <c r="R33" s="3">
-        <v>39548.409282407411</v>
+      <c r="Q33" s="2">
+        <v>39548.39028935185</v>
+      </c>
+      <c r="R33" s="2">
+        <v>39548.40928240741</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T33" s="1">
-        <v>11.999171715448099</v>
+        <v>11.9991717154481</v>
       </c>
       <c r="U33" s="1">
-        <v>93.526536702044297</v>
+        <v>93.5265367020443</v>
       </c>
       <c r="V33" s="1">
-        <v>46.612525021446999</v>
+        <v>46.612525021447</v>
       </c>
       <c r="W33" s="1">
-        <v>387.73748927652298</v>
+        <v>387.737489276523</v>
       </c>
       <c r="X33" s="1">
         <v>1.20785972096294</v>
       </c>
       <c r="Y33" s="1">
-        <v>3497</v>
+        <v>3497.0</v>
       </c>
       <c r="Z33" s="1">
-        <v>416</v>
+        <v>416.0</v>
       </c>
       <c r="AA33" s="1">
-        <v>4204</v>
+        <v>4204.0</v>
       </c>
       <c r="AB33" s="1">
-        <v>89.368770764119603</v>
+        <v>89.3687707641196</v>
       </c>
       <c r="AC33" s="1">
-        <v>1953122.5926131399</v>
+        <v>1953122.59261314</v>
       </c>
       <c r="AD33" s="1">
-        <v>232341.72105435099</v>
+        <v>232341.721054351</v>
       </c>
       <c r="AE33" s="1">
-        <v>2185464.3136674901</v>
+        <v>2185464.31366749</v>
       </c>
       <c r="AF33" s="1">
-        <v>138200.27530169301</v>
+        <v>138200.275301693</v>
       </c>
       <c r="AG33" s="1">
-        <v>3913</v>
+        <v>3913.0</v>
       </c>
       <c r="AH33" s="1">
         <v>5.7756197291081</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="A34" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -3979,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>34</v>
@@ -4004,72 +3974,72 @@
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O34" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="2">
         <v>39548.39025462963</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="2">
         <v>39548.406018518515</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T34" s="1">
-        <v>14.124133469371699</v>
+        <v>14.1241334693717</v>
       </c>
       <c r="U34" s="1">
-        <v>129.74357731778301</v>
+        <v>129.743577317783</v>
       </c>
       <c r="V34" s="1">
-        <v>54.958936484490401</v>
+        <v>54.9589364844904</v>
       </c>
       <c r="W34" s="1">
-        <v>530.53943870014803</v>
+        <v>530.539438700148</v>
       </c>
       <c r="X34" s="1">
         <v>1.26215169729639</v>
       </c>
       <c r="Y34" s="1">
-        <v>3385</v>
+        <v>3385.0</v>
       </c>
       <c r="Z34" s="1">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="AA34" s="1">
-        <v>2681</v>
+        <v>2681.0</v>
       </c>
       <c r="AB34" s="1">
-        <v>98.201334493762701</v>
+        <v>98.2013344937627</v>
       </c>
       <c r="AC34" s="1">
-        <v>1890569.0523292699</v>
+        <v>1890569.05232927</v>
       </c>
       <c r="AD34" s="1">
-        <v>34627.852657138799</v>
+        <v>34627.8526571388</v>
       </c>
       <c r="AE34" s="1">
-        <v>1925196.9049864099</v>
+        <v>1925196.90498641</v>
       </c>
       <c r="AF34" s="1">
         <v>164544.635133459</v>
       </c>
       <c r="AG34" s="1">
-        <v>3447</v>
+        <v>3447.0</v>
       </c>
       <c r="AH34" s="1">
         <v>36.1763852625471</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="A35" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>34</v>
@@ -4081,7 +4051,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>34</v>
@@ -4106,19 +4076,19 @@
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O35" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="2">
         <v>39548.374548611115</v>
       </c>
-      <c r="R35" s="3">
-        <v>39548.377476851849</v>
+      <c r="R35" s="2">
+        <v>39548.37747685185</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>41</v>
@@ -4127,28 +4097,28 @@
         <v>10.9934371221633</v>
       </c>
       <c r="U35" s="1">
-        <v>79.952275528651398</v>
+        <v>79.9522755286514</v>
       </c>
       <c r="V35" s="1">
-        <v>42.653846153846203</v>
+        <v>42.6538461538462</v>
       </c>
       <c r="W35" s="1">
-        <v>346.71611721611703</v>
+        <v>346.716117216117</v>
       </c>
       <c r="X35" s="1">
-        <v>1.2214003555525801</v>
+        <v>1.22140035555258</v>
       </c>
       <c r="Y35" s="1">
-        <v>546</v>
+        <v>546.0</v>
       </c>
       <c r="Z35" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AA35" s="1">
-        <v>593</v>
+        <v>593.0</v>
       </c>
       <c r="AB35" s="1">
-        <v>99.635036496350395</v>
+        <v>99.6350364963504</v>
       </c>
       <c r="AC35" s="1">
         <v>559072.266287031</v>
@@ -4157,21 +4127,21 @@
         <v>2047.88375929315</v>
       </c>
       <c r="AE35" s="1">
-        <v>561120.15004632401</v>
+        <v>561120.150046324</v>
       </c>
       <c r="AF35" s="1">
-        <v>55026.754744563601</v>
+        <v>55026.7547445636</v>
       </c>
       <c r="AG35" s="1">
-        <v>548</v>
+        <v>548.0</v>
       </c>
       <c r="AH35" s="1">
-        <v>6.7518248175182496</v>
+        <v>6.75182481751825</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="A36" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -4183,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>34</v>
@@ -4208,19 +4178,19 @@
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O36" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="2">
         <v>39548.371099537035</v>
       </c>
-      <c r="R36" s="3">
-        <v>39548.374016203707</v>
+      <c r="R36" s="2">
+        <v>39548.37401620371</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>41</v>
@@ -4229,51 +4199,51 @@
         <v>10.5891574155367</v>
       </c>
       <c r="U36" s="1">
-        <v>74.286428357356399</v>
+        <v>74.2864283573564</v>
       </c>
       <c r="V36" s="1">
-        <v>41.069230769230799</v>
+        <v>41.0692307692308</v>
       </c>
       <c r="W36" s="1">
-        <v>324.58461538461501</v>
+        <v>324.584615384615</v>
       </c>
       <c r="X36" s="1">
         <v>1.21034593327769</v>
       </c>
       <c r="Y36" s="1">
-        <v>520</v>
+        <v>520.0</v>
       </c>
       <c r="Z36" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AA36" s="1">
-        <v>582</v>
+        <v>582.0</v>
       </c>
       <c r="AB36" s="1">
-        <v>99.616858237547902</v>
+        <v>99.6168582375479</v>
       </c>
       <c r="AC36" s="1">
-        <v>532449.77741622005</v>
+        <v>532449.77741622</v>
       </c>
       <c r="AD36" s="1">
         <v>2047.88375929315</v>
       </c>
       <c r="AE36" s="1">
-        <v>534497.66117551306</v>
+        <v>534497.661175513</v>
       </c>
       <c r="AF36" s="1">
-        <v>61231.381946429501</v>
+        <v>61231.3819464295</v>
       </c>
       <c r="AG36" s="1">
-        <v>522</v>
+        <v>522.0</v>
       </c>
       <c r="AH36" s="1">
-        <v>5.9386973180076597</v>
+        <v>5.93869731800766</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="A37" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>34</v>
@@ -4285,7 +4255,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>34</v>
@@ -4310,19 +4280,19 @@
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O37" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="2">
         <v>39548.367638888885</v>
       </c>
-      <c r="R37" s="3">
-        <v>39548.370555555557</v>
+      <c r="R37" s="2">
+        <v>39548.37055555556</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>41</v>
@@ -4331,10 +4301,10 @@
         <v>10.7498310950016</v>
       </c>
       <c r="U37" s="1">
-        <v>76.107702469216605</v>
+        <v>76.1077024692166</v>
       </c>
       <c r="V37" s="1">
-        <v>41.739299610894903</v>
+        <v>41.7392996108949</v>
       </c>
       <c r="W37" s="1">
         <v>333.274319066148</v>
@@ -4343,39 +4313,39 @@
         <v>1.22279316693169</v>
       </c>
       <c r="Y37" s="1">
-        <v>514</v>
+        <v>514.0</v>
       </c>
       <c r="Z37" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AA37" s="1">
-        <v>568</v>
+        <v>568.0</v>
       </c>
       <c r="AB37" s="1">
-        <v>99.419729206963297</v>
+        <v>99.4197292069633</v>
       </c>
       <c r="AC37" s="1">
-        <v>526306.12613834103</v>
+        <v>526306.126138341</v>
       </c>
       <c r="AD37" s="1">
-        <v>3071.8256389397302</v>
+        <v>3071.82563893973</v>
       </c>
       <c r="AE37" s="1">
-        <v>529377.95177728101</v>
+        <v>529377.951777281</v>
       </c>
       <c r="AF37" s="1">
-        <v>44361.624610944396</v>
+        <v>44361.6246109444</v>
       </c>
       <c r="AG37" s="1">
-        <v>517</v>
+        <v>517.0</v>
       </c>
       <c r="AH37" s="1">
-        <v>3.8684719535783398</v>
+        <v>3.86847195357834</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="A38" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>34</v>
@@ -4387,7 +4357,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>34</v>
@@ -4412,49 +4382,49 @@
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O38" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q38" s="3">
-        <v>39548.350416666668</v>
-      </c>
-      <c r="R38" s="3">
-        <v>39548.353333333333</v>
+      <c r="Q38" s="2">
+        <v>39548.35041666667</v>
+      </c>
+      <c r="R38" s="2">
+        <v>39548.35333333333</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T38" s="1">
-        <v>10.904847464365499</v>
+        <v>10.9048474643655</v>
       </c>
       <c r="U38" s="1">
         <v>78.4304887313465</v>
       </c>
       <c r="V38" s="1">
-        <v>42.311415525114199</v>
+        <v>42.3114155251142</v>
       </c>
       <c r="W38" s="1">
-        <v>340.98721461187199</v>
+        <v>340.987214611872</v>
       </c>
       <c r="X38" s="1">
         <v>1.22183677990143</v>
       </c>
       <c r="Y38" s="1">
-        <v>1095</v>
+        <v>1095.0</v>
       </c>
       <c r="Z38" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AA38" s="1">
-        <v>1189</v>
+        <v>1189.0</v>
       </c>
       <c r="AB38" s="1">
-        <v>99.636032757051893</v>
+        <v>99.6360327570519</v>
       </c>
       <c r="AC38" s="1">
         <v>1121216.358213</v>
@@ -4469,15 +4439,15 @@
         <v>100100.465982679</v>
       </c>
       <c r="AG38" s="1">
-        <v>1099</v>
+        <v>1099.0</v>
       </c>
       <c r="AH38" s="1">
-        <v>7.9162875341219303</v>
+        <v>7.91628753412193</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="A39" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>34</v>
@@ -4489,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>34</v>
@@ -4514,19 +4484,19 @@
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O39" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="2">
         <v>39548.346712962964</v>
       </c>
-      <c r="R39" s="3">
-        <v>39548.349722222221</v>
+      <c r="R39" s="2">
+        <v>39548.34972222222</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>41</v>
@@ -4535,7 +4505,7 @@
         <v>11.5522880543709</v>
       </c>
       <c r="U39" s="1">
-        <v>89.736222523684802</v>
+        <v>89.7362225236848</v>
       </c>
       <c r="V39" s="1">
         <v>44.8597456170505</v>
@@ -4547,39 +4517,39 @@
         <v>1.20567705207086</v>
       </c>
       <c r="Y39" s="1">
-        <v>5818</v>
+        <v>5818.0</v>
       </c>
       <c r="Z39" s="1">
-        <v>55</v>
+        <v>55.0</v>
       </c>
       <c r="AA39" s="1">
-        <v>5786</v>
+        <v>5786.0</v>
       </c>
       <c r="AB39" s="1">
-        <v>99.063510982462105</v>
+        <v>99.0635109824621</v>
       </c>
       <c r="AC39" s="1">
-        <v>5957293.8557837903</v>
+        <v>5957293.85578379</v>
       </c>
       <c r="AD39" s="1">
-        <v>56316.803380561803</v>
+        <v>56316.8033805618</v>
       </c>
       <c r="AE39" s="1">
-        <v>6013610.6591643495</v>
+        <v>6013610.65916435</v>
       </c>
       <c r="AF39" s="1">
         <v>145878.480862781</v>
       </c>
       <c r="AG39" s="1">
-        <v>5873</v>
+        <v>5873.0</v>
       </c>
       <c r="AH39" s="1">
-        <v>14.285714285714301</v>
+        <v>14.2857142857143</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="A40" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>34</v>
@@ -4591,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>34</v>
@@ -4616,19 +4586,19 @@
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O40" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q40" s="3">
-        <v>39548.341608796298</v>
-      </c>
-      <c r="R40" s="3">
-        <v>39548.344548611109</v>
+      <c r="Q40" s="2">
+        <v>39548.3416087963</v>
+      </c>
+      <c r="R40" s="2">
+        <v>39548.34454861111</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>41</v>
@@ -4640,48 +4610,48 @@
         <v>88.1350036865703</v>
       </c>
       <c r="V40" s="1">
-        <v>44.609909555642901</v>
+        <v>44.6099095556429</v>
       </c>
       <c r="W40" s="1">
-        <v>372.78018088871403</v>
+        <v>372.780180888714</v>
       </c>
       <c r="X40" s="1">
-        <v>1.2143804192415399</v>
+        <v>1.21438041924154</v>
       </c>
       <c r="Y40" s="1">
-        <v>5086</v>
+        <v>5086.0</v>
       </c>
       <c r="Z40" s="1">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AA40" s="1">
-        <v>5207</v>
+        <v>5207.0</v>
       </c>
       <c r="AB40" s="1">
-        <v>99.026479750778805</v>
+        <v>99.0264797507788</v>
       </c>
       <c r="AC40" s="1">
-        <v>5207768.3998824898</v>
+        <v>5207768.39988249</v>
       </c>
       <c r="AD40" s="1">
-        <v>51197.093982328901</v>
+        <v>51197.0939823289</v>
       </c>
       <c r="AE40" s="1">
-        <v>5258965.4938648203</v>
+        <v>5258965.49386482</v>
       </c>
       <c r="AF40" s="1">
-        <v>145860.51177055601</v>
+        <v>145860.511770556</v>
       </c>
       <c r="AG40" s="1">
-        <v>5136</v>
+        <v>5136.0</v>
       </c>
       <c r="AH40" s="1">
         <v>13.4345794392523</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="A41" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
@@ -4693,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>34</v>
@@ -4718,55 +4688,55 @@
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O41" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="2">
         <v>39547.643587962964</v>
       </c>
-      <c r="R41" s="3">
-        <v>39547.653379629628</v>
+      <c r="R41" s="2">
+        <v>39547.65337962963</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T41" s="1">
-        <v>12.338949616996301</v>
+        <v>12.3389496169963</v>
       </c>
       <c r="U41" s="1">
-        <v>97.756549626795803</v>
+        <v>97.7565496267958</v>
       </c>
       <c r="V41" s="1">
-        <v>47.936812066856902</v>
+        <v>47.9368120668569</v>
       </c>
       <c r="W41" s="1">
-        <v>407.31593966571501</v>
+        <v>407.315939665715</v>
       </c>
       <c r="X41" s="1">
         <v>1.22544529085135</v>
       </c>
       <c r="Y41" s="1">
-        <v>2453</v>
+        <v>2453.0</v>
       </c>
       <c r="Z41" s="1">
-        <v>331</v>
+        <v>331.0</v>
       </c>
       <c r="AA41" s="1">
-        <v>3118</v>
+        <v>3118.0</v>
       </c>
       <c r="AB41" s="1">
-        <v>88.110632183907995</v>
+        <v>88.110632183908</v>
       </c>
       <c r="AC41" s="1">
         <v>1370034.23496712</v>
       </c>
       <c r="AD41" s="1">
-        <v>184868.05208891799</v>
+        <v>184868.052088918</v>
       </c>
       <c r="AE41" s="1">
         <v>1554902.28705604</v>
@@ -4775,15 +4745,15 @@
         <v>106779.883805064</v>
       </c>
       <c r="AG41" s="1">
-        <v>2784</v>
+        <v>2784.0</v>
       </c>
       <c r="AH41" s="1">
-        <v>4.3821839080459801</v>
+        <v>4.38218390804598</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="A42" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>34</v>
@@ -4795,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>34</v>
@@ -4820,19 +4790,19 @@
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O42" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="2">
         <v>39547.643530092595</v>
       </c>
-      <c r="R42" s="3">
-        <v>39547.650208333333</v>
+      <c r="R42" s="2">
+        <v>39547.65020833333</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>41</v>
@@ -4841,28 +4811,28 @@
         <v>13.5629428280641</v>
       </c>
       <c r="U42" s="1">
-        <v>118.75494429306499</v>
+        <v>118.754944293065</v>
       </c>
       <c r="V42" s="1">
-        <v>52.764631445745003</v>
+        <v>52.764631445745</v>
       </c>
       <c r="W42" s="1">
-        <v>490.91363492565603</v>
+        <v>490.913634925656</v>
       </c>
       <c r="X42" s="1">
-        <v>1.2600306587052501</v>
+        <v>1.26003065870525</v>
       </c>
       <c r="Y42" s="1">
-        <v>3161</v>
+        <v>3161.0</v>
       </c>
       <c r="Z42" s="1">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AA42" s="1">
-        <v>2582</v>
+        <v>2582.0</v>
       </c>
       <c r="AB42" s="1">
-        <v>99.121981812480399</v>
+        <v>99.1219818124804</v>
       </c>
       <c r="AC42" s="1">
         <v>1765461.97176154</v>
@@ -4871,21 +4841,21 @@
         <v>15638.3850709659</v>
       </c>
       <c r="AE42" s="1">
-        <v>1781100.3568325101</v>
+        <v>1781100.35683251</v>
       </c>
       <c r="AF42" s="1">
         <v>151226.300851796</v>
       </c>
       <c r="AG42" s="1">
-        <v>3189</v>
+        <v>3189.0</v>
       </c>
       <c r="AH42" s="1">
-        <v>30.605205393540299</v>
+        <v>30.6052053935403</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="A43" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>34</v>
@@ -4897,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>34</v>
@@ -4922,19 +4892,19 @@
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O43" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="2">
         <v>39547.345034722224</v>
       </c>
-      <c r="R43" s="3">
-        <v>39547.382708333331</v>
+      <c r="R43" s="2">
+        <v>39547.38270833333</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>41</v>
@@ -4943,51 +4913,51 @@
         <v>12.3648413543107</v>
       </c>
       <c r="U43" s="1">
-        <v>96.520157392628093</v>
+        <v>96.5201573926281</v>
       </c>
       <c r="V43" s="1">
-        <v>48.056142301278499</v>
+        <v>48.0561423012785</v>
       </c>
       <c r="W43" s="1">
-        <v>409.37076153418599</v>
+        <v>409.370761534186</v>
       </c>
       <c r="X43" s="1">
         <v>1.2545393215042</v>
       </c>
       <c r="Y43" s="1">
-        <v>1799</v>
+        <v>1799.0</v>
       </c>
       <c r="Z43" s="1">
-        <v>315</v>
+        <v>315.0</v>
       </c>
       <c r="AA43" s="1">
-        <v>2476</v>
+        <v>2476.0</v>
       </c>
       <c r="AB43" s="1">
-        <v>85.099337748344396</v>
+        <v>85.0993377483444</v>
       </c>
       <c r="AC43" s="1">
-        <v>1004766.2408095601</v>
+        <v>1004766.24080956</v>
       </c>
       <c r="AD43" s="1">
-        <v>175931.83204836599</v>
+        <v>175931.832048366</v>
       </c>
       <c r="AE43" s="1">
-        <v>1180698.0728579301</v>
+        <v>1180698.07285793</v>
       </c>
       <c r="AF43" s="1">
-        <v>95530.344759913598</v>
+        <v>95530.3447599136</v>
       </c>
       <c r="AG43" s="1">
-        <v>2114</v>
+        <v>2114.0</v>
       </c>
       <c r="AH43" s="1">
-        <v>4.3519394512772003</v>
+        <v>4.3519394512772</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="A44" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>34</v>
@@ -4999,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>34</v>
@@ -5024,72 +4994,72 @@
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O44" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P44" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="2">
         <v>39547.344930555555</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="2">
         <v>39547.379583333335</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T44" s="1">
-        <v>13.569573335437299</v>
+        <v>13.5695733354373</v>
       </c>
       <c r="U44" s="1">
         <v>117.447044330205</v>
       </c>
       <c r="V44" s="1">
-        <v>52.786442908851598</v>
+        <v>52.7864429088516</v>
       </c>
       <c r="W44" s="1">
-        <v>491.55807831523498</v>
+        <v>491.558078315235</v>
       </c>
       <c r="X44" s="1">
-        <v>1.2808051675754999</v>
+        <v>1.2808051675755</v>
       </c>
       <c r="Y44" s="1">
-        <v>3039</v>
+        <v>3039.0</v>
       </c>
       <c r="Z44" s="1">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="AA44" s="1">
-        <v>2566</v>
+        <v>2566.0</v>
       </c>
       <c r="AB44" s="1">
-        <v>98.861418347430103</v>
+        <v>98.8614183474301</v>
       </c>
       <c r="AC44" s="1">
         <v>1697323.29395234</v>
       </c>
       <c r="AD44" s="1">
-        <v>19547.981338707399</v>
+        <v>19547.9813387074</v>
       </c>
       <c r="AE44" s="1">
-        <v>1716871.2752910401</v>
+        <v>1716871.27529104</v>
       </c>
       <c r="AF44" s="1">
         <v>137485.168373992</v>
       </c>
       <c r="AG44" s="1">
-        <v>3074</v>
+        <v>3074.0</v>
       </c>
       <c r="AH44" s="1">
-        <v>26.903057905009799</v>
+        <v>26.9030579050098</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="A45" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>34</v>
@@ -5101,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>34</v>
@@ -5126,72 +5096,72 @@
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O45" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="2">
         <v>39547.340092592596</v>
       </c>
-      <c r="R45" s="3">
-        <v>39547.343032407407</v>
+      <c r="R45" s="2">
+        <v>39547.34303240741</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T45" s="1">
-        <v>10.787139118012901</v>
+        <v>10.7871391180129</v>
       </c>
       <c r="U45" s="1">
-        <v>78.781475478255402</v>
+        <v>78.7814754782554</v>
       </c>
       <c r="V45" s="1">
         <v>41.8419047619048</v>
       </c>
       <c r="W45" s="1">
-        <v>335.79619047619002</v>
+        <v>335.79619047619</v>
       </c>
       <c r="X45" s="1">
         <v>1.19293940896319</v>
       </c>
       <c r="Y45" s="1">
-        <v>525</v>
+        <v>525.0</v>
       </c>
       <c r="Z45" s="1">
-        <v>4</v>
+        <v>4.0</v>
       </c>
       <c r="AA45" s="1">
-        <v>562</v>
+        <v>562.0</v>
       </c>
       <c r="AB45" s="1">
-        <v>99.243856332703203</v>
+        <v>99.2438563327032</v>
       </c>
       <c r="AC45" s="1">
-        <v>537569.48681445303</v>
+        <v>537569.486814453</v>
       </c>
       <c r="AD45" s="1">
         <v>4095.76751858631</v>
       </c>
       <c r="AE45" s="1">
-        <v>541665.25433303998</v>
+        <v>541665.25433304</v>
       </c>
       <c r="AF45" s="1">
-        <v>37440.445680567202</v>
+        <v>37440.4456805672</v>
       </c>
       <c r="AG45" s="1">
-        <v>529</v>
+        <v>529.0</v>
       </c>
       <c r="AH45" s="1">
-        <v>7.7504725897920599</v>
+        <v>7.75047258979206</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="A46" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>34</v>
@@ -5203,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>34</v>
@@ -5228,72 +5198,72 @@
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O46" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P46" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q46" s="3">
-        <v>39547.337025462963</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="Q46" s="2">
+        <v>39547.33702546296</v>
+      </c>
+      <c r="R46" s="2">
         <v>39547.339953703704</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T46" s="1">
-        <v>10.782812501355099</v>
+        <v>10.7828125013551</v>
       </c>
       <c r="U46" s="1">
-        <v>78.455265248562995</v>
+        <v>78.455265248563</v>
       </c>
       <c r="V46" s="1">
         <v>41.8312611012433</v>
       </c>
       <c r="W46" s="1">
-        <v>333.73712255772602</v>
+        <v>333.737122557726</v>
       </c>
       <c r="X46" s="1">
         <v>1.1883809311577</v>
       </c>
       <c r="Y46" s="1">
-        <v>563</v>
+        <v>563.0</v>
       </c>
       <c r="Z46" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AA46" s="1">
-        <v>636</v>
+        <v>636.0</v>
       </c>
       <c r="AB46" s="1">
-        <v>99.119718309859195</v>
+        <v>99.1197183098592</v>
       </c>
       <c r="AC46" s="1">
-        <v>576479.27824102296</v>
+        <v>576479.278241023</v>
       </c>
       <c r="AD46" s="1">
-        <v>5119.7093982328897</v>
+        <v>5119.70939823289</v>
       </c>
       <c r="AE46" s="1">
-        <v>581598.98763925605</v>
+        <v>581598.987639256</v>
       </c>
       <c r="AF46" s="1">
-        <v>65468.252651123599</v>
+        <v>65468.2526511236</v>
       </c>
       <c r="AG46" s="1">
-        <v>568</v>
+        <v>568.0</v>
       </c>
       <c r="AH46" s="1">
         <v>7.21830985915493</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="A47" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>34</v>
@@ -5305,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>34</v>
@@ -5330,72 +5300,72 @@
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O47" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="2">
         <v>39547.333333333336</v>
       </c>
-      <c r="R47" s="3">
-        <v>39547.336261574077</v>
+      <c r="R47" s="2">
+        <v>39547.33626157408</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T47" s="1">
-        <v>10.729513169061599</v>
+        <v>10.7295131690616</v>
       </c>
       <c r="U47" s="1">
-        <v>77.516370575693998</v>
+        <v>77.516370575694</v>
       </c>
       <c r="V47" s="1">
         <v>41.64</v>
       </c>
       <c r="W47" s="1">
-        <v>332.16571428571399</v>
+        <v>332.165714285714</v>
       </c>
       <c r="X47" s="1">
         <v>1.19458796293609</v>
       </c>
       <c r="Y47" s="1">
-        <v>525</v>
+        <v>525.0</v>
       </c>
       <c r="Z47" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AA47" s="1">
-        <v>588</v>
+        <v>588.0</v>
       </c>
       <c r="AB47" s="1">
-        <v>99.431818181818201</v>
+        <v>99.4318181818182</v>
       </c>
       <c r="AC47" s="1">
-        <v>537569.48681445303</v>
+        <v>537569.486814453</v>
       </c>
       <c r="AD47" s="1">
-        <v>3071.8256389397302</v>
+        <v>3071.82563893973</v>
       </c>
       <c r="AE47" s="1">
-        <v>540641.31245339301</v>
+        <v>540641.312453393</v>
       </c>
       <c r="AF47" s="1">
-        <v>41059.941700078198</v>
+        <v>41059.9417000782</v>
       </c>
       <c r="AG47" s="1">
-        <v>528</v>
+        <v>528.0</v>
       </c>
       <c r="AH47" s="1">
-        <v>4.9242424242424203</v>
+        <v>4.92424242424242</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="A48" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>34</v>
@@ -5407,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>34</v>
@@ -5432,46 +5402,46 @@
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O48" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P48" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q48" s="3">
-        <v>39547.329467592594</v>
-      </c>
-      <c r="R48" s="3">
-        <v>39547.332384259258</v>
+      <c r="Q48" s="2">
+        <v>39547.32946759259</v>
+      </c>
+      <c r="R48" s="2">
+        <v>39547.33238425926</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T48" s="1">
-        <v>10.856584603545199</v>
+        <v>10.8565846035452</v>
       </c>
       <c r="U48" s="1">
-        <v>78.612762658238097</v>
+        <v>78.6127626582381</v>
       </c>
       <c r="V48" s="1">
-        <v>42.125797629899701</v>
+        <v>42.1257976298997</v>
       </c>
       <c r="W48" s="1">
         <v>337.827711941659</v>
       </c>
       <c r="X48" s="1">
-        <v>1.2068257757107299</v>
+        <v>1.20682577571073</v>
       </c>
       <c r="Y48" s="1">
-        <v>1097</v>
+        <v>1097.0</v>
       </c>
       <c r="Z48" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AA48" s="1">
-        <v>1185</v>
+        <v>1185.0</v>
       </c>
       <c r="AB48" s="1">
         <v>99.2760180995475</v>
@@ -5480,24 +5450,24 @@
         <v>1123264.2419723</v>
       </c>
       <c r="AD48" s="1">
-        <v>8191.5350371726199</v>
+        <v>8191.53503717262</v>
       </c>
       <c r="AE48" s="1">
-        <v>1131455.7770094699</v>
+        <v>1131455.77700947</v>
       </c>
       <c r="AF48" s="1">
-        <v>35896.429065952099</v>
+        <v>35896.4290659521</v>
       </c>
       <c r="AG48" s="1">
-        <v>1105</v>
+        <v>1105.0</v>
       </c>
       <c r="AH48" s="1">
-        <v>6.8778280542986403</v>
+        <v>6.87782805429864</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="A49" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>34</v>
@@ -5509,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>34</v>
@@ -5534,72 +5504,72 @@
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O49" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q49" s="3">
-        <v>39547.325856481482</v>
-      </c>
-      <c r="R49" s="3">
+      <c r="Q49" s="2">
+        <v>39547.32585648148</v>
+      </c>
+      <c r="R49" s="2">
         <v>39547.328831018516</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T49" s="1">
-        <v>11.526908721419099</v>
+        <v>11.5269087214191</v>
       </c>
       <c r="U49" s="1">
-        <v>89.412815591899701</v>
+        <v>89.4128155918997</v>
       </c>
       <c r="V49" s="1">
-        <v>44.755053289231903</v>
+        <v>44.7550532892319</v>
       </c>
       <c r="W49" s="1">
-        <v>375.96784270488803</v>
+        <v>375.967842704888</v>
       </c>
       <c r="X49" s="1">
-        <v>1.2086545750712201</v>
+        <v>1.20865457507122</v>
       </c>
       <c r="Y49" s="1">
-        <v>5442</v>
+        <v>5442.0</v>
       </c>
       <c r="Z49" s="1">
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="AA49" s="1">
-        <v>5499</v>
+        <v>5499.0</v>
       </c>
       <c r="AB49" s="1">
-        <v>98.981447799199699</v>
+        <v>98.9814477991997</v>
       </c>
       <c r="AC49" s="1">
-        <v>5572291.7090366697</v>
+        <v>5572291.70903667</v>
       </c>
       <c r="AD49" s="1">
-        <v>57340.745260208299</v>
+        <v>57340.7452602083</v>
       </c>
       <c r="AE49" s="1">
-        <v>5629632.4542968804</v>
+        <v>5629632.45429688</v>
       </c>
       <c r="AF49" s="1">
-        <v>192544.64043836101</v>
+        <v>192544.640438361</v>
       </c>
       <c r="AG49" s="1">
-        <v>5498</v>
+        <v>5498.0</v>
       </c>
       <c r="AH49" s="1">
         <v>14.85994907239</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="A50" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>34</v>
@@ -5611,7 +5581,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>34</v>
@@ -5636,19 +5606,19 @@
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O50" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q50" s="3">
-        <v>39546.650740740741</v>
-      </c>
-      <c r="R50" s="3">
-        <v>39546.660393518519</v>
+      <c r="Q50" s="2">
+        <v>39546.65074074074</v>
+      </c>
+      <c r="R50" s="2">
+        <v>39546.66039351852</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>41</v>
@@ -5663,45 +5633,45 @@
         <v>47.9587458745875</v>
       </c>
       <c r="W50" s="1">
-        <v>407.93894389438901</v>
+        <v>407.938943894389</v>
       </c>
       <c r="X50" s="1">
         <v>1.19566298825228</v>
       </c>
       <c r="Y50" s="1">
-        <v>1212</v>
+        <v>1212.0</v>
       </c>
       <c r="Z50" s="1">
-        <v>261</v>
+        <v>261.0</v>
       </c>
       <c r="AA50" s="1">
-        <v>1781</v>
+        <v>1781.0</v>
       </c>
       <c r="AB50" s="1">
-        <v>82.281059063136496</v>
+        <v>82.2810590631365</v>
       </c>
       <c r="AC50" s="1">
-        <v>676918.66807181004</v>
+        <v>676918.66807181</v>
       </c>
       <c r="AD50" s="1">
-        <v>145772.08941150401</v>
+        <v>145772.089411504</v>
       </c>
       <c r="AE50" s="1">
-        <v>822690.75748331402</v>
+        <v>822690.757483314</v>
       </c>
       <c r="AF50" s="1">
         <v>72761.2887939957</v>
       </c>
       <c r="AG50" s="1">
-        <v>1473</v>
+        <v>1473.0</v>
       </c>
       <c r="AH50" s="1">
-        <v>3.1228784792939601</v>
+        <v>3.12287847929396</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="A51" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>34</v>
@@ -5713,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>34</v>
@@ -5738,18 +5708,18 @@
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O51" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P51" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="2">
         <v>39546.650671296295</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R51" s="2">
         <v>39546.657314814816</v>
       </c>
       <c r="S51" s="1" t="s">
@@ -5759,7 +5729,7 @@
         <v>13.5354050845292</v>
       </c>
       <c r="U51" s="1">
-        <v>117.59619891387899</v>
+        <v>117.596198913879</v>
       </c>
       <c r="V51" s="1">
         <v>52.6579189686924</v>
@@ -5771,39 +5741,39 @@
         <v>1.26032711103309</v>
       </c>
       <c r="Y51" s="1">
-        <v>2172</v>
+        <v>2172.0</v>
       </c>
       <c r="Z51" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AA51" s="1">
-        <v>1951</v>
+        <v>1951.0</v>
       </c>
       <c r="AB51" s="1">
-        <v>99.496106275767303</v>
+        <v>99.4961062757673</v>
       </c>
       <c r="AC51" s="1">
-        <v>1213091.8705049299</v>
+        <v>1213091.87050493</v>
       </c>
       <c r="AD51" s="1">
-        <v>6143.6512778794604</v>
+        <v>6143.65127787946</v>
       </c>
       <c r="AE51" s="1">
-        <v>1219235.5217828101</v>
+        <v>1219235.52178281</v>
       </c>
       <c r="AF51" s="1">
-        <v>99869.380686671197</v>
+        <v>99869.3806866712</v>
       </c>
       <c r="AG51" s="1">
-        <v>2183</v>
+        <v>2183.0</v>
       </c>
       <c r="AH51" s="1">
-        <v>20.751259734310601</v>
+        <v>20.7512597343106</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="A52" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>34</v>
@@ -5815,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>34</v>
@@ -5840,19 +5810,19 @@
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O52" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q52" s="3">
-        <v>39546.345763888887</v>
-      </c>
-      <c r="R52" s="3">
-        <v>39546.353831018518</v>
+      <c r="Q52" s="2">
+        <v>39546.34576388889</v>
+      </c>
+      <c r="R52" s="2">
+        <v>39546.35383101852</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>41</v>
@@ -5864,48 +5834,48 @@
         <v>103.012914145753</v>
       </c>
       <c r="V52" s="1">
-        <v>48.606490872210998</v>
+        <v>48.606490872211</v>
       </c>
       <c r="W52" s="1">
         <v>417.326572008114</v>
       </c>
       <c r="X52" s="1">
-        <v>1.1923475242367501</v>
+        <v>1.19234752423675</v>
       </c>
       <c r="Y52" s="1">
-        <v>986</v>
+        <v>986.0</v>
       </c>
       <c r="Z52" s="1">
-        <v>294</v>
+        <v>294.0</v>
       </c>
       <c r="AA52" s="1">
-        <v>1566</v>
+        <v>1566.0</v>
       </c>
       <c r="AB52" s="1">
         <v>77.03125</v>
       </c>
       <c r="AC52" s="1">
-        <v>550694.55999901402</v>
+        <v>550694.559999014</v>
       </c>
       <c r="AD52" s="1">
-        <v>164203.04324514201</v>
+        <v>164203.043245142</v>
       </c>
       <c r="AE52" s="1">
-        <v>714897.60324415599</v>
+        <v>714897.603244156</v>
       </c>
       <c r="AF52" s="1">
-        <v>57529.627678974699</v>
+        <v>57529.6276789747</v>
       </c>
       <c r="AG52" s="1">
-        <v>1280</v>
+        <v>1280.0</v>
       </c>
       <c r="AH52" s="1">
         <v>2.65625</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="A53" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>34</v>
@@ -5917,7 +5887,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>34</v>
@@ -5942,72 +5912,72 @@
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O53" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q53" s="3">
-        <v>39546.345706018517</v>
-      </c>
-      <c r="R53" s="3">
-        <v>39546.350787037038</v>
+      <c r="Q53" s="2">
+        <v>39546.34570601852</v>
+      </c>
+      <c r="R53" s="2">
+        <v>39546.35078703704</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T53" s="1">
-        <v>13.890210134720601</v>
+        <v>13.8902101347206</v>
       </c>
       <c r="U53" s="1">
         <v>126.830287047444</v>
       </c>
       <c r="V53" s="1">
-        <v>54.041200706297801</v>
+        <v>54.0412007062978</v>
       </c>
       <c r="W53" s="1">
-        <v>510.31135962330802</v>
+        <v>510.311359623308</v>
       </c>
       <c r="X53" s="1">
-        <v>1.2293547644835401</v>
+        <v>1.22935476448354</v>
       </c>
       <c r="Y53" s="1">
-        <v>1699</v>
+        <v>1699.0</v>
       </c>
       <c r="Z53" s="1">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="AA53" s="1">
-        <v>1471</v>
+        <v>1471.0</v>
       </c>
       <c r="AB53" s="1">
-        <v>98.038084246970598</v>
+        <v>98.0380842469706</v>
       </c>
       <c r="AC53" s="1">
-        <v>948914.86555611005</v>
+        <v>948914.86555611</v>
       </c>
       <c r="AD53" s="1">
-        <v>18989.467586172901</v>
+        <v>18989.4675861729</v>
       </c>
       <c r="AE53" s="1">
-        <v>967904.33314228302</v>
+        <v>967904.333142283</v>
       </c>
       <c r="AF53" s="1">
-        <v>59585.853163045504</v>
+        <v>59585.8531630455</v>
       </c>
       <c r="AG53" s="1">
-        <v>1733</v>
+        <v>1733.0</v>
       </c>
       <c r="AH53" s="1">
-        <v>24.350836699365299</v>
+        <v>24.3508366993653</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="A54" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>34</v>
@@ -6019,7 +5989,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>34</v>
@@ -6044,19 +6014,19 @@
       </c>
       <c r="M54" s="1"/>
       <c r="N54" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O54" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q54" s="3">
-        <v>39546.342615740738</v>
-      </c>
-      <c r="R54" s="3">
-        <v>39546.345520833333</v>
+      <c r="Q54" s="2">
+        <v>39546.34261574074</v>
+      </c>
+      <c r="R54" s="2">
+        <v>39546.34552083333</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>41</v>
@@ -6065,51 +6035,51 @@
         <v>11.0423533232946</v>
       </c>
       <c r="U54" s="1">
-        <v>79.372859268351604</v>
+        <v>79.3728592683516</v>
       </c>
       <c r="V54" s="1">
-        <v>42.882129277566499</v>
+        <v>42.8821292775665</v>
       </c>
       <c r="W54" s="1">
-        <v>348.91634980988601</v>
+        <v>348.916349809886</v>
       </c>
       <c r="X54" s="1">
-        <v>1.2400861487347801</v>
+        <v>1.24008614873478</v>
       </c>
       <c r="Y54" s="1">
-        <v>526</v>
+        <v>526.0</v>
       </c>
       <c r="Z54" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AA54" s="1">
-        <v>585</v>
+        <v>585.0</v>
       </c>
       <c r="AB54" s="1">
-        <v>98.872180451127804</v>
+        <v>98.8721804511278</v>
       </c>
       <c r="AC54" s="1">
         <v>538593.4286941</v>
       </c>
       <c r="AD54" s="1">
-        <v>6143.6512778794604</v>
+        <v>6143.65127787946</v>
       </c>
       <c r="AE54" s="1">
-        <v>544737.07997197902</v>
+        <v>544737.079971979</v>
       </c>
       <c r="AF54" s="1">
-        <v>41161.954134819403</v>
+        <v>41161.9541348194</v>
       </c>
       <c r="AG54" s="1">
-        <v>532</v>
+        <v>532.0</v>
       </c>
       <c r="AH54" s="1">
-        <v>6.9548872180451102</v>
+        <v>6.95488721804511</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="A55" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>34</v>
@@ -6121,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>34</v>
@@ -6146,19 +6116,19 @@
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O55" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="Q55" s="2">
         <v>39546.339004629626</v>
       </c>
-      <c r="R55" s="3">
-        <v>39546.341909722221</v>
+      <c r="R55" s="2">
+        <v>39546.34190972222</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>41</v>
@@ -6167,10 +6137,10 @@
         <v>10.9802027114557</v>
       </c>
       <c r="U55" s="1">
-        <v>79.074983005211607</v>
+        <v>79.0749830052116</v>
       </c>
       <c r="V55" s="1">
-        <v>42.618367346938797</v>
+        <v>42.6183673469388</v>
       </c>
       <c r="W55" s="1">
         <v>349.587755102041</v>
@@ -6179,39 +6149,39 @@
         <v>1.24670049313845</v>
       </c>
       <c r="Y55" s="1">
-        <v>490</v>
+        <v>490.0</v>
       </c>
       <c r="Z55" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AA55" s="1">
-        <v>538</v>
+        <v>538.0</v>
       </c>
       <c r="AB55" s="1">
-        <v>99.391480730223094</v>
+        <v>99.3914807302231</v>
       </c>
       <c r="AC55" s="1">
-        <v>501731.52102682297</v>
+        <v>501731.521026823</v>
       </c>
       <c r="AD55" s="1">
-        <v>3071.8256389397302</v>
+        <v>3071.82563893973</v>
       </c>
       <c r="AE55" s="1">
-        <v>504803.34666576301</v>
+        <v>504803.346665763</v>
       </c>
       <c r="AF55" s="1">
-        <v>32589.674952993799</v>
+        <v>32589.6749529938</v>
       </c>
       <c r="AG55" s="1">
-        <v>493</v>
+        <v>493.0</v>
       </c>
       <c r="AH55" s="1">
         <v>5.67951318458418</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="A56" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>34</v>
@@ -6223,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>34</v>
@@ -6248,19 +6218,19 @@
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O56" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="Q56" s="2">
         <v>39546.336018518516</v>
       </c>
-      <c r="R56" s="3">
-        <v>39546.338923611111</v>
+      <c r="R56" s="2">
+        <v>39546.33892361111</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>41</v>
@@ -6269,7 +6239,7 @@
         <v>10.7888240243723</v>
       </c>
       <c r="U56" s="1">
-        <v>76.234417681437904</v>
+        <v>76.2344176814379</v>
       </c>
       <c r="V56" s="1">
         <v>41.8522522522522</v>
@@ -6281,39 +6251,39 @@
         <v>1.23676188010799</v>
       </c>
       <c r="Y56" s="1">
-        <v>555</v>
+        <v>555.0</v>
       </c>
       <c r="Z56" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AA56" s="1">
-        <v>611</v>
+        <v>611.0</v>
       </c>
       <c r="AB56" s="1">
-        <v>99.107142857142904</v>
+        <v>99.1071428571429</v>
       </c>
       <c r="AC56" s="1">
         <v>568287.74320385</v>
       </c>
       <c r="AD56" s="1">
-        <v>5119.7093982328897</v>
+        <v>5119.70939823289</v>
       </c>
       <c r="AE56" s="1">
-        <v>573407.45260208298</v>
+        <v>573407.452602083</v>
       </c>
       <c r="AF56" s="1">
-        <v>37145.247022044699</v>
+        <v>37145.2470220447</v>
       </c>
       <c r="AG56" s="1">
-        <v>560</v>
+        <v>560.0</v>
       </c>
       <c r="AH56" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="A57" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>34</v>
@@ -6325,7 +6295,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>34</v>
@@ -6350,72 +6320,72 @@
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O57" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q57" s="3">
-        <v>39546.332905092589</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="Q57" s="2">
+        <v>39546.33290509259</v>
+      </c>
+      <c r="R57" s="2">
         <v>39546.335810185185</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T57" s="1">
-        <v>10.955729430743601</v>
+        <v>10.9557294307436</v>
       </c>
       <c r="U57" s="1">
-        <v>77.584363113419499</v>
+        <v>77.5843631134195</v>
       </c>
       <c r="V57" s="1">
-        <v>42.513392857142897</v>
+        <v>42.5133928571429</v>
       </c>
       <c r="W57" s="1">
-        <v>344.46607142857101</v>
+        <v>344.466071428571</v>
       </c>
       <c r="X57" s="1">
-        <v>1.2490616786639099</v>
+        <v>1.24906167866391</v>
       </c>
       <c r="Y57" s="1">
-        <v>1120</v>
+        <v>1120.0</v>
       </c>
       <c r="Z57" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AA57" s="1">
-        <v>1253</v>
+        <v>1253.0</v>
       </c>
       <c r="AB57" s="1">
-        <v>99.732858414959907</v>
+        <v>99.7328584149599</v>
       </c>
       <c r="AC57" s="1">
-        <v>1146814.9052041699</v>
+        <v>1146814.90520417</v>
       </c>
       <c r="AD57" s="1">
-        <v>3071.8256389397302</v>
+        <v>3071.82563893973</v>
       </c>
       <c r="AE57" s="1">
         <v>1149886.73084311</v>
       </c>
       <c r="AF57" s="1">
-        <v>67804.747814153205</v>
+        <v>67804.7478141532</v>
       </c>
       <c r="AG57" s="1">
-        <v>1123</v>
+        <v>1123.0</v>
       </c>
       <c r="AH57" s="1">
-        <v>5.2537845057880697</v>
+        <v>5.25378450578807</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="A58" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>34</v>
@@ -6427,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>34</v>
@@ -6452,18 +6422,18 @@
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O58" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q58" s="3">
-        <v>39546.329479166663</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="2">
+        <v>39546.32947916666</v>
+      </c>
+      <c r="R58" s="2">
         <v>39546.332407407404</v>
       </c>
       <c r="S58" s="1" t="s">
@@ -6473,51 +6443,51 @@
         <v>11.5723942035794</v>
       </c>
       <c r="U58" s="1">
-        <v>88.647759690350497</v>
+        <v>88.6477596903505</v>
       </c>
       <c r="V58" s="1">
-        <v>44.938210765731597</v>
+        <v>44.9382107657316</v>
       </c>
       <c r="W58" s="1">
-        <v>378.92285822592902</v>
+        <v>378.922858225929</v>
       </c>
       <c r="X58" s="1">
-        <v>1.2298314283154901</v>
+        <v>1.22983142831549</v>
       </c>
       <c r="Y58" s="1">
-        <v>5276</v>
+        <v>5276.0</v>
       </c>
       <c r="Z58" s="1">
-        <v>48</v>
+        <v>48.0</v>
       </c>
       <c r="AA58" s="1">
-        <v>5417</v>
+        <v>5417.0</v>
       </c>
       <c r="AB58" s="1">
-        <v>99.098422238918104</v>
+        <v>99.0984222389181</v>
       </c>
       <c r="AC58" s="1">
-        <v>5402317.3570153397</v>
+        <v>5402317.35701534</v>
       </c>
       <c r="AD58" s="1">
-        <v>49149.210223035698</v>
+        <v>49149.2102230357</v>
       </c>
       <c r="AE58" s="1">
-        <v>5451466.5672383802</v>
+        <v>5451466.56723838</v>
       </c>
       <c r="AF58" s="1">
         <v>120216.184078406</v>
       </c>
       <c r="AG58" s="1">
-        <v>5324</v>
+        <v>5324.0</v>
       </c>
       <c r="AH58" s="1">
         <v>13.580015026296</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="A59" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>34</v>
@@ -6529,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>34</v>
@@ -6554,19 +6524,19 @@
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O59" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="2">
         <v>39545.618113425924</v>
       </c>
-      <c r="R59" s="3">
-        <v>39545.665011574078</v>
+      <c r="R59" s="2">
+        <v>39545.66501157408</v>
       </c>
       <c r="S59" s="1" t="s">
         <v>41</v>
@@ -6575,51 +6545,51 @@
         <v>11.5039304126792</v>
       </c>
       <c r="U59" s="1">
-        <v>85.319220907539403</v>
+        <v>85.3192209075394</v>
       </c>
       <c r="V59" s="1">
-        <v>44.685483870967701</v>
+        <v>44.6854838709677</v>
       </c>
       <c r="W59" s="1">
-        <v>360.66935483870998</v>
+        <v>360.66935483871</v>
       </c>
       <c r="X59" s="1">
-        <v>1.2143718513889601</v>
+        <v>1.21437185138896</v>
       </c>
       <c r="Y59" s="1">
-        <v>868</v>
+        <v>868.0</v>
       </c>
       <c r="Z59" s="1">
-        <v>321</v>
+        <v>321.0</v>
       </c>
       <c r="AA59" s="1">
-        <v>1409</v>
+        <v>1409.0</v>
       </c>
       <c r="AB59" s="1">
-        <v>73.002523128679599</v>
+        <v>73.0025231286796</v>
       </c>
       <c r="AC59" s="1">
         <v>484789.937199943</v>
       </c>
       <c r="AD59" s="1">
-        <v>179282.91456357299</v>
+        <v>179282.914563573</v>
       </c>
       <c r="AE59" s="1">
-        <v>664072.85176351701</v>
+        <v>664072.851763517</v>
       </c>
       <c r="AF59" s="1">
-        <v>62951.214602485401</v>
+        <v>62951.2146024854</v>
       </c>
       <c r="AG59" s="1">
-        <v>1189</v>
+        <v>1189.0</v>
       </c>
       <c r="AH59" s="1">
-        <v>2.1867115222876401</v>
+        <v>2.18671152228764</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="A60" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>34</v>
@@ -6631,7 +6601,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>34</v>
@@ -6656,19 +6626,19 @@
       </c>
       <c r="M60" s="1"/>
       <c r="N60" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O60" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q60" s="3">
-        <v>39545.618009259262</v>
-      </c>
-      <c r="R60" s="3">
-        <v>39545.661932870367</v>
+      <c r="Q60" s="2">
+        <v>39545.61800925926</v>
+      </c>
+      <c r="R60" s="2">
+        <v>39545.66193287037</v>
       </c>
       <c r="S60" s="1" t="s">
         <v>41</v>
@@ -6680,48 +6650,48 @@
         <v>114.139562252974</v>
       </c>
       <c r="V60" s="1">
-        <v>52.006457564575598</v>
+        <v>52.0064575645756</v>
       </c>
       <c r="W60" s="1">
-        <v>478.58856088560901</v>
+        <v>478.588560885609</v>
       </c>
       <c r="X60" s="1">
-        <v>1.2739095398060101</v>
+        <v>1.27390953980601</v>
       </c>
       <c r="Y60" s="1">
-        <v>1084</v>
+        <v>1084.0</v>
       </c>
       <c r="Z60" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA60" s="1">
-        <v>980</v>
+        <v>980.0</v>
       </c>
       <c r="AB60" s="1">
-        <v>99.085923217550302</v>
+        <v>99.0859232175503</v>
       </c>
       <c r="AC60" s="1">
-        <v>605428.90774739406</v>
+        <v>605428.907747394</v>
       </c>
       <c r="AD60" s="1">
-        <v>5585.1375253449696</v>
+        <v>5585.13752534497</v>
       </c>
       <c r="AE60" s="1">
-        <v>611014.04527273902</v>
+        <v>611014.045272739</v>
       </c>
       <c r="AF60" s="1">
-        <v>64080.782777229302</v>
+        <v>64080.7827772293</v>
       </c>
       <c r="AG60" s="1">
-        <v>1094</v>
+        <v>1094.0</v>
       </c>
       <c r="AH60" s="1">
         <v>27.3308957952468</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="A61" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>34</v>
@@ -6733,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>34</v>
@@ -6758,72 +6728,72 @@
       </c>
       <c r="M61" s="1"/>
       <c r="N61" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O61" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P61" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="Q61" s="2">
         <v>39545.541712962964</v>
       </c>
-      <c r="R61" s="3">
+      <c r="R61" s="2">
         <v>39545.551030092596</v>
       </c>
       <c r="S61" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T61" s="1">
-        <v>11.174917055086301</v>
+        <v>11.1749170550863</v>
       </c>
       <c r="U61" s="1">
-        <v>79.769323807456303</v>
+        <v>79.7693238074563</v>
       </c>
       <c r="V61" s="1">
         <v>43.381679389313</v>
       </c>
       <c r="W61" s="1">
-        <v>343.77557251908399</v>
+        <v>343.775572519084</v>
       </c>
       <c r="X61" s="1">
         <v>1.22071469796145</v>
       </c>
       <c r="Y61" s="1">
-        <v>655</v>
+        <v>655.0</v>
       </c>
       <c r="Z61" s="1">
-        <v>241</v>
+        <v>241.0</v>
       </c>
       <c r="AA61" s="1">
-        <v>1126</v>
+        <v>1126.0</v>
       </c>
       <c r="AB61" s="1">
-        <v>73.102678571428598</v>
+        <v>73.1026785714286</v>
       </c>
       <c r="AC61" s="1">
-        <v>365826.50791009498</v>
+        <v>365826.507910095</v>
       </c>
       <c r="AD61" s="1">
-        <v>134601.81436081399</v>
+        <v>134601.814360814</v>
       </c>
       <c r="AE61" s="1">
-        <v>500428.32227090898</v>
+        <v>500428.322270909</v>
       </c>
       <c r="AF61" s="1">
-        <v>55470.285761846499</v>
+        <v>55470.2857618465</v>
       </c>
       <c r="AG61" s="1">
-        <v>896</v>
+        <v>896.0</v>
       </c>
       <c r="AH61" s="1">
-        <v>5.5803571428571397</v>
+        <v>5.58035714285714</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="A62" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>34</v>
@@ -6835,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>34</v>
@@ -6860,19 +6830,19 @@
       </c>
       <c r="M62" s="1"/>
       <c r="N62" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O62" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="2">
         <v>39545.541550925926</v>
       </c>
-      <c r="R62" s="3">
-        <v>39545.547754629632</v>
+      <c r="R62" s="2">
+        <v>39545.54775462963</v>
       </c>
       <c r="S62" s="1" t="s">
         <v>41</v>
@@ -6881,51 +6851,51 @@
         <v>13.155995473605</v>
       </c>
       <c r="U62" s="1">
-        <v>113.79597248413801</v>
+        <v>113.795972484138</v>
       </c>
       <c r="V62" s="1">
         <v>51.1718426501035</v>
       </c>
       <c r="W62" s="1">
-        <v>463.18115942028999</v>
+        <v>463.18115942029</v>
       </c>
       <c r="X62" s="1">
-        <v>1.2205662177121199</v>
+        <v>1.22056621771212</v>
       </c>
       <c r="Y62" s="1">
-        <v>966</v>
+        <v>966.0</v>
       </c>
       <c r="Z62" s="1">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="AA62" s="1">
-        <v>887</v>
+        <v>887.0</v>
       </c>
       <c r="AB62" s="1">
-        <v>98.370672097759694</v>
+        <v>98.3706720977597</v>
       </c>
       <c r="AC62" s="1">
-        <v>539524.28494832397</v>
+        <v>539524.284948324</v>
       </c>
       <c r="AD62" s="1">
-        <v>8936.2200405519507</v>
+        <v>8936.22004055195</v>
       </c>
       <c r="AE62" s="1">
-        <v>548460.50498887605</v>
+        <v>548460.504988876</v>
       </c>
       <c r="AF62" s="1">
-        <v>77715.738683319098</v>
+        <v>77715.7386833191</v>
       </c>
       <c r="AG62" s="1">
-        <v>982</v>
+        <v>982.0</v>
       </c>
       <c r="AH62" s="1">
-        <v>30.651731160896102</v>
+        <v>30.6517311608961</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="A63" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>34</v>
@@ -6937,7 +6907,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>34</v>
@@ -6962,72 +6932,72 @@
       </c>
       <c r="M63" s="1"/>
       <c r="N63" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O63" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q63" s="3">
-        <v>39545.448773148149</v>
-      </c>
-      <c r="R63" s="3">
-        <v>39545.451678240737</v>
+      <c r="Q63" s="2">
+        <v>39545.44877314815</v>
+      </c>
+      <c r="R63" s="2">
+        <v>39545.45167824074</v>
       </c>
       <c r="S63" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T63" s="1">
-        <v>10.951421502920301</v>
+        <v>10.9514215029203</v>
       </c>
       <c r="U63" s="1">
-        <v>77.993706550771506</v>
+        <v>77.9937065507715</v>
       </c>
       <c r="V63" s="1">
         <v>42.4978632478633</v>
       </c>
       <c r="W63" s="1">
-        <v>345.24786324786299</v>
+        <v>345.247863247863</v>
       </c>
       <c r="X63" s="1">
-        <v>1.2445083969639701</v>
+        <v>1.24450839696397</v>
       </c>
       <c r="Y63" s="1">
-        <v>468</v>
+        <v>468.0</v>
       </c>
       <c r="Z63" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA63" s="1">
-        <v>574</v>
+        <v>574.0</v>
       </c>
       <c r="AB63" s="1">
-        <v>98.526315789473699</v>
+        <v>98.5263157894737</v>
       </c>
       <c r="AC63" s="1">
-        <v>479204.79967459798</v>
+        <v>479204.799674598</v>
       </c>
       <c r="AD63" s="1">
-        <v>7167.5931575260402</v>
+        <v>7167.59315752604</v>
       </c>
       <c r="AE63" s="1">
-        <v>486372.39283212402</v>
+        <v>486372.392832124</v>
       </c>
       <c r="AF63" s="1">
-        <v>61887.101418489401</v>
+        <v>61887.1014184894</v>
       </c>
       <c r="AG63" s="1">
-        <v>475</v>
+        <v>475.0</v>
       </c>
       <c r="AH63" s="1">
-        <v>6.9473684210526301</v>
+        <v>6.94736842105263</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="A64" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>34</v>
@@ -7039,7 +7009,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>34</v>
@@ -7064,72 +7034,72 @@
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O64" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P64" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q64" s="3">
-        <v>39545.445370370369</v>
-      </c>
-      <c r="R64" s="3">
+      <c r="Q64" s="2">
+        <v>39545.44537037037</v>
+      </c>
+      <c r="R64" s="2">
         <v>39545.448287037034</v>
       </c>
       <c r="S64" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T64" s="1">
-        <v>10.920498683775699</v>
+        <v>10.9204986837757</v>
       </c>
       <c r="U64" s="1">
-        <v>76.961889552802305</v>
+        <v>76.9618895528023</v>
       </c>
       <c r="V64" s="1">
-        <v>42.399267399267401</v>
+        <v>42.3992673992674</v>
       </c>
       <c r="W64" s="1">
         <v>341.239926739927</v>
       </c>
       <c r="X64" s="1">
-        <v>1.2432445129672001</v>
+        <v>1.2432445129672</v>
       </c>
       <c r="Y64" s="1">
-        <v>546</v>
+        <v>546.0</v>
       </c>
       <c r="Z64" s="1">
-        <v>6</v>
+        <v>6.0</v>
       </c>
       <c r="AA64" s="1">
-        <v>679</v>
+        <v>679.0</v>
       </c>
       <c r="AB64" s="1">
-        <v>98.913043478260903</v>
+        <v>98.9130434782609</v>
       </c>
       <c r="AC64" s="1">
         <v>559072.266287031</v>
       </c>
       <c r="AD64" s="1">
-        <v>6143.6512778794604</v>
+        <v>6143.65127787946</v>
       </c>
       <c r="AE64" s="1">
-        <v>565215.91756491095</v>
+        <v>565215.917564911</v>
       </c>
       <c r="AF64" s="1">
-        <v>73723.815334553597</v>
+        <v>73723.8153345536</v>
       </c>
       <c r="AG64" s="1">
-        <v>552</v>
+        <v>552.0</v>
       </c>
       <c r="AH64" s="1">
-        <v>4.8913043478260896</v>
+        <v>4.89130434782609</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="A65" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>34</v>
@@ -7141,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>34</v>
@@ -7166,19 +7136,19 @@
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O65" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P65" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q65" s="3">
-        <v>39545.436620370368</v>
-      </c>
-      <c r="R65" s="3">
-        <v>39545.439525462964</v>
+      <c r="Q65" s="2">
+        <v>39545.43662037037</v>
+      </c>
+      <c r="R65" s="2">
+        <v>39545.43952546296</v>
       </c>
       <c r="S65" s="1" t="s">
         <v>41</v>
@@ -7187,51 +7157,51 @@
         <v>10.8596810907007</v>
       </c>
       <c r="U65" s="1">
-        <v>77.704301997497097</v>
+        <v>77.7043019974971</v>
       </c>
       <c r="V65" s="1">
-        <v>42.117529880478102</v>
+        <v>42.1175298804781</v>
       </c>
       <c r="W65" s="1">
-        <v>338.03984063745003</v>
+        <v>338.03984063745</v>
       </c>
       <c r="X65" s="1">
         <v>1.2191404771982</v>
       </c>
       <c r="Y65" s="1">
-        <v>502</v>
+        <v>502.0</v>
       </c>
       <c r="Z65" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AA65" s="1">
-        <v>613</v>
+        <v>613.0</v>
       </c>
       <c r="AB65" s="1">
-        <v>99.013806706114394</v>
+        <v>99.0138067061144</v>
       </c>
       <c r="AC65" s="1">
         <v>514018.823582582</v>
       </c>
       <c r="AD65" s="1">
-        <v>5119.7093982328897</v>
+        <v>5119.70939823289</v>
       </c>
       <c r="AE65" s="1">
-        <v>519138.53298081498</v>
+        <v>519138.532980815</v>
       </c>
       <c r="AF65" s="1">
-        <v>55264.411351616698</v>
+        <v>55264.4113516167</v>
       </c>
       <c r="AG65" s="1">
-        <v>507</v>
+        <v>507.0</v>
       </c>
       <c r="AH65" s="1">
         <v>3.74753451676529</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="A66" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>34</v>
@@ -7243,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>34</v>
@@ -7268,19 +7238,19 @@
       </c>
       <c r="M66" s="1"/>
       <c r="N66" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O66" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P66" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q66" s="3">
-        <v>39545.432453703703</v>
-      </c>
-      <c r="R66" s="3">
-        <v>39545.435393518521</v>
+      <c r="Q66" s="2">
+        <v>39545.4324537037</v>
+      </c>
+      <c r="R66" s="2">
+        <v>39545.43539351852</v>
       </c>
       <c r="S66" s="1" t="s">
         <v>41</v>
@@ -7292,7 +7262,7 @@
         <v>91.3753799996136</v>
       </c>
       <c r="V66" s="1">
-        <v>45.036418546811198</v>
+        <v>45.0364185468112</v>
       </c>
       <c r="W66" s="1">
         <v>378.660508083141</v>
@@ -7301,39 +7271,39 @@
         <v>1.19573099705293</v>
       </c>
       <c r="Y66" s="1">
-        <v>5629</v>
+        <v>5629.0</v>
       </c>
       <c r="Z66" s="1">
-        <v>69</v>
+        <v>69.0</v>
       </c>
       <c r="AA66" s="1">
-        <v>5516</v>
+        <v>5516.0</v>
       </c>
       <c r="AB66" s="1">
-        <v>98.789048789048806</v>
+        <v>98.7890487890488</v>
       </c>
       <c r="AC66" s="1">
-        <v>5763768.8405305799</v>
+        <v>5763768.84053058</v>
       </c>
       <c r="AD66" s="1">
-        <v>70651.989695613796</v>
+        <v>70651.9896956138</v>
       </c>
       <c r="AE66" s="1">
-        <v>5834420.8302261997</v>
+        <v>5834420.8302262</v>
       </c>
       <c r="AF66" s="1">
-        <v>250252.73605879801</v>
+        <v>250252.736058798</v>
       </c>
       <c r="AG66" s="1">
-        <v>5698</v>
+        <v>5698.0</v>
       </c>
       <c r="AH66" s="1">
-        <v>16.637416637416599</v>
+        <v>16.6374166374166</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="A67" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>34</v>
@@ -7345,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>34</v>
@@ -7370,72 +7340,72 @@
       </c>
       <c r="M67" s="1"/>
       <c r="N67" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O67" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q67" s="3">
-        <v>39545.403611111113</v>
-      </c>
-      <c r="R67" s="3">
-        <v>39545.406574074077</v>
+      <c r="Q67" s="2">
+        <v>39545.40361111111</v>
+      </c>
+      <c r="R67" s="2">
+        <v>39545.40657407408</v>
       </c>
       <c r="S67" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T67" s="1">
-        <v>10.977533700238199</v>
+        <v>10.9775337002382</v>
       </c>
       <c r="U67" s="1">
-        <v>77.836812591197202</v>
+        <v>77.8368125911972</v>
       </c>
       <c r="V67" s="1">
-        <v>42.602928509905297</v>
+        <v>42.6029285099053</v>
       </c>
       <c r="W67" s="1">
-        <v>345.58397932816501</v>
+        <v>345.583979328165</v>
       </c>
       <c r="X67" s="1">
-        <v>1.2506267412952701</v>
+        <v>1.25062674129527</v>
       </c>
       <c r="Y67" s="1">
-        <v>1161</v>
+        <v>1161.0</v>
       </c>
       <c r="Z67" s="1">
-        <v>32</v>
+        <v>32.0</v>
       </c>
       <c r="AA67" s="1">
-        <v>1494</v>
+        <v>1494.0</v>
       </c>
       <c r="AB67" s="1">
-        <v>97.317686504610194</v>
+        <v>97.3176865046102</v>
       </c>
       <c r="AC67" s="1">
-        <v>1188796.5222696799</v>
+        <v>1188796.52226968</v>
       </c>
       <c r="AD67" s="1">
-        <v>32766.140148690502</v>
+        <v>32766.1401486905</v>
       </c>
       <c r="AE67" s="1">
-        <v>1221562.6624183699</v>
+        <v>1221562.66241837</v>
       </c>
       <c r="AF67" s="1">
-        <v>120255.42410689501</v>
+        <v>120255.424106895</v>
       </c>
       <c r="AG67" s="1">
-        <v>1193</v>
+        <v>1193.0</v>
       </c>
       <c r="AH67" s="1">
-        <v>8.6336965632858291</v>
+        <v>8.63369656328583</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="A68" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>34</v>
@@ -7447,7 +7417,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>34</v>
@@ -7472,19 +7442,19 @@
       </c>
       <c r="M68" s="1"/>
       <c r="N68" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O68" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="Q68" s="2">
         <v>39542.650289351855</v>
       </c>
-      <c r="R68" s="3">
-        <v>39542.687164351853</v>
+      <c r="R68" s="2">
+        <v>39542.68716435185</v>
       </c>
       <c r="S68" s="1" t="s">
         <v>41</v>
@@ -7493,51 +7463,51 @@
         <v>11.5698967663372</v>
       </c>
       <c r="U68" s="1">
-        <v>91.581636762843303</v>
+        <v>91.5816367628433</v>
       </c>
       <c r="V68" s="1">
-        <v>44.929573459715598</v>
+        <v>44.9295734597156</v>
       </c>
       <c r="W68" s="1">
-        <v>377.06483412322302</v>
+        <v>377.064834123223</v>
       </c>
       <c r="X68" s="1">
-        <v>1.1868465526902801</v>
+        <v>1.18684655269028</v>
       </c>
       <c r="Y68" s="1">
-        <v>10550</v>
+        <v>10550.0</v>
       </c>
       <c r="Z68" s="1">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="AA68" s="1">
-        <v>10185</v>
+        <v>10185.0</v>
       </c>
       <c r="AB68" s="1">
-        <v>98.912432027001699</v>
+        <v>98.9124320270017</v>
       </c>
       <c r="AC68" s="1">
-        <v>5892320.0892389398</v>
+        <v>5892320.08923894</v>
       </c>
       <c r="AD68" s="1">
         <v>64787.5952940016</v>
       </c>
       <c r="AE68" s="1">
-        <v>5957107.6845329404</v>
+        <v>5957107.68453294</v>
       </c>
       <c r="AF68" s="1">
-        <v>202516.50135314401</v>
+        <v>202516.501353144</v>
       </c>
       <c r="AG68" s="1">
-        <v>10666</v>
+        <v>10666.0</v>
       </c>
       <c r="AH68" s="1">
-        <v>15.404087755484699</v>
+        <v>15.4040877554847</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="A69" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>34</v>
@@ -7549,7 +7519,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>34</v>
@@ -7574,19 +7544,19 @@
       </c>
       <c r="M69" s="1"/>
       <c r="N69" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O69" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="Q69" s="2">
         <v>39542.650289351855</v>
       </c>
-      <c r="R69" s="3">
-        <v>39542.683425925927</v>
+      <c r="R69" s="2">
+        <v>39542.68342592593</v>
       </c>
       <c r="S69" s="1" t="s">
         <v>41</v>
@@ -7595,51 +7565,51 @@
         <v>11.5299230701008</v>
       </c>
       <c r="U69" s="1">
-        <v>91.002720985912006</v>
+        <v>91.002720985912</v>
       </c>
       <c r="V69" s="1">
-        <v>44.776088862905603</v>
+        <v>44.7760888629056</v>
       </c>
       <c r="W69" s="1">
-        <v>374.85472084185898</v>
+        <v>374.854720841859</v>
       </c>
       <c r="X69" s="1">
-        <v>1.1867186220211099</v>
+        <v>1.18671862202111</v>
       </c>
       <c r="Y69" s="1">
-        <v>10263</v>
+        <v>10263.0</v>
       </c>
       <c r="Z69" s="1">
-        <v>131</v>
+        <v>131.0</v>
       </c>
       <c r="AA69" s="1">
-        <v>10054</v>
+        <v>10054.0</v>
       </c>
       <c r="AB69" s="1">
-        <v>98.739657494708496</v>
+        <v>98.7396574947085</v>
       </c>
       <c r="AC69" s="1">
-        <v>5732026.6422615396</v>
+        <v>5732026.64226154</v>
       </c>
       <c r="AD69" s="1">
-        <v>73165.301582019107</v>
+        <v>73165.3015820191</v>
       </c>
       <c r="AE69" s="1">
-        <v>5805191.9438435603</v>
+        <v>5805191.94384356</v>
       </c>
       <c r="AF69" s="1">
-        <v>138457.35036084999</v>
+        <v>138457.35036085</v>
       </c>
       <c r="AG69" s="1">
-        <v>10394</v>
+        <v>10394.0</v>
       </c>
       <c r="AH69" s="1">
         <v>15.0567635174139</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="A70" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>34</v>
@@ -7651,7 +7621,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>34</v>
@@ -7676,72 +7646,72 @@
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O70" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q70" s="3">
-        <v>39542.650277777779</v>
-      </c>
-      <c r="R70" s="3">
+      <c r="Q70" s="2">
+        <v>39542.65027777778</v>
+      </c>
+      <c r="R70" s="2">
         <v>39542.679756944446</v>
       </c>
       <c r="S70" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T70" s="1">
-        <v>11.533415746948201</v>
+        <v>11.5334157469482</v>
       </c>
       <c r="U70" s="1">
-        <v>91.235848132572798</v>
+        <v>91.2358481325728</v>
       </c>
       <c r="V70" s="1">
-        <v>44.785839160839203</v>
+        <v>44.7858391608392</v>
       </c>
       <c r="W70" s="1">
-        <v>375.40044677544699</v>
+        <v>375.400446775447</v>
       </c>
       <c r="X70" s="1">
-        <v>1.1848964585110999</v>
+        <v>1.1848964585111</v>
       </c>
       <c r="Y70" s="1">
-        <v>10296</v>
+        <v>10296.0</v>
       </c>
       <c r="Z70" s="1">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="AA70" s="1">
-        <v>9998</v>
+        <v>9998.0</v>
       </c>
       <c r="AB70" s="1">
-        <v>99.028565932480504</v>
+        <v>99.0285659324805</v>
       </c>
       <c r="AC70" s="1">
-        <v>5750457.5960951801</v>
+        <v>5750457.59609518</v>
       </c>
       <c r="AD70" s="1">
-        <v>56409.889005984202</v>
+        <v>56409.8890059842</v>
       </c>
       <c r="AE70" s="1">
-        <v>5806867.4851011597</v>
+        <v>5806867.48510116</v>
       </c>
       <c r="AF70" s="1">
         <v>180791.169133068</v>
       </c>
       <c r="AG70" s="1">
-        <v>10397</v>
+        <v>10397.0</v>
       </c>
       <c r="AH70" s="1">
-        <v>16.033471193613501</v>
+        <v>16.0334711936135</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="A71" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>34</v>
@@ -7753,7 +7723,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>34</v>
@@ -7778,19 +7748,19 @@
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O71" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P71" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q71" s="3">
-        <v>39542.650277777779</v>
-      </c>
-      <c r="R71" s="3">
-        <v>39542.676076388889</v>
+      <c r="Q71" s="2">
+        <v>39542.65027777778</v>
+      </c>
+      <c r="R71" s="2">
+        <v>39542.67607638889</v>
       </c>
       <c r="S71" s="1" t="s">
         <v>41</v>
@@ -7799,10 +7769,10 @@
         <v>11.5788219887026</v>
       </c>
       <c r="U71" s="1">
-        <v>91.839484632062394</v>
+        <v>91.8394846320624</v>
       </c>
       <c r="V71" s="1">
-        <v>44.969117506453799</v>
+        <v>44.9691175064538</v>
       </c>
       <c r="W71" s="1">
         <v>378.05258628932</v>
@@ -7811,39 +7781,39 @@
         <v>1.18740226527228</v>
       </c>
       <c r="Y71" s="1">
-        <v>10459</v>
+        <v>10459.0</v>
       </c>
       <c r="Z71" s="1">
-        <v>121</v>
+        <v>121.0</v>
       </c>
       <c r="AA71" s="1">
-        <v>10176</v>
+        <v>10176.0</v>
       </c>
       <c r="AB71" s="1">
-        <v>98.856332703213596</v>
+        <v>98.8563327032136</v>
       </c>
       <c r="AC71" s="1">
-        <v>5841495.3377582999</v>
+        <v>5841495.3377583</v>
       </c>
       <c r="AD71" s="1">
-        <v>67580.164056674097</v>
+        <v>67580.1640566741</v>
       </c>
       <c r="AE71" s="1">
-        <v>5909075.5018149801</v>
+        <v>5909075.50181498</v>
       </c>
       <c r="AF71" s="1">
-        <v>259370.56353714701</v>
+        <v>259370.563537147</v>
       </c>
       <c r="AG71" s="1">
-        <v>10580</v>
+        <v>10580.0</v>
       </c>
       <c r="AH71" s="1">
         <v>15.8979206049149</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="A72" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>34</v>
@@ -7855,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>34</v>
@@ -7880,18 +7850,18 @@
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O72" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q72" s="3">
-        <v>39542.650277777779</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="Q72" s="2">
+        <v>39542.65027777778</v>
+      </c>
+      <c r="R72" s="2">
         <v>39542.672372685185</v>
       </c>
       <c r="S72" s="1" t="s">
@@ -7901,51 +7871,51 @@
         <v>11.5056568488425</v>
       </c>
       <c r="U72" s="1">
-        <v>90.644668408463005</v>
+        <v>90.644668408463</v>
       </c>
       <c r="V72" s="1">
-        <v>44.676301703162999</v>
+        <v>44.676301703163</v>
       </c>
       <c r="W72" s="1">
-        <v>373.54335766423401</v>
+        <v>373.543357664234</v>
       </c>
       <c r="X72" s="1">
-        <v>1.1857501735437099</v>
+        <v>1.18575017354371</v>
       </c>
       <c r="Y72" s="1">
-        <v>10275</v>
+        <v>10275.0</v>
       </c>
       <c r="Z72" s="1">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="AA72" s="1">
-        <v>10041</v>
+        <v>10041.0</v>
       </c>
       <c r="AB72" s="1">
-        <v>99.036144578313298</v>
+        <v>99.0361445783133</v>
       </c>
       <c r="AC72" s="1">
-        <v>5738728.8072919501</v>
+        <v>5738728.80729195</v>
       </c>
       <c r="AD72" s="1">
-        <v>55851.375253449703</v>
+        <v>55851.3752534497</v>
       </c>
       <c r="AE72" s="1">
-        <v>5794580.1825454002</v>
+        <v>5794580.1825454</v>
       </c>
       <c r="AF72" s="1">
-        <v>243893.43382649001</v>
+        <v>243893.43382649</v>
       </c>
       <c r="AG72" s="1">
-        <v>10375</v>
+        <v>10375.0</v>
       </c>
       <c r="AH72" s="1">
-        <v>15.518072289156599</v>
+        <v>15.5180722891566</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="A73" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>34</v>
@@ -7957,7 +7927,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>34</v>
@@ -7982,18 +7952,18 @@
       </c>
       <c r="M73" s="1"/>
       <c r="N73" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O73" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P73" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q73" s="3">
-        <v>39542.650277777779</v>
-      </c>
-      <c r="R73" s="3">
+      <c r="Q73" s="2">
+        <v>39542.65027777778</v>
+      </c>
+      <c r="R73" s="2">
         <v>39542.668703703705</v>
       </c>
       <c r="S73" s="1" t="s">
@@ -8003,51 +7973,51 @@
         <v>11.5849744633017</v>
       </c>
       <c r="U73" s="1">
-        <v>92.100664210622796</v>
+        <v>92.1006642106228</v>
       </c>
       <c r="V73" s="1">
         <v>44.9938326867602</v>
       </c>
       <c r="W73" s="1">
-        <v>378.46234954739901</v>
+        <v>378.462349547399</v>
       </c>
       <c r="X73" s="1">
-        <v>1.1854574931258699</v>
+        <v>1.18545749312587</v>
       </c>
       <c r="Y73" s="1">
-        <v>10053</v>
+        <v>10053.0</v>
       </c>
       <c r="Z73" s="1">
-        <v>116</v>
+        <v>116.0</v>
       </c>
       <c r="AA73" s="1">
-        <v>9878</v>
+        <v>9878.0</v>
       </c>
       <c r="AB73" s="1">
-        <v>98.859278198446205</v>
+        <v>98.8592781984462</v>
       </c>
       <c r="AC73" s="1">
-        <v>5614738.7542292997</v>
+        <v>5614738.7542293</v>
       </c>
       <c r="AD73" s="1">
         <v>64787.5952940016</v>
       </c>
       <c r="AE73" s="1">
-        <v>5679526.3495233003</v>
+        <v>5679526.3495233</v>
       </c>
       <c r="AF73" s="1">
-        <v>145676.83276330499</v>
+        <v>145676.832763305</v>
       </c>
       <c r="AG73" s="1">
-        <v>10169</v>
+        <v>10169.0</v>
       </c>
       <c r="AH73" s="1">
-        <v>14.613039630248799</v>
+        <v>14.6130396302488</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="A74" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>34</v>
@@ -8059,7 +8029,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>34</v>
@@ -8084,19 +8054,19 @@
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O74" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P74" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q74" s="3">
-        <v>39542.650277777779</v>
-      </c>
-      <c r="R74" s="3">
-        <v>39542.665046296293</v>
+      <c r="Q74" s="2">
+        <v>39542.65027777778</v>
+      </c>
+      <c r="R74" s="2">
+        <v>39542.66504629629</v>
       </c>
       <c r="S74" s="1" t="s">
         <v>41</v>
@@ -8105,51 +8075,51 @@
         <v>11.5722200294608</v>
       </c>
       <c r="U74" s="1">
-        <v>91.807204914864798</v>
+        <v>91.8072049148648</v>
       </c>
       <c r="V74" s="1">
-        <v>44.936281135354299</v>
+        <v>44.9362811353543</v>
       </c>
       <c r="W74" s="1">
-        <v>377.46910600502002</v>
+        <v>377.46910600502</v>
       </c>
       <c r="X74" s="1">
-        <v>1.1851410403279099</v>
+        <v>1.18514104032791</v>
       </c>
       <c r="Y74" s="1">
-        <v>10358</v>
+        <v>10358.0</v>
       </c>
       <c r="Z74" s="1">
-        <v>101</v>
+        <v>101.0</v>
       </c>
       <c r="AA74" s="1">
-        <v>10033</v>
+        <v>10033.0</v>
       </c>
       <c r="AB74" s="1">
-        <v>99.034324505210805</v>
+        <v>99.0343245052108</v>
       </c>
       <c r="AC74" s="1">
-        <v>5785085.4487523204</v>
+        <v>5785085.44875232</v>
       </c>
       <c r="AD74" s="1">
-        <v>56409.889005984202</v>
+        <v>56409.8890059842</v>
       </c>
       <c r="AE74" s="1">
-        <v>5841495.3377582999</v>
+        <v>5841495.3377583</v>
       </c>
       <c r="AF74" s="1">
-        <v>241489.87638337101</v>
+        <v>241489.876383371</v>
       </c>
       <c r="AG74" s="1">
-        <v>10459</v>
+        <v>10459.0</v>
       </c>
       <c r="AH74" s="1">
         <v>15.0301176020652</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="A75" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>34</v>
@@ -8161,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>34</v>
@@ -8186,72 +8156,72 @@
       </c>
       <c r="M75" s="1"/>
       <c r="N75" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O75" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P75" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q75" s="3">
-        <v>39542.650266203702</v>
-      </c>
-      <c r="R75" s="3">
-        <v>39542.661377314813</v>
+      <c r="Q75" s="2">
+        <v>39542.6502662037</v>
+      </c>
+      <c r="R75" s="2">
+        <v>39542.66137731481</v>
       </c>
       <c r="S75" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T75" s="1">
-        <v>11.560824427972999</v>
+        <v>11.560824427973</v>
       </c>
       <c r="U75" s="1">
-        <v>91.443576156056906</v>
+        <v>91.4435761560569</v>
       </c>
       <c r="V75" s="1">
-        <v>44.891817053375298</v>
+        <v>44.8918170533753</v>
       </c>
       <c r="W75" s="1">
-        <v>376.74324453356297</v>
+        <v>376.743244533563</v>
       </c>
       <c r="X75" s="1">
         <v>1.18731837195838</v>
       </c>
       <c r="Y75" s="1">
-        <v>10473</v>
+        <v>10473.0</v>
       </c>
       <c r="Z75" s="1">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AA75" s="1">
-        <v>10163</v>
+        <v>10163.0</v>
       </c>
       <c r="AB75" s="1">
-        <v>98.895184135977303</v>
+        <v>98.8951841359773</v>
       </c>
       <c r="AC75" s="1">
-        <v>5849314.5302937804</v>
+        <v>5849314.53029378</v>
       </c>
       <c r="AD75" s="1">
-        <v>65346.109046536098</v>
+        <v>65346.1090465361</v>
       </c>
       <c r="AE75" s="1">
-        <v>5914660.6393403197</v>
+        <v>5914660.63934032</v>
       </c>
       <c r="AF75" s="1">
-        <v>217859.02639385301</v>
+        <v>217859.026393853</v>
       </c>
       <c r="AG75" s="1">
-        <v>10590</v>
+        <v>10590.0</v>
       </c>
       <c r="AH75" s="1">
         <v>16.0151085930123</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="A76" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>34</v>
@@ -8263,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>34</v>
@@ -8288,55 +8258,55 @@
       </c>
       <c r="M76" s="1"/>
       <c r="N76" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O76" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P76" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q76" s="3">
-        <v>39542.650266203702</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="Q76" s="2">
+        <v>39542.6502662037</v>
+      </c>
+      <c r="R76" s="2">
         <v>39542.657685185186</v>
       </c>
       <c r="S76" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T76" s="1">
-        <v>11.534521322578099</v>
+        <v>11.5345213225781</v>
       </c>
       <c r="U76" s="1">
-        <v>91.022320695399898</v>
+        <v>91.0223206953999</v>
       </c>
       <c r="V76" s="1">
-        <v>44.794033671359699</v>
+        <v>44.7940336713597</v>
       </c>
       <c r="W76" s="1">
-        <v>375.11223786551102</v>
+        <v>375.112237865511</v>
       </c>
       <c r="X76" s="1">
         <v>1.18770786984591</v>
       </c>
       <c r="Y76" s="1">
-        <v>10157</v>
+        <v>10157.0</v>
       </c>
       <c r="Z76" s="1">
-        <v>128</v>
+        <v>128.0</v>
       </c>
       <c r="AA76" s="1">
-        <v>9865</v>
+        <v>9865.0</v>
       </c>
       <c r="AB76" s="1">
-        <v>98.755469129800701</v>
+        <v>98.7554691298007</v>
       </c>
       <c r="AC76" s="1">
-        <v>5672824.1844928795</v>
+        <v>5672824.18449288</v>
       </c>
       <c r="AD76" s="1">
-        <v>71489.760324415605</v>
+        <v>71489.7603244156</v>
       </c>
       <c r="AE76" s="1">
         <v>5744313.9448173</v>
@@ -8345,15 +8315,15 @@
         <v>223961.925553026</v>
       </c>
       <c r="AG76" s="1">
-        <v>10285</v>
+        <v>10285.0</v>
       </c>
       <c r="AH76" s="1">
-        <v>16.091395235780301</v>
+        <v>16.0913952357803</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="A77" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>34</v>
@@ -8365,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>34</v>
@@ -8390,72 +8360,72 @@
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O77" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P77" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q77" s="3">
-        <v>39542.650173611109</v>
-      </c>
-      <c r="R77" s="3">
+      <c r="Q77" s="2">
+        <v>39542.65017361111</v>
+      </c>
+      <c r="R77" s="2">
         <v>39542.654016203705</v>
       </c>
       <c r="S77" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T77" s="1">
-        <v>11.623528670668399</v>
+        <v>11.6235286706684</v>
       </c>
       <c r="U77" s="1">
-        <v>92.651487440695306</v>
+        <v>92.6514874406953</v>
       </c>
       <c r="V77" s="1">
-        <v>45.141949980461099</v>
+        <v>45.1419499804611</v>
       </c>
       <c r="W77" s="1">
-        <v>380.50703399765501</v>
+        <v>380.507033997655</v>
       </c>
       <c r="X77" s="1">
-        <v>1.1868362103469099</v>
+        <v>1.18683621034691</v>
       </c>
       <c r="Y77" s="1">
-        <v>10236</v>
+        <v>10236.0</v>
       </c>
       <c r="Z77" s="1">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="AA77" s="1">
-        <v>9967</v>
+        <v>9967.0</v>
       </c>
       <c r="AB77" s="1">
-        <v>98.793552745873995</v>
+        <v>98.793552745874</v>
       </c>
       <c r="AC77" s="1">
-        <v>5716946.7709431099</v>
+        <v>5716946.77094311</v>
       </c>
       <c r="AD77" s="1">
-        <v>69814.219066812104</v>
+        <v>69814.2190668121</v>
       </c>
       <c r="AE77" s="1">
-        <v>5786760.9900099197</v>
+        <v>5786760.99000992</v>
       </c>
       <c r="AF77" s="1">
-        <v>144994.30086338599</v>
+        <v>144994.300863386</v>
       </c>
       <c r="AG77" s="1">
-        <v>10361</v>
+        <v>10361.0</v>
       </c>
       <c r="AH77" s="1">
         <v>15.6259048354406</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="A78" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>34</v>
@@ -8467,7 +8437,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>34</v>
@@ -8492,72 +8462,72 @@
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O78" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q78" s="3">
-        <v>39542.618773148148</v>
-      </c>
-      <c r="R78" s="3">
+      <c r="Q78" s="2">
+        <v>39542.61877314815</v>
+      </c>
+      <c r="R78" s="2">
         <v>39542.649930555555</v>
       </c>
       <c r="S78" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T78" s="1">
-        <v>10.895003567246199</v>
+        <v>10.8950035672462</v>
       </c>
       <c r="U78" s="1">
-        <v>79.402046680532294</v>
+        <v>79.4020466805323</v>
       </c>
       <c r="V78" s="1">
-        <v>42.282133090246099</v>
+        <v>42.2821330902461</v>
       </c>
       <c r="W78" s="1">
-        <v>339.64448495897898</v>
+        <v>339.644484958979</v>
       </c>
       <c r="X78" s="1">
-        <v>1.2010958836304999</v>
+        <v>1.2010958836305</v>
       </c>
       <c r="Y78" s="1">
-        <v>2194</v>
+        <v>2194.0</v>
       </c>
       <c r="Z78" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AA78" s="1">
-        <v>2303</v>
+        <v>2303.0</v>
       </c>
       <c r="AB78" s="1">
-        <v>99.591466182478399</v>
+        <v>99.5914661824784</v>
       </c>
       <c r="AC78" s="1">
-        <v>1225379.1730606901</v>
+        <v>1225379.17306069</v>
       </c>
       <c r="AD78" s="1">
-        <v>5026.6237728104697</v>
+        <v>5026.62377281047</v>
       </c>
       <c r="AE78" s="1">
         <v>1230405.7968335</v>
       </c>
       <c r="AF78" s="1">
-        <v>107536.74322548301</v>
+        <v>107536.743225483</v>
       </c>
       <c r="AG78" s="1">
-        <v>2203</v>
+        <v>2203.0</v>
       </c>
       <c r="AH78" s="1">
-        <v>6.9904675442578297</v>
+        <v>6.99046754425783</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="A79" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>34</v>
@@ -8569,7 +8539,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>34</v>
@@ -8594,72 +8564,72 @@
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O79" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P79" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q79" s="3">
-        <v>39542.618761574071</v>
-      </c>
-      <c r="R79" s="3">
+      <c r="Q79" s="2">
+        <v>39542.61876157407</v>
+      </c>
+      <c r="R79" s="2">
         <v>39542.646840277775</v>
       </c>
       <c r="S79" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T79" s="1">
-        <v>10.906966536252501</v>
+        <v>10.9069665362525</v>
       </c>
       <c r="U79" s="1">
-        <v>79.607156078901895</v>
+        <v>79.6071560789019</v>
       </c>
       <c r="V79" s="1">
-        <v>42.319159335288397</v>
+        <v>42.3191593352884</v>
       </c>
       <c r="W79" s="1">
-        <v>340.59872922776202</v>
+        <v>340.598729227762</v>
       </c>
       <c r="X79" s="1">
         <v>1.20104967074424</v>
       </c>
       <c r="Y79" s="1">
-        <v>2046</v>
+        <v>2046.0</v>
       </c>
       <c r="Z79" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AA79" s="1">
-        <v>2180</v>
+        <v>2180.0</v>
       </c>
       <c r="AB79" s="1">
-        <v>99.610516066212298</v>
+        <v>99.6105160662123</v>
       </c>
       <c r="AC79" s="1">
-        <v>1142719.1376855799</v>
+        <v>1142719.13768558</v>
       </c>
       <c r="AD79" s="1">
-        <v>4468.1100202759699</v>
+        <v>4468.11002027597</v>
       </c>
       <c r="AE79" s="1">
-        <v>1147187.2477058601</v>
+        <v>1147187.24770586</v>
       </c>
       <c r="AF79" s="1">
         <v>114161.085400225</v>
       </c>
       <c r="AG79" s="1">
-        <v>2054</v>
+        <v>2054.0</v>
       </c>
       <c r="AH79" s="1">
         <v>7.59493670886076</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="A80" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>34</v>
@@ -8671,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>34</v>
@@ -8696,72 +8666,72 @@
       </c>
       <c r="M80" s="1"/>
       <c r="N80" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O80" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P80" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q80" s="3">
-        <v>39542.618761574071</v>
-      </c>
-      <c r="R80" s="3">
-        <v>39542.643761574072</v>
+      <c r="Q80" s="2">
+        <v>39542.61876157407</v>
+      </c>
+      <c r="R80" s="2">
+        <v>39542.64376157407</v>
       </c>
       <c r="S80" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T80" s="1">
-        <v>10.874034349657499</v>
+        <v>10.8740343496575</v>
       </c>
       <c r="U80" s="1">
-        <v>79.501285102446005</v>
+        <v>79.501285102446</v>
       </c>
       <c r="V80" s="1">
-        <v>42.192898272552803</v>
+        <v>42.1928982725528</v>
       </c>
       <c r="W80" s="1">
-        <v>339.82917466410697</v>
+        <v>339.829174664107</v>
       </c>
       <c r="X80" s="1">
         <v>1.2009951821592</v>
       </c>
       <c r="Y80" s="1">
-        <v>2084</v>
+        <v>2084.0</v>
       </c>
       <c r="Z80" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AA80" s="1">
-        <v>2225</v>
+        <v>2225.0</v>
       </c>
       <c r="AB80" s="1">
-        <v>99.569995222169098</v>
+        <v>99.5699952221691</v>
       </c>
       <c r="AC80" s="1">
-        <v>1163942.6602818901</v>
+        <v>1163942.66028189</v>
       </c>
       <c r="AD80" s="1">
-        <v>5026.6237728104697</v>
+        <v>5026.62377281047</v>
       </c>
       <c r="AE80" s="1">
-        <v>1168969.2840547001</v>
+        <v>1168969.2840547</v>
       </c>
       <c r="AF80" s="1">
-        <v>75748.138134876994</v>
+        <v>75748.138134877</v>
       </c>
       <c r="AG80" s="1">
-        <v>2093</v>
+        <v>2093.0</v>
       </c>
       <c r="AH80" s="1">
-        <v>7.4056378404204501</v>
+        <v>7.40563784042045</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="A81" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>34</v>
@@ -8773,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>34</v>
@@ -8798,72 +8768,72 @@
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O81" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q81" s="3">
-        <v>39542.618761574071</v>
-      </c>
-      <c r="R81" s="3">
-        <v>39542.640682870369</v>
+      <c r="Q81" s="2">
+        <v>39542.61876157407</v>
+      </c>
+      <c r="R81" s="2">
+        <v>39542.64068287037</v>
       </c>
       <c r="S81" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T81" s="1">
-        <v>10.910212028985701</v>
+        <v>10.9102120289857</v>
       </c>
       <c r="U81" s="1">
-        <v>79.661127094918001</v>
+        <v>79.661127094918</v>
       </c>
       <c r="V81" s="1">
-        <v>42.336685823754799</v>
+        <v>42.3366858237548</v>
       </c>
       <c r="W81" s="1">
-        <v>340.92432950191602</v>
+        <v>340.924329501916</v>
       </c>
       <c r="X81" s="1">
         <v>1.20342434549861</v>
       </c>
       <c r="Y81" s="1">
-        <v>2088</v>
+        <v>2088.0</v>
       </c>
       <c r="Z81" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA81" s="1">
-        <v>2230</v>
+        <v>2230.0</v>
       </c>
       <c r="AB81" s="1">
-        <v>99.523355576739704</v>
+        <v>99.5233555767397</v>
       </c>
       <c r="AC81" s="1">
         <v>1166176.71529203</v>
       </c>
       <c r="AD81" s="1">
-        <v>5585.1375253449696</v>
+        <v>5585.13752534497</v>
       </c>
       <c r="AE81" s="1">
-        <v>1171761.8528173701</v>
+        <v>1171761.85281737</v>
       </c>
       <c r="AF81" s="1">
-        <v>68467.499075707703</v>
+        <v>68467.4990757077</v>
       </c>
       <c r="AG81" s="1">
-        <v>2098</v>
+        <v>2098.0</v>
       </c>
       <c r="AH81" s="1">
-        <v>6.4823641563393704</v>
+        <v>6.48236415633937</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="A82" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>34</v>
@@ -8875,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>34</v>
@@ -8900,72 +8870,72 @@
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O82" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q82" s="3">
-        <v>39542.618750000001</v>
-      </c>
-      <c r="R82" s="3">
+      <c r="Q82" s="2">
+        <v>39542.61875</v>
+      </c>
+      <c r="R82" s="2">
         <v>39542.637604166666</v>
       </c>
       <c r="S82" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T82" s="1">
-        <v>10.884954702203901</v>
+        <v>10.8849547022039</v>
       </c>
       <c r="U82" s="1">
-        <v>79.301862178284296</v>
+        <v>79.3018621782843</v>
       </c>
       <c r="V82" s="1">
-        <v>42.229292929292903</v>
+        <v>42.2292929292929</v>
       </c>
       <c r="W82" s="1">
-        <v>339.58080808080803</v>
+        <v>339.580808080808</v>
       </c>
       <c r="X82" s="1">
-        <v>1.2018365122347401</v>
+        <v>1.20183651223474</v>
       </c>
       <c r="Y82" s="1">
-        <v>1980</v>
+        <v>1980.0</v>
       </c>
       <c r="Z82" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AA82" s="1">
-        <v>2117</v>
+        <v>2117.0</v>
       </c>
       <c r="AB82" s="1">
-        <v>99.447513812154696</v>
+        <v>99.4475138121547</v>
       </c>
       <c r="AC82" s="1">
         <v>1105857.2300183</v>
       </c>
       <c r="AD82" s="1">
-        <v>6143.6512778794604</v>
+        <v>6143.65127787946</v>
       </c>
       <c r="AE82" s="1">
         <v>1112000.88129618</v>
       </c>
       <c r="AF82" s="1">
-        <v>71117.905180351401</v>
+        <v>71117.9051803514</v>
       </c>
       <c r="AG82" s="1">
-        <v>1991</v>
+        <v>1991.0</v>
       </c>
       <c r="AH82" s="1">
-        <v>7.0316423907584102</v>
+        <v>7.03164239075841</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="A83" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>34</v>
@@ -8977,7 +8947,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>34</v>
@@ -9002,72 +8972,72 @@
       </c>
       <c r="M83" s="1"/>
       <c r="N83" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O83" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q83" s="3">
-        <v>39542.618750000001</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="2">
+        <v>39542.61875</v>
+      </c>
+      <c r="R83" s="2">
         <v>39542.63453703704</v>
       </c>
       <c r="S83" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T83" s="1">
-        <v>10.901546087030299</v>
+        <v>10.9015460870303</v>
       </c>
       <c r="U83" s="1">
-        <v>80.030540007496498</v>
+        <v>80.0305400074965</v>
       </c>
       <c r="V83" s="1">
-        <v>42.305374183827197</v>
+        <v>42.3053741838272</v>
       </c>
       <c r="W83" s="1">
-        <v>341.86137619286802</v>
+        <v>341.861376192868</v>
       </c>
       <c r="X83" s="1">
         <v>1.201872630402</v>
       </c>
       <c r="Y83" s="1">
-        <v>1991</v>
+        <v>1991.0</v>
       </c>
       <c r="Z83" s="1">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="AA83" s="1">
-        <v>2128</v>
+        <v>2128.0</v>
       </c>
       <c r="AB83" s="1">
-        <v>99.400898652021993</v>
+        <v>99.400898652022</v>
       </c>
       <c r="AC83" s="1">
         <v>1112000.88129618</v>
       </c>
       <c r="AD83" s="1">
-        <v>6702.1650304139603</v>
+        <v>6702.16503041396</v>
       </c>
       <c r="AE83" s="1">
         <v>1118703.0463266</v>
       </c>
       <c r="AF83" s="1">
-        <v>68635.863897477306</v>
+        <v>68635.8638974773</v>
       </c>
       <c r="AG83" s="1">
-        <v>2003</v>
+        <v>2003.0</v>
       </c>
       <c r="AH83" s="1">
-        <v>7.4887668497254101</v>
+        <v>7.48876684972541</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="A84" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>34</v>
@@ -9079,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>34</v>
@@ -9104,72 +9074,72 @@
       </c>
       <c r="M84" s="1"/>
       <c r="N84" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O84" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q84" s="3">
-        <v>39542.618750000001</v>
-      </c>
-      <c r="R84" s="3">
-        <v>39542.631469907406</v>
+      <c r="Q84" s="2">
+        <v>39542.61875</v>
+      </c>
+      <c r="R84" s="2">
+        <v>39542.63146990741</v>
       </c>
       <c r="S84" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T84" s="1">
-        <v>10.781528743131799</v>
+        <v>10.7815287431318</v>
       </c>
       <c r="U84" s="1">
-        <v>77.937274045827905</v>
+        <v>77.9372740458279</v>
       </c>
       <c r="V84" s="1">
-        <v>41.839046199701897</v>
+        <v>41.8390461997019</v>
       </c>
       <c r="W84" s="1">
-        <v>333.93790362642801</v>
+        <v>333.937903626428</v>
       </c>
       <c r="X84" s="1">
         <v>1.1978398176036</v>
       </c>
       <c r="Y84" s="1">
-        <v>2013</v>
+        <v>2013.0</v>
       </c>
       <c r="Z84" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA84" s="1">
-        <v>2161</v>
+        <v>2161.0</v>
       </c>
       <c r="AB84" s="1">
-        <v>99.505684626791904</v>
+        <v>99.5056846267919</v>
       </c>
       <c r="AC84" s="1">
-        <v>1124288.1838519401</v>
+        <v>1124288.18385194</v>
       </c>
       <c r="AD84" s="1">
-        <v>5585.1375253449696</v>
+        <v>5585.13752534497</v>
       </c>
       <c r="AE84" s="1">
-        <v>1129873.3213772899</v>
+        <v>1129873.32137729</v>
       </c>
       <c r="AF84" s="1">
-        <v>99182.985056832797</v>
+        <v>99182.9850568328</v>
       </c>
       <c r="AG84" s="1">
-        <v>2023</v>
+        <v>2023.0</v>
       </c>
       <c r="AH84" s="1">
-        <v>7.6124567474048401</v>
+        <v>7.61245674740484</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="A85" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>34</v>
@@ -9181,7 +9151,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>34</v>
@@ -9206,18 +9176,18 @@
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O85" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q85" s="3">
-        <v>39542.618750000001</v>
-      </c>
-      <c r="R85" s="3">
+      <c r="Q85" s="2">
+        <v>39542.61875</v>
+      </c>
+      <c r="R85" s="2">
         <v>39542.62840277778</v>
       </c>
       <c r="S85" s="1" t="s">
@@ -9227,10 +9197,10 @@
         <v>10.8841488040656</v>
       </c>
       <c r="U85" s="1">
-        <v>79.369540205013806</v>
+        <v>79.3695402050138</v>
       </c>
       <c r="V85" s="1">
-        <v>42.225366346639703</v>
+        <v>42.2253663466397</v>
       </c>
       <c r="W85" s="1">
         <v>340.278423446185</v>
@@ -9239,39 +9209,39 @@
         <v>1.20439421563536</v>
       </c>
       <c r="Y85" s="1">
-        <v>1979</v>
+        <v>1979.0</v>
       </c>
       <c r="Z85" s="1">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="AA85" s="1">
-        <v>2151</v>
+        <v>2151.0</v>
       </c>
       <c r="AB85" s="1">
-        <v>99.447236180904497</v>
+        <v>99.4472361809045</v>
       </c>
       <c r="AC85" s="1">
-        <v>1105298.7162657699</v>
+        <v>1105298.71626577</v>
       </c>
       <c r="AD85" s="1">
-        <v>6143.6512778794604</v>
+        <v>6143.65127787946</v>
       </c>
       <c r="AE85" s="1">
-        <v>1111442.3675436501</v>
+        <v>1111442.36754365</v>
       </c>
       <c r="AF85" s="1">
-        <v>57778.510894313498</v>
+        <v>57778.5108943135</v>
       </c>
       <c r="AG85" s="1">
-        <v>1990</v>
+        <v>1990.0</v>
       </c>
       <c r="AH85" s="1">
-        <v>6.9849246231155799</v>
+        <v>6.98492462311558</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="A86" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>34</v>
@@ -9283,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>34</v>
@@ -9308,72 +9278,72 @@
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O86" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P86" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q86" s="3">
-        <v>39542.618750000001</v>
-      </c>
-      <c r="R86" s="3">
-        <v>39542.625335648147</v>
+      <c r="Q86" s="2">
+        <v>39542.61875</v>
+      </c>
+      <c r="R86" s="2">
+        <v>39542.62533564815</v>
       </c>
       <c r="S86" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T86" s="1">
-        <v>10.934809172810301</v>
+        <v>10.9348091728103</v>
       </c>
       <c r="U86" s="1">
-        <v>79.983378046268996</v>
+        <v>79.983378046269</v>
       </c>
       <c r="V86" s="1">
-        <v>42.439785470502201</v>
+        <v>42.4397854705022</v>
       </c>
       <c r="W86" s="1">
-        <v>342.40419307654798</v>
+        <v>342.404193076548</v>
       </c>
       <c r="X86" s="1">
-        <v>1.2045547127938701</v>
+        <v>1.20455471279387</v>
       </c>
       <c r="Y86" s="1">
-        <v>2051</v>
+        <v>2051.0</v>
       </c>
       <c r="Z86" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AA86" s="1">
-        <v>2235</v>
+        <v>2235.0</v>
       </c>
       <c r="AB86" s="1">
-        <v>99.611461874696403</v>
+        <v>99.6114618746964</v>
       </c>
       <c r="AC86" s="1">
         <v>1145511.70644825</v>
       </c>
       <c r="AD86" s="1">
-        <v>4468.1100202759699</v>
+        <v>4468.11002027597</v>
       </c>
       <c r="AE86" s="1">
-        <v>1149979.8164685301</v>
+        <v>1149979.81646853</v>
       </c>
       <c r="AF86" s="1">
-        <v>68903.486494820507</v>
+        <v>68903.4864948205</v>
       </c>
       <c r="AG86" s="1">
-        <v>2059</v>
+        <v>2059.0</v>
       </c>
       <c r="AH86" s="1">
-        <v>7.0422535211267601</v>
+        <v>7.04225352112676</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="A87" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>34</v>
@@ -9385,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>34</v>
@@ -9410,55 +9380,55 @@
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O87" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q87" s="3">
-        <v>39542.618611111109</v>
-      </c>
-      <c r="R87" s="3">
+      <c r="Q87" s="2">
+        <v>39542.61861111111</v>
+      </c>
+      <c r="R87" s="2">
         <v>39542.62228009259</v>
       </c>
       <c r="S87" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T87" s="1">
-        <v>10.859927054141499</v>
+        <v>10.8599270541415</v>
       </c>
       <c r="U87" s="1">
-        <v>78.598307225871096</v>
+        <v>78.5983072258711</v>
       </c>
       <c r="V87" s="1">
-        <v>42.133205558217497</v>
+        <v>42.1332055582175</v>
       </c>
       <c r="W87" s="1">
-        <v>337.80689985625298</v>
+        <v>337.806899856253</v>
       </c>
       <c r="X87" s="1">
-        <v>1.2062381291984701</v>
+        <v>1.20623812919847</v>
       </c>
       <c r="Y87" s="1">
-        <v>2087</v>
+        <v>2087.0</v>
       </c>
       <c r="Z87" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AA87" s="1">
-        <v>2238</v>
+        <v>2238.0</v>
       </c>
       <c r="AB87" s="1">
-        <v>99.618138424820998</v>
+        <v>99.618138424821</v>
       </c>
       <c r="AC87" s="1">
-        <v>1165618.2015394899</v>
+        <v>1165618.20153949</v>
       </c>
       <c r="AD87" s="1">
-        <v>4468.1100202759699</v>
+        <v>4468.11002027597</v>
       </c>
       <c r="AE87" s="1">
         <v>1170086.31155977</v>
@@ -9467,15 +9437,15 @@
         <v>51292.1223743917</v>
       </c>
       <c r="AG87" s="1">
-        <v>2095</v>
+        <v>2095.0</v>
       </c>
       <c r="AH87" s="1">
-        <v>7.5417661097851996</v>
+        <v>7.5417661097852</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="A88" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>34</v>
@@ -9487,7 +9457,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>34</v>
@@ -9512,72 +9482,72 @@
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O88" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P88" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q88" s="3">
-        <v>39542.584537037037</v>
-      </c>
-      <c r="R88" s="3">
-        <v>39542.618078703701</v>
+      <c r="Q88" s="2">
+        <v>39542.58453703704</v>
+      </c>
+      <c r="R88" s="2">
+        <v>39542.6180787037</v>
       </c>
       <c r="S88" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T88" s="1">
-        <v>10.803648906183501</v>
+        <v>10.8036489061835</v>
       </c>
       <c r="U88" s="1">
-        <v>77.594303061387606</v>
+        <v>77.5943030613876</v>
       </c>
       <c r="V88" s="1">
-        <v>41.918246445497601</v>
+        <v>41.9182464454976</v>
       </c>
       <c r="W88" s="1">
-        <v>335.54857819905197</v>
+        <v>335.548578199052</v>
       </c>
       <c r="X88" s="1">
-        <v>1.2075262527386501</v>
+        <v>1.20752625273865</v>
       </c>
       <c r="Y88" s="1">
-        <v>844</v>
+        <v>844.0</v>
       </c>
       <c r="Z88" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AA88" s="1">
-        <v>964</v>
+        <v>964.0</v>
       </c>
       <c r="AB88" s="1">
         <v>98.9449003516999</v>
       </c>
       <c r="AC88" s="1">
-        <v>471385.60713911499</v>
+        <v>471385.607139115</v>
       </c>
       <c r="AD88" s="1">
-        <v>5026.6237728104697</v>
+        <v>5026.62377281047</v>
       </c>
       <c r="AE88" s="1">
-        <v>476412.23091192602</v>
+        <v>476412.230911926</v>
       </c>
       <c r="AF88" s="1">
         <v>52613.0627016566</v>
       </c>
       <c r="AG88" s="1">
-        <v>853</v>
+        <v>853.0</v>
       </c>
       <c r="AH88" s="1">
-        <v>4.5720984759671701</v>
+        <v>4.57209847596717</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="A89" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>34</v>
@@ -9589,7 +9559,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>34</v>
@@ -9614,19 +9584,19 @@
       </c>
       <c r="M89" s="1"/>
       <c r="N89" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O89" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q89" s="3">
-        <v>39542.584537037037</v>
-      </c>
-      <c r="R89" s="3">
-        <v>39542.615057870367</v>
+      <c r="Q89" s="2">
+        <v>39542.58453703704</v>
+      </c>
+      <c r="R89" s="2">
+        <v>39542.61505787037</v>
       </c>
       <c r="S89" s="1" t="s">
         <v>41</v>
@@ -9635,51 +9605,51 @@
         <v>11.0872841771716</v>
       </c>
       <c r="U89" s="1">
-        <v>82.050065757036805</v>
+        <v>82.0500657570368</v>
       </c>
       <c r="V89" s="1">
-        <v>43.037473233404697</v>
+        <v>43.0374732334047</v>
       </c>
       <c r="W89" s="1">
         <v>350.60278372591</v>
       </c>
       <c r="X89" s="1">
-        <v>1.2075442963334899</v>
+        <v>1.20754429633349</v>
       </c>
       <c r="Y89" s="1">
-        <v>934</v>
+        <v>934.0</v>
       </c>
       <c r="Z89" s="1">
-        <v>9</v>
+        <v>9.0</v>
       </c>
       <c r="AA89" s="1">
-        <v>1040</v>
+        <v>1040.0</v>
       </c>
       <c r="AB89" s="1">
         <v>99.0455991516437</v>
       </c>
       <c r="AC89" s="1">
-        <v>521651.84486721997</v>
+        <v>521651.84486722</v>
       </c>
       <c r="AD89" s="1">
-        <v>5026.6237728104697</v>
+        <v>5026.62377281047</v>
       </c>
       <c r="AE89" s="1">
-        <v>526678.46864003001</v>
+        <v>526678.46864003</v>
       </c>
       <c r="AF89" s="1">
-        <v>52855.588645039199</v>
+        <v>52855.5886450392</v>
       </c>
       <c r="AG89" s="1">
-        <v>943</v>
+        <v>943.0</v>
       </c>
       <c r="AH89" s="1">
-        <v>8.2714740190880196</v>
+        <v>8.27147401908802</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="A90" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>34</v>
@@ -9691,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>34</v>
@@ -9716,18 +9686,18 @@
       </c>
       <c r="M90" s="1"/>
       <c r="N90" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O90" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q90" s="3">
-        <v>39542.584537037037</v>
-      </c>
-      <c r="R90" s="3">
+      <c r="Q90" s="2">
+        <v>39542.58453703704</v>
+      </c>
+      <c r="R90" s="2">
         <v>39542.61204861111</v>
       </c>
       <c r="S90" s="1" t="s">
@@ -9737,10 +9707,10 @@
         <v>10.6629464792022</v>
       </c>
       <c r="U90" s="1">
-        <v>75.392396056515196</v>
+        <v>75.3923960565152</v>
       </c>
       <c r="V90" s="1">
-        <v>41.362884160756501</v>
+        <v>41.3628841607565</v>
       </c>
       <c r="W90" s="1">
         <v>327.009456264775</v>
@@ -9749,39 +9719,39 @@
         <v>1.20956783028958</v>
       </c>
       <c r="Y90" s="1">
-        <v>846</v>
+        <v>846.0</v>
       </c>
       <c r="Z90" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA90" s="1">
-        <v>1013</v>
+        <v>1013.0</v>
       </c>
       <c r="AB90" s="1">
-        <v>99.179366940210997</v>
+        <v>99.179366940211</v>
       </c>
       <c r="AC90" s="1">
-        <v>472502.63464418403</v>
+        <v>472502.634644184</v>
       </c>
       <c r="AD90" s="1">
         <v>3909.59626774148</v>
       </c>
       <c r="AE90" s="1">
-        <v>476412.23091192602</v>
+        <v>476412.230911926</v>
       </c>
       <c r="AF90" s="1">
-        <v>62563.512948778996</v>
+        <v>62563.512948779</v>
       </c>
       <c r="AG90" s="1">
-        <v>853</v>
+        <v>853.0</v>
       </c>
       <c r="AH90" s="1">
-        <v>4.5720984759671701</v>
+        <v>4.57209847596717</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="A91" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>34</v>
@@ -9793,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>34</v>
@@ -9818,72 +9788,72 @@
       </c>
       <c r="M91" s="1"/>
       <c r="N91" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O91" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="2">
         <v>39542.58452546296</v>
       </c>
-      <c r="R91" s="3">
-        <v>39542.609050925923</v>
+      <c r="R91" s="2">
+        <v>39542.60905092592</v>
       </c>
       <c r="S91" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T91" s="1">
-        <v>10.866922942451801</v>
+        <v>10.8669229424518</v>
       </c>
       <c r="U91" s="1">
-        <v>78.203873028828497</v>
+        <v>78.2038730288285</v>
       </c>
       <c r="V91" s="1">
-        <v>42.157894736842103</v>
+        <v>42.1578947368421</v>
       </c>
       <c r="W91" s="1">
-        <v>338.18077803203698</v>
+        <v>338.180778032037</v>
       </c>
       <c r="X91" s="1">
-        <v>1.2135647684187201</v>
+        <v>1.21356476841872</v>
       </c>
       <c r="Y91" s="1">
-        <v>874</v>
+        <v>874.0</v>
       </c>
       <c r="Z91" s="1">
-        <v>3</v>
+        <v>3.0</v>
       </c>
       <c r="AA91" s="1">
-        <v>1014</v>
+        <v>1014.0</v>
       </c>
       <c r="AB91" s="1">
-        <v>99.657924743443601</v>
+        <v>99.6579247434436</v>
       </c>
       <c r="AC91" s="1">
         <v>488141.01971515</v>
       </c>
       <c r="AD91" s="1">
-        <v>1675.5412576034901</v>
+        <v>1675.54125760349</v>
       </c>
       <c r="AE91" s="1">
-        <v>489816.56097275403</v>
+        <v>489816.560972754</v>
       </c>
       <c r="AF91" s="1">
         <v>40844.1225606187</v>
       </c>
       <c r="AG91" s="1">
-        <v>877</v>
+        <v>877.0</v>
       </c>
       <c r="AH91" s="1">
-        <v>5.0171037628278201</v>
+        <v>5.01710376282782</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="A92" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>34</v>
@@ -9895,7 +9865,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>34</v>
@@ -9920,19 +9890,19 @@
       </c>
       <c r="M92" s="1"/>
       <c r="N92" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O92" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q92" s="3">
+      <c r="Q92" s="2">
         <v>39542.58452546296</v>
       </c>
-      <c r="R92" s="3">
-        <v>39542.606006944443</v>
+      <c r="R92" s="2">
+        <v>39542.60600694444</v>
       </c>
       <c r="S92" s="1" t="s">
         <v>41</v>
@@ -9941,51 +9911,51 @@
         <v>10.9043549284001</v>
       </c>
       <c r="U92" s="1">
-        <v>79.111270317170195</v>
+        <v>79.1112703171702</v>
       </c>
       <c r="V92" s="1">
-        <v>42.312371134020601</v>
+        <v>42.3123711340206</v>
       </c>
       <c r="W92" s="1">
-        <v>341.23917525773197</v>
+        <v>341.239175257732</v>
       </c>
       <c r="X92" s="1">
         <v>1.21254772478372</v>
       </c>
       <c r="Y92" s="1">
-        <v>970</v>
+        <v>970.0</v>
       </c>
       <c r="Z92" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AA92" s="1">
-        <v>1101</v>
+        <v>1101.0</v>
       </c>
       <c r="AB92" s="1">
-        <v>99.487179487179503</v>
+        <v>99.4871794871795</v>
       </c>
       <c r="AC92" s="1">
-        <v>541758.33995846205</v>
+        <v>541758.339958462</v>
       </c>
       <c r="AD92" s="1">
-        <v>2792.5687626724798</v>
+        <v>2792.56876267248</v>
       </c>
       <c r="AE92" s="1">
-        <v>544550.90872113395</v>
+        <v>544550.908721134</v>
       </c>
       <c r="AF92" s="1">
-        <v>68476.610460281401</v>
+        <v>68476.6104602814</v>
       </c>
       <c r="AG92" s="1">
-        <v>975</v>
+        <v>975.0</v>
       </c>
       <c r="AH92" s="1">
-        <v>6.6666666666666696</v>
+        <v>6.66666666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="A93" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>34</v>
@@ -9997,7 +9967,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>34</v>
@@ -10022,46 +9992,46 @@
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O93" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q93" s="3">
+      <c r="Q93" s="2">
         <v>39542.58452546296</v>
       </c>
-      <c r="R93" s="3">
+      <c r="R93" s="2">
         <v>39542.60297453704</v>
       </c>
       <c r="S93" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T93" s="1">
-        <v>10.995301608959499</v>
+        <v>10.9953016089595</v>
       </c>
       <c r="U93" s="1">
-        <v>80.318869216882106</v>
+        <v>80.3188692168821</v>
       </c>
       <c r="V93" s="1">
         <v>42.6673640167364</v>
       </c>
       <c r="W93" s="1">
-        <v>347.19037656903799</v>
+        <v>347.190376569038</v>
       </c>
       <c r="X93" s="1">
         <v>1.21781342514297</v>
       </c>
       <c r="Y93" s="1">
-        <v>956</v>
+        <v>956.0</v>
       </c>
       <c r="Z93" s="1">
-        <v>10</v>
+        <v>10.0</v>
       </c>
       <c r="AA93" s="1">
-        <v>1114</v>
+        <v>1114.0</v>
       </c>
       <c r="AB93" s="1">
         <v>98.9648033126294</v>
@@ -10070,24 +10040,24 @@
         <v>533939.147422979</v>
       </c>
       <c r="AD93" s="1">
-        <v>5585.1375253449696</v>
+        <v>5585.13752534497</v>
       </c>
       <c r="AE93" s="1">
-        <v>539524.28494832397</v>
+        <v>539524.284948324</v>
       </c>
       <c r="AF93" s="1">
-        <v>58273.088486281697</v>
+        <v>58273.0884862817</v>
       </c>
       <c r="AG93" s="1">
-        <v>966</v>
+        <v>966.0</v>
       </c>
       <c r="AH93" s="1">
-        <v>5.1759834368530004</v>
+        <v>5.175983436853</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="A94" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>34</v>
@@ -10099,7 +10069,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>34</v>
@@ -10124,18 +10094,18 @@
       </c>
       <c r="M94" s="1"/>
       <c r="N94" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O94" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P94" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="2">
         <v>39542.58452546296</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="2">
         <v>39542.599965277775</v>
       </c>
       <c r="S94" s="1" t="s">
@@ -10145,51 +10115,51 @@
         <v>10.883564690001</v>
       </c>
       <c r="U94" s="1">
-        <v>78.157039464451003</v>
+        <v>78.157039464451</v>
       </c>
       <c r="V94" s="1">
-        <v>42.223804679552401</v>
+        <v>42.2238046795524</v>
       </c>
       <c r="W94" s="1">
-        <v>340.23702950152602</v>
+        <v>340.237029501526</v>
       </c>
       <c r="X94" s="1">
-        <v>1.2200202812721901</v>
+        <v>1.22002028127219</v>
       </c>
       <c r="Y94" s="1">
-        <v>983</v>
+        <v>983.0</v>
       </c>
       <c r="Z94" s="1">
-        <v>7</v>
+        <v>7.0</v>
       </c>
       <c r="AA94" s="1">
-        <v>1149</v>
+        <v>1149.0</v>
       </c>
       <c r="AB94" s="1">
-        <v>99.292929292929301</v>
+        <v>99.2929292929293</v>
       </c>
       <c r="AC94" s="1">
-        <v>549019.01874140999</v>
+        <v>549019.01874141</v>
       </c>
       <c r="AD94" s="1">
         <v>3909.59626774148</v>
       </c>
       <c r="AE94" s="1">
-        <v>552928.61500915198</v>
+        <v>552928.615009152</v>
       </c>
       <c r="AF94" s="1">
-        <v>84196.758637662395</v>
+        <v>84196.7586376624</v>
       </c>
       <c r="AG94" s="1">
-        <v>990</v>
+        <v>990.0</v>
       </c>
       <c r="AH94" s="1">
-        <v>4.8484848484848504</v>
+        <v>4.84848484848485</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="A95" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>34</v>
@@ -10201,7 +10171,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>34</v>
@@ -10226,72 +10196,72 @@
       </c>
       <c r="M95" s="1"/>
       <c r="N95" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O95" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q95" s="3">
+      <c r="Q95" s="2">
         <v>39542.58452546296</v>
       </c>
-      <c r="R95" s="3">
-        <v>39542.596932870372</v>
+      <c r="R95" s="2">
+        <v>39542.59693287037</v>
       </c>
       <c r="S95" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T95" s="1">
-        <v>10.751179618203199</v>
+        <v>10.7511796182032</v>
       </c>
       <c r="U95" s="1">
-        <v>75.922269002930904</v>
+        <v>75.9222690029309</v>
       </c>
       <c r="V95" s="1">
-        <v>41.710497237569101</v>
+        <v>41.7104972375691</v>
       </c>
       <c r="W95" s="1">
-        <v>332.30165745856402</v>
+        <v>332.301657458564</v>
       </c>
       <c r="X95" s="1">
         <v>1.22008522594733</v>
       </c>
       <c r="Y95" s="1">
-        <v>905</v>
+        <v>905.0</v>
       </c>
       <c r="Z95" s="1">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="AA95" s="1">
-        <v>1089</v>
+        <v>1089.0</v>
       </c>
       <c r="AB95" s="1">
-        <v>99.779492833517097</v>
+        <v>99.7794928335171</v>
       </c>
       <c r="AC95" s="1">
-        <v>505454.94604371901</v>
+        <v>505454.946043719</v>
       </c>
       <c r="AD95" s="1">
         <v>1117.02750506899</v>
       </c>
       <c r="AE95" s="1">
-        <v>506571.97354878898</v>
+        <v>506571.973548789</v>
       </c>
       <c r="AF95" s="1">
-        <v>54155.677688152799</v>
+        <v>54155.6776881528</v>
       </c>
       <c r="AG95" s="1">
-        <v>907</v>
+        <v>907.0</v>
       </c>
       <c r="AH95" s="1">
-        <v>4.8511576626240398</v>
+        <v>4.85115766262404</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="A96" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>34</v>
@@ -10303,7 +10273,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>34</v>
@@ -10328,72 +10298,72 @@
       </c>
       <c r="M96" s="1"/>
       <c r="N96" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O96" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q96" s="3">
-        <v>39542.584513888891</v>
-      </c>
-      <c r="R96" s="3">
-        <v>39542.593946759262</v>
+      <c r="Q96" s="2">
+        <v>39542.58451388889</v>
+      </c>
+      <c r="R96" s="2">
+        <v>39542.59394675926</v>
       </c>
       <c r="S96" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T96" s="1">
-        <v>10.766787028674999</v>
+        <v>10.766787028675</v>
       </c>
       <c r="U96" s="1">
-        <v>75.830227485175499</v>
+        <v>75.8302274851755</v>
       </c>
       <c r="V96" s="1">
-        <v>41.782168186423498</v>
+        <v>41.7821681864235</v>
       </c>
       <c r="W96" s="1">
-        <v>333.62006079027401</v>
+        <v>333.620060790274</v>
       </c>
       <c r="X96" s="1">
         <v>1.22806202068632</v>
       </c>
       <c r="Y96" s="1">
-        <v>987</v>
+        <v>987.0</v>
       </c>
       <c r="Z96" s="1">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AA96" s="1">
-        <v>1156</v>
+        <v>1156.0</v>
       </c>
       <c r="AB96" s="1">
-        <v>99.495967741935502</v>
+        <v>99.4959677419355</v>
       </c>
       <c r="AC96" s="1">
-        <v>551253.07375154796</v>
+        <v>551253.073751548</v>
       </c>
       <c r="AD96" s="1">
-        <v>2792.5687626724798</v>
+        <v>2792.56876267248</v>
       </c>
       <c r="AE96" s="1">
-        <v>554045.64251422102</v>
+        <v>554045.642514221</v>
       </c>
       <c r="AF96" s="1">
-        <v>62533.590182803302</v>
+        <v>62533.5901828033</v>
       </c>
       <c r="AG96" s="1">
-        <v>992</v>
+        <v>992.0</v>
       </c>
       <c r="AH96" s="1">
-        <v>6.9556451612903203</v>
+        <v>6.95564516129032</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="A97" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>34</v>
@@ -10405,7 +10375,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>34</v>
@@ -10430,72 +10400,72 @@
       </c>
       <c r="M97" s="1"/>
       <c r="N97" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O97" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q97" s="3">
+      <c r="Q97" s="2">
         <v>39542.584328703706</v>
       </c>
-      <c r="R97" s="3">
-        <v>39542.590925925928</v>
+      <c r="R97" s="2">
+        <v>39542.59092592593</v>
       </c>
       <c r="S97" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T97" s="1">
-        <v>10.954992243764799</v>
+        <v>10.9549922437648</v>
       </c>
       <c r="U97" s="1">
-        <v>78.858331009165497</v>
+        <v>78.8583310091655</v>
       </c>
       <c r="V97" s="1">
-        <v>42.502070393374701</v>
+        <v>42.5020703933747</v>
       </c>
       <c r="W97" s="1">
         <v>343.455486542443</v>
       </c>
       <c r="X97" s="1">
-        <v>1.2251214497555101</v>
+        <v>1.22512144975551</v>
       </c>
       <c r="Y97" s="1">
-        <v>966</v>
+        <v>966.0</v>
       </c>
       <c r="Z97" s="1">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="AA97" s="1">
-        <v>1215</v>
+        <v>1215.0</v>
       </c>
       <c r="AB97" s="1">
-        <v>99.178644763860405</v>
+        <v>99.1786447638604</v>
       </c>
       <c r="AC97" s="1">
-        <v>539524.28494832397</v>
+        <v>539524.284948324</v>
       </c>
       <c r="AD97" s="1">
-        <v>4468.1100202759699</v>
+        <v>4468.11002027597</v>
       </c>
       <c r="AE97" s="1">
-        <v>543992.39496860001</v>
+        <v>543992.3949686</v>
       </c>
       <c r="AF97" s="1">
-        <v>46373.461112402598</v>
+        <v>46373.4611124026</v>
       </c>
       <c r="AG97" s="1">
-        <v>974</v>
+        <v>974.0</v>
       </c>
       <c r="AH97" s="1">
-        <v>6.6735112936345002</v>
+        <v>6.6735112936345</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="A98" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>34</v>
@@ -10507,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>3700901</v>
+        <v>3700901.0</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>34</v>
@@ -10532,18 +10502,18 @@
       </c>
       <c r="M98" s="1"/>
       <c r="N98" s="1">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="O98" s="1">
-        <v>300</v>
+        <v>300.0</v>
       </c>
       <c r="P98" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q98" s="3">
-        <v>39542.491550925923</v>
-      </c>
-      <c r="R98" s="3">
+      <c r="Q98" s="2">
+        <v>39542.49155092592</v>
+      </c>
+      <c r="R98" s="2">
         <v>39542.49486111111</v>
       </c>
       <c r="S98" s="1" t="s">
@@ -10553,28 +10523,28 @@
         <v>12.5180016241404</v>
       </c>
       <c r="U98" s="1">
-        <v>99.754887417069597</v>
+        <v>99.7548874170696</v>
       </c>
       <c r="V98" s="1">
         <v>48.6563661255623</v>
       </c>
       <c r="W98" s="1">
-        <v>418.69665558380598</v>
+        <v>418.696655583806</v>
       </c>
       <c r="X98" s="1">
-        <v>1.2332653471585699</v>
+        <v>1.23326534715857</v>
       </c>
       <c r="Y98" s="1">
-        <v>5113</v>
+        <v>5113.0</v>
       </c>
       <c r="Z98" s="1">
-        <v>247</v>
+        <v>247.0</v>
       </c>
       <c r="AA98" s="1">
-        <v>5819</v>
+        <v>5819.0</v>
       </c>
       <c r="AB98" s="1">
-        <v>95.391791044776099</v>
+        <v>95.3917910447761</v>
       </c>
       <c r="AC98" s="1">
         <v>2855680.81670888</v>
@@ -10583,19 +10553,19 @@
         <v>137952.896876021</v>
       </c>
       <c r="AE98" s="1">
-        <v>2993633.7135848999</v>
+        <v>2993633.7135849</v>
       </c>
       <c r="AF98" s="1">
-        <v>150854.55422054901</v>
+        <v>150854.554220549</v>
       </c>
       <c r="AG98" s="1">
-        <v>5360</v>
+        <v>5360.0</v>
       </c>
       <c r="AH98" s="1">
-        <v>8.4888059701492509</v>
+        <v>8.48880597014925</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>